--- a/BackTest/2020-01-25 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-25 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C2" t="n">
         <v>181</v>
       </c>
       <c r="D2" t="n">
-        <v>181</v>
+        <v>183.1</v>
       </c>
       <c r="E2" t="n">
         <v>181</v>
       </c>
       <c r="F2" t="n">
-        <v>6780.6177</v>
+        <v>12170.3875</v>
       </c>
       <c r="G2" t="n">
-        <v>180.8149999999997</v>
+        <v>180.7949999999997</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D3" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E3" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F3" t="n">
-        <v>10830.067</v>
+        <v>6780.6177</v>
       </c>
       <c r="G3" t="n">
-        <v>180.8499999999997</v>
+        <v>180.8149999999997</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>182</v>
       </c>
       <c r="C4" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D4" t="n">
         <v>182</v>
       </c>
       <c r="E4" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>10830.067</v>
       </c>
       <c r="G4" t="n">
-        <v>180.8699999999997</v>
+        <v>180.8499999999997</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C5" t="n">
         <v>181</v>
       </c>
       <c r="D5" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E5" t="n">
         <v>181</v>
       </c>
       <c r="F5" t="n">
-        <v>64.6443</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>180.893333333333</v>
+        <v>180.8699999999997</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>182.7</v>
+        <v>181</v>
       </c>
       <c r="C6" t="n">
-        <v>180.6</v>
+        <v>181</v>
       </c>
       <c r="D6" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E6" t="n">
-        <v>180.6</v>
+        <v>181</v>
       </c>
       <c r="F6" t="n">
-        <v>12298.8228</v>
+        <v>64.6443</v>
       </c>
       <c r="G6" t="n">
-        <v>180.9099999999997</v>
+        <v>180.893333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>182</v>
+        <v>182.7</v>
       </c>
       <c r="C7" t="n">
-        <v>182</v>
+        <v>180.6</v>
       </c>
       <c r="D7" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E7" t="n">
-        <v>182</v>
+        <v>180.6</v>
       </c>
       <c r="F7" t="n">
-        <v>26.96</v>
+        <v>12298.8228</v>
       </c>
       <c r="G7" t="n">
-        <v>180.9499999999997</v>
+        <v>180.9099999999997</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>183.9</v>
+        <v>182</v>
       </c>
       <c r="C8" t="n">
-        <v>183.9</v>
+        <v>182</v>
       </c>
       <c r="D8" t="n">
-        <v>183.9</v>
+        <v>182</v>
       </c>
       <c r="E8" t="n">
-        <v>183.9</v>
+        <v>182</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>26.96</v>
       </c>
       <c r="G8" t="n">
-        <v>181.018333333333</v>
+        <v>180.9499999999997</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>183.8</v>
+        <v>183.9</v>
       </c>
       <c r="C9" t="n">
-        <v>182</v>
+        <v>183.9</v>
       </c>
       <c r="D9" t="n">
-        <v>183.8</v>
+        <v>183.9</v>
       </c>
       <c r="E9" t="n">
-        <v>182</v>
+        <v>183.9</v>
       </c>
       <c r="F9" t="n">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>181.053333333333</v>
+        <v>181.018333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>180.9</v>
+        <v>183.8</v>
       </c>
       <c r="C10" t="n">
-        <v>180.8</v>
+        <v>182</v>
       </c>
       <c r="D10" t="n">
-        <v>180.9</v>
+        <v>183.8</v>
       </c>
       <c r="E10" t="n">
-        <v>180.8</v>
+        <v>182</v>
       </c>
       <c r="F10" t="n">
-        <v>1500</v>
+        <v>125</v>
       </c>
       <c r="G10" t="n">
         <v>181.053333333333</v>
@@ -760,16 +760,16 @@
         <v>180.8</v>
       </c>
       <c r="F11" t="n">
-        <v>757.5542</v>
+        <v>1500</v>
       </c>
       <c r="G11" t="n">
-        <v>181.0549999999997</v>
+        <v>181.053333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>180.8</v>
+        <v>180.9</v>
       </c>
       <c r="C12" t="n">
         <v>180.8</v>
       </c>
       <c r="D12" t="n">
-        <v>180.8</v>
+        <v>180.9</v>
       </c>
       <c r="E12" t="n">
         <v>180.8</v>
       </c>
       <c r="F12" t="n">
-        <v>1210</v>
+        <v>757.5542</v>
       </c>
       <c r="G12" t="n">
-        <v>181.0566666666663</v>
+        <v>181.0549999999997</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>181.9</v>
+        <v>180.8</v>
       </c>
       <c r="C13" t="n">
-        <v>180.7</v>
+        <v>180.8</v>
       </c>
       <c r="D13" t="n">
-        <v>181.9</v>
+        <v>180.8</v>
       </c>
       <c r="E13" t="n">
-        <v>180.7</v>
+        <v>180.8</v>
       </c>
       <c r="F13" t="n">
-        <v>4138.2294</v>
+        <v>1210</v>
       </c>
       <c r="G13" t="n">
-        <v>181.0549999999997</v>
+        <v>181.0566666666663</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,19 +853,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>180.8</v>
+        <v>181.9</v>
       </c>
       <c r="C14" t="n">
-        <v>180.8</v>
+        <v>180.7</v>
       </c>
       <c r="D14" t="n">
-        <v>180.8</v>
+        <v>181.9</v>
       </c>
       <c r="E14" t="n">
-        <v>180.8</v>
+        <v>180.7</v>
       </c>
       <c r="F14" t="n">
-        <v>694.6034</v>
+        <v>4138.2294</v>
       </c>
       <c r="G14" t="n">
         <v>181.0549999999997</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>181</v>
+        <v>180.8</v>
       </c>
       <c r="C15" t="n">
         <v>180.8</v>
       </c>
       <c r="D15" t="n">
-        <v>181</v>
+        <v>180.8</v>
       </c>
       <c r="E15" t="n">
         <v>180.8</v>
       </c>
       <c r="F15" t="n">
-        <v>791.28</v>
+        <v>694.6034</v>
       </c>
       <c r="G15" t="n">
-        <v>181.053333333333</v>
+        <v>181.0549999999997</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>180.9</v>
+        <v>181</v>
       </c>
       <c r="C16" t="n">
-        <v>180.9</v>
+        <v>180.8</v>
       </c>
       <c r="D16" t="n">
-        <v>180.9</v>
+        <v>181</v>
       </c>
       <c r="E16" t="n">
-        <v>180.9</v>
+        <v>180.8</v>
       </c>
       <c r="F16" t="n">
-        <v>183.6</v>
+        <v>791.28</v>
       </c>
       <c r="G16" t="n">
-        <v>181.0399999999997</v>
+        <v>181.053333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>181</v>
+        <v>180.9</v>
       </c>
       <c r="C17" t="n">
-        <v>181</v>
+        <v>180.9</v>
       </c>
       <c r="D17" t="n">
-        <v>181</v>
+        <v>180.9</v>
       </c>
       <c r="E17" t="n">
-        <v>181</v>
+        <v>180.9</v>
       </c>
       <c r="F17" t="n">
-        <v>247</v>
+        <v>183.6</v>
       </c>
       <c r="G17" t="n">
-        <v>181.0616666666663</v>
+        <v>181.0399999999997</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>181</v>
       </c>
       <c r="C18" t="n">
-        <v>180.9</v>
+        <v>181</v>
       </c>
       <c r="D18" t="n">
         <v>181</v>
       </c>
       <c r="E18" t="n">
-        <v>180.9</v>
+        <v>181</v>
       </c>
       <c r="F18" t="n">
-        <v>1952.701</v>
+        <v>247</v>
       </c>
       <c r="G18" t="n">
-        <v>181.048333333333</v>
+        <v>181.0616666666663</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>180.9</v>
+        <v>181</v>
       </c>
       <c r="C19" t="n">
         <v>180.9</v>
       </c>
       <c r="D19" t="n">
-        <v>180.9</v>
+        <v>181</v>
       </c>
       <c r="E19" t="n">
         <v>180.9</v>
       </c>
       <c r="F19" t="n">
-        <v>2353.1387</v>
+        <v>1952.701</v>
       </c>
       <c r="G19" t="n">
-        <v>181.033333333333</v>
+        <v>181.048333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>180.8</v>
+        <v>180.9</v>
       </c>
       <c r="C20" t="n">
-        <v>180.8</v>
+        <v>180.9</v>
       </c>
       <c r="D20" t="n">
-        <v>180.8</v>
+        <v>180.9</v>
       </c>
       <c r="E20" t="n">
-        <v>180.8</v>
+        <v>180.9</v>
       </c>
       <c r="F20" t="n">
-        <v>3110.178</v>
+        <v>2353.1387</v>
       </c>
       <c r="G20" t="n">
-        <v>181.0149999999996</v>
+        <v>181.033333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>180.7</v>
+        <v>180.8</v>
       </c>
       <c r="C21" t="n">
-        <v>180.7</v>
+        <v>180.8</v>
       </c>
       <c r="D21" t="n">
-        <v>180.7</v>
+        <v>180.8</v>
       </c>
       <c r="E21" t="n">
-        <v>180.7</v>
+        <v>180.8</v>
       </c>
       <c r="F21" t="n">
-        <v>2632</v>
+        <v>3110.178</v>
       </c>
       <c r="G21" t="n">
-        <v>181.0316666666663</v>
+        <v>181.0149999999996</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>180.7</v>
       </c>
       <c r="F22" t="n">
-        <v>306</v>
+        <v>2632</v>
       </c>
       <c r="G22" t="n">
-        <v>181.013333333333</v>
+        <v>181.0316666666663</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>180.7</v>
       </c>
       <c r="C23" t="n">
-        <v>180.6</v>
+        <v>180.7</v>
       </c>
       <c r="D23" t="n">
         <v>180.7</v>
       </c>
       <c r="E23" t="n">
-        <v>180.6</v>
+        <v>180.7</v>
       </c>
       <c r="F23" t="n">
-        <v>1706.6756</v>
+        <v>306</v>
       </c>
       <c r="G23" t="n">
-        <v>180.978333333333</v>
+        <v>181.013333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>180.6</v>
+        <v>180.7</v>
       </c>
       <c r="C24" t="n">
         <v>180.6</v>
       </c>
       <c r="D24" t="n">
-        <v>180.6</v>
+        <v>180.7</v>
       </c>
       <c r="E24" t="n">
         <v>180.6</v>
       </c>
       <c r="F24" t="n">
-        <v>9240</v>
+        <v>1706.6756</v>
       </c>
       <c r="G24" t="n">
-        <v>180.9566666666663</v>
+        <v>180.978333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>180.6</v>
       </c>
       <c r="F25" t="n">
-        <v>4660</v>
+        <v>9240</v>
       </c>
       <c r="G25" t="n">
-        <v>180.9749999999997</v>
+        <v>180.9566666666663</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>180.6</v>
       </c>
       <c r="F26" t="n">
-        <v>253.575</v>
+        <v>4660</v>
       </c>
       <c r="G26" t="n">
-        <v>180.9716666666664</v>
+        <v>180.9749999999997</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>180.7</v>
+        <v>180.6</v>
       </c>
       <c r="C27" t="n">
-        <v>180.7</v>
+        <v>180.6</v>
       </c>
       <c r="D27" t="n">
-        <v>180.7</v>
+        <v>180.6</v>
       </c>
       <c r="E27" t="n">
-        <v>180.7</v>
+        <v>180.6</v>
       </c>
       <c r="F27" t="n">
-        <v>4994.4879</v>
+        <v>253.575</v>
       </c>
       <c r="G27" t="n">
-        <v>180.9866666666664</v>
+        <v>180.9716666666664</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>180.6</v>
+        <v>180.7</v>
       </c>
       <c r="C28" t="n">
-        <v>180.6</v>
+        <v>180.7</v>
       </c>
       <c r="D28" t="n">
-        <v>180.6</v>
+        <v>180.7</v>
       </c>
       <c r="E28" t="n">
-        <v>180.6</v>
+        <v>180.7</v>
       </c>
       <c r="F28" t="n">
-        <v>438.117</v>
+        <v>4994.4879</v>
       </c>
       <c r="G28" t="n">
-        <v>180.9983333333331</v>
+        <v>180.9866666666664</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>180.7</v>
+        <v>180.6</v>
       </c>
       <c r="C29" t="n">
-        <v>180.7</v>
+        <v>180.6</v>
       </c>
       <c r="D29" t="n">
-        <v>180.7</v>
+        <v>180.6</v>
       </c>
       <c r="E29" t="n">
-        <v>180.7</v>
+        <v>180.6</v>
       </c>
       <c r="F29" t="n">
-        <v>3240</v>
+        <v>438.117</v>
       </c>
       <c r="G29" t="n">
-        <v>181.0116666666664</v>
+        <v>180.9983333333331</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>180.7</v>
       </c>
       <c r="C30" t="n">
-        <v>180.9</v>
+        <v>180.7</v>
       </c>
       <c r="D30" t="n">
-        <v>180.9</v>
+        <v>180.7</v>
       </c>
       <c r="E30" t="n">
         <v>180.7</v>
       </c>
       <c r="F30" t="n">
-        <v>3551.435</v>
+        <v>3240</v>
       </c>
       <c r="G30" t="n">
-        <v>181.0299999999997</v>
+        <v>181.0116666666664</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>180.6</v>
+        <v>180.7</v>
       </c>
       <c r="C31" t="n">
-        <v>180.2</v>
+        <v>180.9</v>
       </c>
       <c r="D31" t="n">
-        <v>180.6</v>
+        <v>180.9</v>
       </c>
       <c r="E31" t="n">
-        <v>180.2</v>
+        <v>180.7</v>
       </c>
       <c r="F31" t="n">
-        <v>187.614</v>
+        <v>3551.435</v>
       </c>
       <c r="G31" t="n">
-        <v>181.0349999999998</v>
+        <v>181.0299999999997</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>180.3</v>
+        <v>180.6</v>
       </c>
       <c r="C32" t="n">
-        <v>180.3</v>
+        <v>180.2</v>
       </c>
       <c r="D32" t="n">
-        <v>180.3</v>
+        <v>180.6</v>
       </c>
       <c r="E32" t="n">
-        <v>180.3</v>
+        <v>180.2</v>
       </c>
       <c r="F32" t="n">
-        <v>25</v>
+        <v>187.614</v>
       </c>
       <c r="G32" t="n">
-        <v>181.0433333333331</v>
+        <v>181.0349999999998</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>180.2</v>
+        <v>180.3</v>
       </c>
       <c r="C33" t="n">
-        <v>180.1</v>
+        <v>180.3</v>
       </c>
       <c r="D33" t="n">
-        <v>180.2</v>
+        <v>180.3</v>
       </c>
       <c r="E33" t="n">
-        <v>180.1</v>
+        <v>180.3</v>
       </c>
       <c r="F33" t="n">
-        <v>6960</v>
+        <v>25</v>
       </c>
       <c r="G33" t="n">
-        <v>181.0466666666665</v>
+        <v>181.0433333333331</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>180.2</v>
       </c>
       <c r="C34" t="n">
-        <v>180.2</v>
+        <v>180.1</v>
       </c>
       <c r="D34" t="n">
         <v>180.2</v>
       </c>
       <c r="E34" t="n">
-        <v>180.2</v>
+        <v>180.1</v>
       </c>
       <c r="F34" t="n">
-        <v>1102.999</v>
+        <v>6960</v>
       </c>
       <c r="G34" t="n">
-        <v>181.0533333333331</v>
+        <v>181.0466666666665</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>180.3</v>
+        <v>180.2</v>
       </c>
       <c r="C35" t="n">
-        <v>180.3</v>
+        <v>180.2</v>
       </c>
       <c r="D35" t="n">
-        <v>180.3</v>
+        <v>180.2</v>
       </c>
       <c r="E35" t="n">
-        <v>180.3</v>
+        <v>180.2</v>
       </c>
       <c r="F35" t="n">
-        <v>1665.6288</v>
+        <v>1102.999</v>
       </c>
       <c r="G35" t="n">
-        <v>181.0599999999998</v>
+        <v>181.0533333333331</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>180.9</v>
+        <v>180.3</v>
       </c>
       <c r="C36" t="n">
-        <v>180.9</v>
+        <v>180.3</v>
       </c>
       <c r="D36" t="n">
-        <v>180.9</v>
+        <v>180.3</v>
       </c>
       <c r="E36" t="n">
-        <v>180.9</v>
+        <v>180.3</v>
       </c>
       <c r="F36" t="n">
-        <v>1782.0417</v>
+        <v>1665.6288</v>
       </c>
       <c r="G36" t="n">
-        <v>181.0766666666665</v>
+        <v>181.0599999999998</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>181.9</v>
+        <v>180.9</v>
       </c>
       <c r="C37" t="n">
-        <v>181.9</v>
+        <v>180.9</v>
       </c>
       <c r="D37" t="n">
-        <v>181.9</v>
+        <v>180.9</v>
       </c>
       <c r="E37" t="n">
-        <v>181.9</v>
+        <v>180.9</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>1782.0417</v>
       </c>
       <c r="G37" t="n">
-        <v>181.1116666666665</v>
+        <v>181.0766666666665</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>180.4</v>
+        <v>181.9</v>
       </c>
       <c r="C38" t="n">
         <v>181.9</v>
@@ -1702,13 +1702,13 @@
         <v>181.9</v>
       </c>
       <c r="E38" t="n">
-        <v>180.4</v>
+        <v>181.9</v>
       </c>
       <c r="F38" t="n">
-        <v>807.441</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>181.1733333333331</v>
+        <v>181.1116666666665</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>181.9</v>
+        <v>180.4</v>
       </c>
       <c r="C39" t="n">
         <v>181.9</v>
@@ -1737,13 +1737,13 @@
         <v>181.9</v>
       </c>
       <c r="E39" t="n">
-        <v>181.9</v>
+        <v>180.4</v>
       </c>
       <c r="F39" t="n">
-        <v>1000</v>
+        <v>807.441</v>
       </c>
       <c r="G39" t="n">
-        <v>181.2066666666665</v>
+        <v>181.1733333333331</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>181.9</v>
       </c>
       <c r="F40" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G40" t="n">
-        <v>181.2233333333331</v>
+        <v>181.2066666666665</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>181.8</v>
+        <v>181.9</v>
       </c>
       <c r="C41" t="n">
-        <v>180.1</v>
+        <v>181.9</v>
       </c>
       <c r="D41" t="n">
-        <v>181.8</v>
+        <v>181.9</v>
       </c>
       <c r="E41" t="n">
-        <v>180.1</v>
+        <v>181.9</v>
       </c>
       <c r="F41" t="n">
-        <v>4843.4293</v>
+        <v>500</v>
       </c>
       <c r="G41" t="n">
-        <v>181.1933333333331</v>
+        <v>181.2233333333331</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,16 +1836,16 @@
         <v>181.8</v>
       </c>
       <c r="C42" t="n">
-        <v>181.8</v>
+        <v>180.1</v>
       </c>
       <c r="D42" t="n">
         <v>181.8</v>
       </c>
       <c r="E42" t="n">
-        <v>181.8</v>
+        <v>180.1</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>4843.4293</v>
       </c>
       <c r="G42" t="n">
         <v>181.1933333333331</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>180.5</v>
+        <v>181.8</v>
       </c>
       <c r="C43" t="n">
-        <v>180.5</v>
+        <v>181.8</v>
       </c>
       <c r="D43" t="n">
-        <v>180.5</v>
+        <v>181.8</v>
       </c>
       <c r="E43" t="n">
-        <v>180.5</v>
+        <v>181.8</v>
       </c>
       <c r="F43" t="n">
-        <v>1100</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>181.1683333333331</v>
+        <v>181.1933333333331</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,28 +1903,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>180.2</v>
+        <v>180.5</v>
       </c>
       <c r="C44" t="n">
-        <v>180.1</v>
+        <v>180.5</v>
       </c>
       <c r="D44" t="n">
-        <v>180.2</v>
+        <v>180.5</v>
       </c>
       <c r="E44" t="n">
-        <v>180.1</v>
+        <v>180.5</v>
       </c>
       <c r="F44" t="n">
-        <v>9981.946400000001</v>
+        <v>1100</v>
       </c>
       <c r="G44" t="n">
-        <v>181.1366666666665</v>
+        <v>181.1683333333331</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>179.7</v>
+        <v>180.2</v>
       </c>
       <c r="C45" t="n">
-        <v>181.9</v>
+        <v>180.1</v>
       </c>
       <c r="D45" t="n">
-        <v>181.9</v>
+        <v>180.2</v>
       </c>
       <c r="E45" t="n">
-        <v>179.7</v>
+        <v>180.1</v>
       </c>
       <c r="F45" t="n">
-        <v>625.3082000000001</v>
+        <v>9981.946400000001</v>
       </c>
       <c r="G45" t="n">
-        <v>181.1383333333332</v>
+        <v>181.1366666666665</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>179.7</v>
       </c>
       <c r="C46" t="n">
-        <v>179.7</v>
+        <v>181.9</v>
       </c>
       <c r="D46" t="n">
-        <v>179.7</v>
+        <v>181.9</v>
       </c>
       <c r="E46" t="n">
         <v>179.7</v>
       </c>
       <c r="F46" t="n">
-        <v>4928.0548</v>
+        <v>625.3082000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>181.1033333333332</v>
+        <v>181.1383333333332</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>179.7</v>
       </c>
       <c r="F47" t="n">
-        <v>1260</v>
+        <v>4928.0548</v>
       </c>
       <c r="G47" t="n">
-        <v>181.0683333333332</v>
+        <v>181.1033333333332</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>179.7</v>
       </c>
       <c r="C48" t="n">
-        <v>179</v>
+        <v>179.7</v>
       </c>
       <c r="D48" t="n">
         <v>179.7</v>
       </c>
       <c r="E48" t="n">
-        <v>179</v>
+        <v>179.7</v>
       </c>
       <c r="F48" t="n">
-        <v>26905.818</v>
+        <v>1260</v>
       </c>
       <c r="G48" t="n">
-        <v>181.0216666666665</v>
+        <v>181.0683333333332</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>179.6</v>
+        <v>179.7</v>
       </c>
       <c r="C49" t="n">
-        <v>179.7</v>
+        <v>179</v>
       </c>
       <c r="D49" t="n">
         <v>179.7</v>
       </c>
       <c r="E49" t="n">
-        <v>179.6</v>
+        <v>179</v>
       </c>
       <c r="F49" t="n">
-        <v>9980</v>
+        <v>26905.818</v>
       </c>
       <c r="G49" t="n">
-        <v>180.9866666666666</v>
+        <v>181.0216666666665</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>179.1</v>
+        <v>179.6</v>
       </c>
       <c r="C50" t="n">
-        <v>179.1</v>
+        <v>179.7</v>
       </c>
       <c r="D50" t="n">
-        <v>179.1</v>
+        <v>179.7</v>
       </c>
       <c r="E50" t="n">
-        <v>179.1</v>
+        <v>179.6</v>
       </c>
       <c r="F50" t="n">
-        <v>600</v>
+        <v>9980</v>
       </c>
       <c r="G50" t="n">
-        <v>180.9416666666666</v>
+        <v>180.9866666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>179</v>
+        <v>179.1</v>
       </c>
       <c r="C51" t="n">
-        <v>179</v>
+        <v>179.1</v>
       </c>
       <c r="D51" t="n">
-        <v>179</v>
+        <v>179.1</v>
       </c>
       <c r="E51" t="n">
-        <v>179</v>
+        <v>179.1</v>
       </c>
       <c r="F51" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G51" t="n">
-        <v>180.8983333333332</v>
+        <v>180.9416666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>179.6</v>
+        <v>179</v>
       </c>
       <c r="C52" t="n">
-        <v>181.4</v>
+        <v>179</v>
       </c>
       <c r="D52" t="n">
-        <v>181.4</v>
+        <v>179</v>
       </c>
       <c r="E52" t="n">
-        <v>179.6</v>
+        <v>179</v>
       </c>
       <c r="F52" t="n">
-        <v>5102.57775391</v>
+        <v>300</v>
       </c>
       <c r="G52" t="n">
-        <v>180.9133333333332</v>
+        <v>180.8983333333332</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>179.1</v>
+        <v>179.6</v>
       </c>
       <c r="C53" t="n">
-        <v>178.5</v>
+        <v>181.4</v>
       </c>
       <c r="D53" t="n">
-        <v>179.1</v>
+        <v>181.4</v>
       </c>
       <c r="E53" t="n">
-        <v>178.5</v>
+        <v>179.6</v>
       </c>
       <c r="F53" t="n">
-        <v>945.77</v>
+        <v>5102.57775391</v>
       </c>
       <c r="G53" t="n">
-        <v>180.8799999999999</v>
+        <v>180.9133333333332</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>179</v>
+        <v>179.1</v>
       </c>
       <c r="C54" t="n">
-        <v>179</v>
+        <v>178.5</v>
       </c>
       <c r="D54" t="n">
-        <v>179</v>
+        <v>179.1</v>
       </c>
       <c r="E54" t="n">
-        <v>179</v>
+        <v>178.5</v>
       </c>
       <c r="F54" t="n">
-        <v>105.3233</v>
+        <v>945.77</v>
       </c>
       <c r="G54" t="n">
-        <v>180.8333333333332</v>
+        <v>180.8799999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>180.9</v>
+        <v>179</v>
       </c>
       <c r="C55" t="n">
-        <v>180.9</v>
+        <v>179</v>
       </c>
       <c r="D55" t="n">
-        <v>180.9</v>
+        <v>179</v>
       </c>
       <c r="E55" t="n">
-        <v>180.9</v>
+        <v>179</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>105.3233</v>
       </c>
       <c r="G55" t="n">
-        <v>180.8183333333332</v>
+        <v>180.8333333333332</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>179</v>
+        <v>180.9</v>
       </c>
       <c r="C56" t="n">
-        <v>179</v>
+        <v>180.9</v>
       </c>
       <c r="D56" t="n">
-        <v>179</v>
+        <v>180.9</v>
       </c>
       <c r="E56" t="n">
-        <v>179</v>
+        <v>180.9</v>
       </c>
       <c r="F56" t="n">
-        <v>81.0615</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>180.7699999999999</v>
+        <v>180.8183333333332</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>179</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>81.0615</v>
       </c>
       <c r="G57" t="n">
-        <v>180.7216666666666</v>
+        <v>180.7699999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>178.5</v>
+        <v>179</v>
       </c>
       <c r="C58" t="n">
-        <v>178.5</v>
+        <v>179</v>
       </c>
       <c r="D58" t="n">
-        <v>178.5</v>
+        <v>179</v>
       </c>
       <c r="E58" t="n">
-        <v>178.5</v>
+        <v>179</v>
       </c>
       <c r="F58" t="n">
-        <v>19.99</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>180.6649999999999</v>
+        <v>180.7216666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>179</v>
+        <v>178.5</v>
       </c>
       <c r="C59" t="n">
-        <v>179</v>
+        <v>178.5</v>
       </c>
       <c r="D59" t="n">
-        <v>179</v>
+        <v>178.5</v>
       </c>
       <c r="E59" t="n">
-        <v>179</v>
+        <v>178.5</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>19.99</v>
       </c>
       <c r="G59" t="n">
-        <v>180.6316666666666</v>
+        <v>180.6649999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>179</v>
       </c>
       <c r="C60" t="n">
-        <v>181.8</v>
+        <v>179</v>
       </c>
       <c r="D60" t="n">
-        <v>181.8</v>
+        <v>179</v>
       </c>
       <c r="E60" t="n">
         <v>179</v>
       </c>
       <c r="F60" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>180.6283333333332</v>
+        <v>180.6316666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>180.8</v>
+        <v>179</v>
       </c>
       <c r="C61" t="n">
-        <v>180.8</v>
+        <v>181.8</v>
       </c>
       <c r="D61" t="n">
-        <v>180.8</v>
+        <v>181.8</v>
       </c>
       <c r="E61" t="n">
-        <v>180.8</v>
+        <v>179</v>
       </c>
       <c r="F61" t="n">
-        <v>85.687</v>
+        <v>40</v>
       </c>
       <c r="G61" t="n">
-        <v>180.6249999999999</v>
+        <v>180.6283333333332</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>181.5</v>
+        <v>180.8</v>
       </c>
       <c r="C62" t="n">
-        <v>181.5</v>
+        <v>180.8</v>
       </c>
       <c r="D62" t="n">
-        <v>181.5</v>
+        <v>180.8</v>
       </c>
       <c r="E62" t="n">
-        <v>181.5</v>
+        <v>180.8</v>
       </c>
       <c r="F62" t="n">
-        <v>3</v>
+        <v>85.687</v>
       </c>
       <c r="G62" t="n">
-        <v>180.6333333333332</v>
+        <v>180.6249999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>178.5</v>
+        <v>181.5</v>
       </c>
       <c r="C63" t="n">
-        <v>178.5</v>
+        <v>181.5</v>
       </c>
       <c r="D63" t="n">
-        <v>178.5</v>
+        <v>181.5</v>
       </c>
       <c r="E63" t="n">
-        <v>178.5</v>
+        <v>181.5</v>
       </c>
       <c r="F63" t="n">
-        <v>7659.6812</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
-        <v>180.5749999999999</v>
+        <v>180.6333333333332</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>180.9</v>
+        <v>178.5</v>
       </c>
       <c r="C64" t="n">
-        <v>180.9</v>
+        <v>178.5</v>
       </c>
       <c r="D64" t="n">
-        <v>180.9</v>
+        <v>178.5</v>
       </c>
       <c r="E64" t="n">
-        <v>180.9</v>
+        <v>178.5</v>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>7659.6812</v>
       </c>
       <c r="G64" t="n">
-        <v>180.5733333333332</v>
+        <v>180.5749999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>178.4</v>
+        <v>180.9</v>
       </c>
       <c r="C65" t="n">
-        <v>178.4</v>
+        <v>180.9</v>
       </c>
       <c r="D65" t="n">
-        <v>178.4</v>
+        <v>180.9</v>
       </c>
       <c r="E65" t="n">
-        <v>178.4</v>
+        <v>180.9</v>
       </c>
       <c r="F65" t="n">
-        <v>112.1158</v>
+        <v>3</v>
       </c>
       <c r="G65" t="n">
-        <v>180.5299999999999</v>
+        <v>180.5733333333332</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>179</v>
+        <v>178.4</v>
       </c>
       <c r="C66" t="n">
         <v>178.4</v>
       </c>
       <c r="D66" t="n">
-        <v>179</v>
+        <v>178.4</v>
       </c>
       <c r="E66" t="n">
         <v>178.4</v>
       </c>
       <c r="F66" t="n">
-        <v>173.2167</v>
+        <v>112.1158</v>
       </c>
       <c r="G66" t="n">
-        <v>180.4933333333332</v>
+        <v>180.5299999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>178.4</v>
+        <v>179</v>
       </c>
       <c r="C67" t="n">
         <v>178.4</v>
       </c>
       <c r="D67" t="n">
-        <v>178.4</v>
+        <v>179</v>
       </c>
       <c r="E67" t="n">
         <v>178.4</v>
       </c>
       <c r="F67" t="n">
-        <v>342.5603</v>
+        <v>173.2167</v>
       </c>
       <c r="G67" t="n">
-        <v>180.4333333333332</v>
+        <v>180.4933333333332</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>178.2</v>
+        <v>178.4</v>
       </c>
       <c r="C68" t="n">
-        <v>178</v>
+        <v>178.4</v>
       </c>
       <c r="D68" t="n">
-        <v>178.2</v>
+        <v>178.4</v>
       </c>
       <c r="E68" t="n">
-        <v>178</v>
+        <v>178.4</v>
       </c>
       <c r="F68" t="n">
-        <v>17325.6951</v>
+        <v>342.5603</v>
       </c>
       <c r="G68" t="n">
-        <v>180.3349999999999</v>
+        <v>180.4333333333332</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>178</v>
+        <v>178.2</v>
       </c>
       <c r="C69" t="n">
         <v>178</v>
       </c>
       <c r="D69" t="n">
-        <v>178</v>
+        <v>178.2</v>
       </c>
       <c r="E69" t="n">
         <v>178</v>
       </c>
       <c r="F69" t="n">
-        <v>238.071</v>
+        <v>17325.6951</v>
       </c>
       <c r="G69" t="n">
-        <v>180.2683333333332</v>
+        <v>180.3349999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>178</v>
       </c>
       <c r="F70" t="n">
-        <v>750.225</v>
+        <v>238.071</v>
       </c>
       <c r="G70" t="n">
-        <v>180.2216666666666</v>
+        <v>180.2683333333332</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>178</v>
       </c>
       <c r="F71" t="n">
-        <v>4505.245</v>
+        <v>750.225</v>
       </c>
       <c r="G71" t="n">
-        <v>180.1749999999999</v>
+        <v>180.2216666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>178</v>
       </c>
       <c r="F72" t="n">
-        <v>585.354</v>
+        <v>4505.245</v>
       </c>
       <c r="G72" t="n">
-        <v>180.1283333333332</v>
+        <v>180.1749999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>178</v>
       </c>
       <c r="F73" t="n">
-        <v>2062.492</v>
+        <v>585.354</v>
       </c>
       <c r="G73" t="n">
-        <v>180.0833333333332</v>
+        <v>180.1283333333332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>178</v>
       </c>
       <c r="F74" t="n">
-        <v>641.7037</v>
+        <v>2062.492</v>
       </c>
       <c r="G74" t="n">
-        <v>180.0366666666666</v>
+        <v>180.0833333333332</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>178</v>
       </c>
       <c r="F75" t="n">
-        <v>4954.486</v>
+        <v>641.7037</v>
       </c>
       <c r="G75" t="n">
-        <v>179.9899999999999</v>
+        <v>180.0366666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>178</v>
       </c>
       <c r="F76" t="n">
-        <v>16943.3766</v>
+        <v>4954.486</v>
       </c>
       <c r="G76" t="n">
-        <v>179.9416666666666</v>
+        <v>179.9899999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>178</v>
       </c>
       <c r="F77" t="n">
-        <v>3816.1376</v>
+        <v>16943.3766</v>
       </c>
       <c r="G77" t="n">
-        <v>179.8916666666666</v>
+        <v>179.9416666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         <v>178</v>
       </c>
       <c r="F78" t="n">
-        <v>1227.4324</v>
+        <v>3816.1376</v>
       </c>
       <c r="G78" t="n">
-        <v>179.8433333333333</v>
+        <v>179.8916666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,23 +3140,19 @@
         <v>178</v>
       </c>
       <c r="F79" t="n">
-        <v>12.5774</v>
+        <v>1227.4324</v>
       </c>
       <c r="G79" t="n">
-        <v>179.795</v>
+        <v>179.8433333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>178</v>
-      </c>
-      <c r="K79" t="n">
-        <v>178</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
@@ -3170,1187 +3166,1015 @@
         <v>178</v>
       </c>
       <c r="C80" t="n">
+        <v>178</v>
+      </c>
+      <c r="D80" t="n">
+        <v>178</v>
+      </c>
+      <c r="E80" t="n">
+        <v>178</v>
+      </c>
+      <c r="F80" t="n">
+        <v>12.5774</v>
+      </c>
+      <c r="G80" t="n">
+        <v>179.795</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>178</v>
+      </c>
+      <c r="C81" t="n">
         <v>179</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D81" t="n">
         <v>179</v>
       </c>
-      <c r="E80" t="n">
-        <v>178</v>
-      </c>
-      <c r="F80" t="n">
+      <c r="E81" t="n">
+        <v>178</v>
+      </c>
+      <c r="F81" t="n">
         <v>300</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G81" t="n">
         <v>179.765</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>178</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>178</v>
+      </c>
+      <c r="C82" t="n">
+        <v>178</v>
+      </c>
+      <c r="D82" t="n">
+        <v>178</v>
+      </c>
+      <c r="E82" t="n">
+        <v>178</v>
+      </c>
+      <c r="F82" t="n">
+        <v>40.1265</v>
+      </c>
+      <c r="G82" t="n">
+        <v>179.7199999999999</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>178</v>
+      </c>
+      <c r="C83" t="n">
+        <v>178</v>
+      </c>
+      <c r="D83" t="n">
+        <v>178</v>
+      </c>
+      <c r="E83" t="n">
+        <v>178</v>
+      </c>
+      <c r="F83" t="n">
+        <v>40.1265</v>
+      </c>
+      <c r="G83" t="n">
+        <v>179.6749999999999</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>178</v>
+      </c>
+      <c r="C84" t="n">
+        <v>177.3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>178</v>
+      </c>
+      <c r="E84" t="n">
+        <v>177.3</v>
+      </c>
+      <c r="F84" t="n">
+        <v>31456.1391</v>
+      </c>
+      <c r="G84" t="n">
+        <v>179.6199999999999</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="C85" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="D85" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="E85" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3</v>
+      </c>
+      <c r="G85" t="n">
+        <v>179.6216666666666</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="C86" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="D86" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="E86" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>14.0848</v>
+      </c>
+      <c r="G86" t="n">
+        <v>179.5683333333332</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="C87" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="D87" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="E87" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3</v>
+      </c>
+      <c r="G87" t="n">
+        <v>179.5516666666666</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="D88" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="F88" t="n">
+        <v>40075.5463</v>
+      </c>
+      <c r="G88" t="n">
+        <v>179.4849999999999</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="C89" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="D89" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="E89" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3</v>
+      </c>
+      <c r="G89" t="n">
+        <v>179.4499999999999</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>177.1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="D90" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="E90" t="n">
+        <v>177.1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>5904.5144</v>
+      </c>
+      <c r="G90" t="n">
+        <v>179.4116666666665</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="D91" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="E91" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="F91" t="n">
+        <v>707.9777</v>
+      </c>
+      <c r="G91" t="n">
+        <v>179.3716666666666</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="C92" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1120.44817927</v>
+      </c>
+      <c r="G92" t="n">
+        <v>179.3433333333332</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>178</v>
+      </c>
+      <c r="C93" t="n">
+        <v>178</v>
+      </c>
+      <c r="D93" t="n">
+        <v>178</v>
+      </c>
+      <c r="E93" t="n">
+        <v>178</v>
+      </c>
+      <c r="F93" t="n">
+        <v>147.8246</v>
+      </c>
+      <c r="G93" t="n">
+        <v>179.3049999999999</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="C94" t="n">
+        <v>177</v>
+      </c>
+      <c r="D94" t="n">
+        <v>178</v>
+      </c>
+      <c r="E94" t="n">
+        <v>177</v>
+      </c>
+      <c r="F94" t="n">
+        <v>10003</v>
+      </c>
+      <c r="G94" t="n">
+        <v>179.2533333333332</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>177</v>
+      </c>
+      <c r="C95" t="n">
+        <v>177</v>
+      </c>
+      <c r="D95" t="n">
+        <v>177</v>
+      </c>
+      <c r="E95" t="n">
+        <v>177</v>
+      </c>
+      <c r="F95" t="n">
+        <v>45</v>
+      </c>
+      <c r="G95" t="n">
+        <v>179.1999999999999</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="C96" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="D96" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="E96" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3</v>
+      </c>
+      <c r="G96" t="n">
+        <v>179.1583333333332</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="C97" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D97" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="E97" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3400</v>
+      </c>
+      <c r="G97" t="n">
+        <v>179.0866666666666</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C98" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E98" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1040.0279</v>
+      </c>
+      <c r="G98" t="n">
+        <v>178.9983333333332</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="C99" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="D99" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="E99" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3</v>
+      </c>
+      <c r="G99" t="n">
+        <v>178.9299999999999</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C100" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D100" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E100" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G100" t="n">
+        <v>178.8416666666666</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C101" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D101" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E101" t="n">
+        <v>176</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1783.9999</v>
+      </c>
+      <c r="G101" t="n">
+        <v>178.7533333333332</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>176</v>
+      </c>
+      <c r="C102" t="n">
+        <v>176</v>
+      </c>
+      <c r="D102" t="n">
+        <v>176</v>
+      </c>
+      <c r="E102" t="n">
+        <v>176</v>
+      </c>
+      <c r="F102" t="n">
+        <v>371.9937</v>
+      </c>
+      <c r="G102" t="n">
+        <v>178.6849999999999</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C103" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E103" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3</v>
+      </c>
+      <c r="G103" t="n">
+        <v>178.5983333333333</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C104" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D104" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E104" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3</v>
+      </c>
+      <c r="G104" t="n">
+        <v>178.5333333333333</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>176</v>
+      </c>
+      <c r="C105" t="n">
+        <v>176</v>
+      </c>
+      <c r="D105" t="n">
+        <v>176</v>
+      </c>
+      <c r="E105" t="n">
+        <v>176</v>
+      </c>
+      <c r="F105" t="n">
+        <v>586.538</v>
+      </c>
+      <c r="G105" t="n">
+        <v>178.4649999999999</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>176.1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>176</v>
+      </c>
+      <c r="D106" t="n">
+        <v>176.1</v>
+      </c>
+      <c r="E106" t="n">
+        <v>176</v>
+      </c>
+      <c r="F106" t="n">
+        <v>176.009</v>
+      </c>
+      <c r="G106" t="n">
+        <v>178.3666666666666</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C107" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D107" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E107" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3</v>
+      </c>
+      <c r="G107" t="n">
+        <v>178.3149999999999</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C108" t="n">
+        <v>178</v>
+      </c>
+      <c r="D108" t="n">
+        <v>178</v>
+      </c>
+      <c r="E108" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F108" t="n">
+        <v>79</v>
+      </c>
+      <c r="G108" t="n">
+        <v>178.2866666666666</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>178</v>
-      </c>
-      <c r="C81" t="n">
-        <v>178</v>
-      </c>
-      <c r="D81" t="n">
-        <v>178</v>
-      </c>
-      <c r="E81" t="n">
-        <v>178</v>
-      </c>
-      <c r="F81" t="n">
-        <v>40.1265</v>
-      </c>
-      <c r="G81" t="n">
-        <v>179.7199999999999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>178</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>178</v>
-      </c>
-      <c r="C82" t="n">
-        <v>178</v>
-      </c>
-      <c r="D82" t="n">
-        <v>178</v>
-      </c>
-      <c r="E82" t="n">
-        <v>178</v>
-      </c>
-      <c r="F82" t="n">
-        <v>40.1265</v>
-      </c>
-      <c r="G82" t="n">
-        <v>179.6749999999999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>178</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>178</v>
-      </c>
-      <c r="C83" t="n">
-        <v>177.3</v>
-      </c>
-      <c r="D83" t="n">
-        <v>178</v>
-      </c>
-      <c r="E83" t="n">
-        <v>177.3</v>
-      </c>
-      <c r="F83" t="n">
-        <v>31456.1391</v>
-      </c>
-      <c r="G83" t="n">
-        <v>179.6199999999999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>178</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="C84" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="D84" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="E84" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="F84" t="n">
-        <v>3</v>
-      </c>
-      <c r="G84" t="n">
-        <v>179.6216666666666</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>178</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>177.4</v>
-      </c>
-      <c r="C85" t="n">
-        <v>177.4</v>
-      </c>
-      <c r="D85" t="n">
-        <v>177.4</v>
-      </c>
-      <c r="E85" t="n">
-        <v>177.4</v>
-      </c>
-      <c r="F85" t="n">
-        <v>14.0848</v>
-      </c>
-      <c r="G85" t="n">
-        <v>179.5683333333332</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>178</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="C86" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="D86" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="E86" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="F86" t="n">
-        <v>3</v>
-      </c>
-      <c r="G86" t="n">
-        <v>179.5516666666666</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>178</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="C87" t="n">
-        <v>176.7</v>
-      </c>
-      <c r="D87" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="E87" t="n">
-        <v>176.7</v>
-      </c>
-      <c r="F87" t="n">
-        <v>40075.5463</v>
-      </c>
-      <c r="G87" t="n">
-        <v>179.4849999999999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>178</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="C88" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="D88" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="E88" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="F88" t="n">
-        <v>3</v>
-      </c>
-      <c r="G88" t="n">
-        <v>179.4499999999999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>178</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>177.1</v>
-      </c>
-      <c r="C89" t="n">
-        <v>178.4</v>
-      </c>
-      <c r="D89" t="n">
-        <v>178.4</v>
-      </c>
-      <c r="E89" t="n">
-        <v>177.1</v>
-      </c>
-      <c r="F89" t="n">
-        <v>5904.5144</v>
-      </c>
-      <c r="G89" t="n">
-        <v>179.4116666666665</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>178</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="C90" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="D90" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="E90" t="n">
-        <v>178.4</v>
-      </c>
-      <c r="F90" t="n">
-        <v>707.9777</v>
-      </c>
-      <c r="G90" t="n">
-        <v>179.3716666666666</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>178</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="C91" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="D91" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="E91" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1120.44817927</v>
-      </c>
-      <c r="G91" t="n">
-        <v>179.3433333333332</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>178</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>178</v>
-      </c>
-      <c r="C92" t="n">
-        <v>178</v>
-      </c>
-      <c r="D92" t="n">
-        <v>178</v>
-      </c>
-      <c r="E92" t="n">
-        <v>178</v>
-      </c>
-      <c r="F92" t="n">
-        <v>147.8246</v>
-      </c>
-      <c r="G92" t="n">
-        <v>179.3049999999999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>178</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>177.9</v>
-      </c>
-      <c r="C93" t="n">
-        <v>177</v>
-      </c>
-      <c r="D93" t="n">
-        <v>178</v>
-      </c>
-      <c r="E93" t="n">
-        <v>177</v>
-      </c>
-      <c r="F93" t="n">
-        <v>10003</v>
-      </c>
-      <c r="G93" t="n">
-        <v>179.2533333333332</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>178</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>177</v>
-      </c>
-      <c r="C94" t="n">
-        <v>177</v>
-      </c>
-      <c r="D94" t="n">
-        <v>177</v>
-      </c>
-      <c r="E94" t="n">
-        <v>177</v>
-      </c>
-      <c r="F94" t="n">
-        <v>45</v>
-      </c>
-      <c r="G94" t="n">
-        <v>179.1999999999999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>178</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="C95" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="D95" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="E95" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="F95" t="n">
-        <v>3</v>
-      </c>
-      <c r="G95" t="n">
-        <v>179.1583333333332</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>178</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>176.7</v>
-      </c>
-      <c r="C96" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D96" t="n">
-        <v>176.7</v>
-      </c>
-      <c r="E96" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F96" t="n">
-        <v>3400</v>
-      </c>
-      <c r="G96" t="n">
-        <v>179.0866666666666</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>178</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C97" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D97" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E97" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1040.0279</v>
-      </c>
-      <c r="G97" t="n">
-        <v>178.9983333333332</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>178</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="C98" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="D98" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="E98" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="F98" t="n">
-        <v>3</v>
-      </c>
-      <c r="G98" t="n">
-        <v>178.9299999999999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>178</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C99" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D99" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E99" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G99" t="n">
-        <v>178.8416666666666</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>178</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C100" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D100" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E100" t="n">
-        <v>176</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1783.9999</v>
-      </c>
-      <c r="G100" t="n">
-        <v>178.7533333333332</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="K100" t="n">
-        <v>178</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>176</v>
-      </c>
-      <c r="C101" t="n">
-        <v>176</v>
-      </c>
-      <c r="D101" t="n">
-        <v>176</v>
-      </c>
-      <c r="E101" t="n">
-        <v>176</v>
-      </c>
-      <c r="F101" t="n">
-        <v>371.9937</v>
-      </c>
-      <c r="G101" t="n">
-        <v>178.6849999999999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>178</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C102" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D102" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E102" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F102" t="n">
-        <v>3</v>
-      </c>
-      <c r="G102" t="n">
-        <v>178.5983333333333</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>176</v>
-      </c>
-      <c r="K102" t="n">
-        <v>178</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C103" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D103" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E103" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F103" t="n">
-        <v>3</v>
-      </c>
-      <c r="G103" t="n">
-        <v>178.5333333333333</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>178</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>176</v>
-      </c>
-      <c r="C104" t="n">
-        <v>176</v>
-      </c>
-      <c r="D104" t="n">
-        <v>176</v>
-      </c>
-      <c r="E104" t="n">
-        <v>176</v>
-      </c>
-      <c r="F104" t="n">
-        <v>586.538</v>
-      </c>
-      <c r="G104" t="n">
-        <v>178.4649999999999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>178</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>176.1</v>
-      </c>
-      <c r="C105" t="n">
-        <v>176</v>
-      </c>
-      <c r="D105" t="n">
-        <v>176.1</v>
-      </c>
-      <c r="E105" t="n">
-        <v>176</v>
-      </c>
-      <c r="F105" t="n">
-        <v>176.009</v>
-      </c>
-      <c r="G105" t="n">
-        <v>178.3666666666666</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>178</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C106" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D106" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E106" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F106" t="n">
-        <v>3</v>
-      </c>
-      <c r="G106" t="n">
-        <v>178.3149999999999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>178</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C107" t="n">
-        <v>178</v>
-      </c>
-      <c r="D107" t="n">
-        <v>178</v>
-      </c>
-      <c r="E107" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F107" t="n">
-        <v>79</v>
-      </c>
-      <c r="G107" t="n">
-        <v>178.2866666666666</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>178</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="C108" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="D108" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="E108" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="F108" t="n">
-        <v>5589.56086714</v>
-      </c>
-      <c r="G108" t="n">
-        <v>178.3016666666666</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>178</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4360,22 +4184,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>179.2</v>
+        <v>178.9</v>
       </c>
       <c r="C109" t="n">
-        <v>179.2</v>
+        <v>179.9</v>
       </c>
       <c r="D109" t="n">
-        <v>179.2</v>
+        <v>179.9</v>
       </c>
       <c r="E109" t="n">
-        <v>179.2</v>
+        <v>178.9</v>
       </c>
       <c r="F109" t="n">
-        <v>45.93</v>
+        <v>5589.56086714</v>
       </c>
       <c r="G109" t="n">
-        <v>178.2933333333332</v>
+        <v>178.3016666666666</v>
       </c>
       <c r="H109" t="n">
         <v>1</v>
@@ -4384,11 +4208,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="K109" t="n">
-        <v>178</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4403,22 +4225,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>179.1</v>
+        <v>179.2</v>
       </c>
       <c r="C110" t="n">
-        <v>178.1</v>
+        <v>179.2</v>
       </c>
       <c r="D110" t="n">
-        <v>179.1</v>
+        <v>179.2</v>
       </c>
       <c r="E110" t="n">
-        <v>178.1</v>
+        <v>179.2</v>
       </c>
       <c r="F110" t="n">
-        <v>2011.9862</v>
+        <v>45.93</v>
       </c>
       <c r="G110" t="n">
-        <v>178.2766666666666</v>
+        <v>178.2933333333332</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4427,9 +4249,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>178</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4444,22 +4264,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>178.2</v>
+        <v>179.1</v>
       </c>
       <c r="C111" t="n">
-        <v>178.2</v>
+        <v>178.1</v>
       </c>
       <c r="D111" t="n">
-        <v>178.2</v>
+        <v>179.1</v>
       </c>
       <c r="E111" t="n">
-        <v>178.2</v>
+        <v>178.1</v>
       </c>
       <c r="F111" t="n">
-        <v>5589.5608</v>
+        <v>2011.9862</v>
       </c>
       <c r="G111" t="n">
-        <v>178.2633333333333</v>
+        <v>178.2766666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4468,9 +4288,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>178</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4480,6 +4298,45 @@
         <v>1</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="E112" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5589.5608</v>
+      </c>
+      <c r="G112" t="n">
+        <v>178.2633333333333</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-25 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-25 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>12170.3875</v>
       </c>
       <c r="G2" t="n">
+        <v>181.54</v>
+      </c>
+      <c r="H2" t="n">
         <v>180.7949999999997</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>6780.6177</v>
       </c>
       <c r="G3" t="n">
+        <v>181.4866666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>180.8149999999997</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>10830.067</v>
       </c>
       <c r="G4" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="H4" t="n">
         <v>180.8499999999997</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>3</v>
       </c>
       <c r="G5" t="n">
+        <v>181.4466666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>180.8699999999997</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>64.6443</v>
       </c>
       <c r="G6" t="n">
+        <v>181.3933333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>180.893333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>12298.8228</v>
       </c>
       <c r="G7" t="n">
+        <v>181.3266666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>180.9099999999997</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>26.96</v>
       </c>
       <c r="G8" t="n">
+        <v>181.4266666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>180.9499999999997</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>3</v>
       </c>
       <c r="G9" t="n">
+        <v>181.6533333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>181.018333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>125</v>
       </c>
       <c r="G10" t="n">
+        <v>181.6666666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>181.053333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1500</v>
       </c>
       <c r="G11" t="n">
+        <v>181.6</v>
+      </c>
+      <c r="H11" t="n">
         <v>181.053333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>757.5542</v>
       </c>
       <c r="G12" t="n">
+        <v>181.5266666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>181.0549999999997</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1210</v>
       </c>
       <c r="G13" t="n">
+        <v>181.4533333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>181.0566666666663</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>4138.2294</v>
       </c>
       <c r="G14" t="n">
+        <v>181.3733333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>181.0549999999997</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>694.6034</v>
       </c>
       <c r="G15" t="n">
+        <v>181.36</v>
+      </c>
+      <c r="H15" t="n">
         <v>181.0549999999997</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>791.28</v>
       </c>
       <c r="G16" t="n">
+        <v>181.28</v>
+      </c>
+      <c r="H16" t="n">
         <v>181.053333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>183.6</v>
       </c>
       <c r="G17" t="n">
+        <v>181.2733333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>181.0399999999997</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>247</v>
       </c>
       <c r="G18" t="n">
+        <v>181.2733333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>181.0616666666663</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>1952.701</v>
       </c>
       <c r="G19" t="n">
+        <v>181.2</v>
+      </c>
+      <c r="H19" t="n">
         <v>181.048333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>2353.1387</v>
       </c>
       <c r="G20" t="n">
+        <v>181.1933333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>181.033333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>3110.178</v>
       </c>
       <c r="G21" t="n">
+        <v>181.18</v>
+      </c>
+      <c r="H21" t="n">
         <v>181.0149999999996</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>2632</v>
       </c>
       <c r="G22" t="n">
+        <v>181.1866666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>181.0316666666663</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>306</v>
       </c>
       <c r="G23" t="n">
+        <v>181.1</v>
+      </c>
+      <c r="H23" t="n">
         <v>181.013333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>1706.6756</v>
       </c>
       <c r="G24" t="n">
+        <v>180.88</v>
+      </c>
+      <c r="H24" t="n">
         <v>180.978333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>9240</v>
       </c>
       <c r="G25" t="n">
+        <v>180.7866666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>180.9566666666663</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>4660</v>
       </c>
       <c r="G26" t="n">
+        <v>180.7733333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>180.9749999999997</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>253.575</v>
       </c>
       <c r="G27" t="n">
+        <v>180.7599999999999</v>
+      </c>
+      <c r="H27" t="n">
         <v>180.9716666666664</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>4994.4879</v>
       </c>
       <c r="G28" t="n">
+        <v>180.7533333333332</v>
+      </c>
+      <c r="H28" t="n">
         <v>180.9866666666664</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>438.117</v>
       </c>
       <c r="G29" t="n">
+        <v>180.7466666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>180.9983333333331</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>3240</v>
       </c>
       <c r="G30" t="n">
+        <v>180.7399999999999</v>
+      </c>
+      <c r="H30" t="n">
         <v>181.0116666666664</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>3551.435</v>
       </c>
       <c r="G31" t="n">
+        <v>180.7466666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>181.0299999999997</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>187.614</v>
       </c>
       <c r="G32" t="n">
+        <v>180.6999999999999</v>
+      </c>
+      <c r="H32" t="n">
         <v>181.0349999999998</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>25</v>
       </c>
       <c r="G33" t="n">
+        <v>180.6533333333332</v>
+      </c>
+      <c r="H33" t="n">
         <v>181.0433333333331</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>6960</v>
       </c>
       <c r="G34" t="n">
+        <v>180.5999999999999</v>
+      </c>
+      <c r="H34" t="n">
         <v>181.0466666666665</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>1102.999</v>
       </c>
       <c r="G35" t="n">
+        <v>180.5533333333332</v>
+      </c>
+      <c r="H35" t="n">
         <v>181.0533333333331</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>1665.6288</v>
       </c>
       <c r="G36" t="n">
+        <v>180.5199999999999</v>
+      </c>
+      <c r="H36" t="n">
         <v>181.0599999999998</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>1782.0417</v>
       </c>
       <c r="G37" t="n">
+        <v>180.5333333333332</v>
+      </c>
+      <c r="H37" t="n">
         <v>181.0766666666665</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>3</v>
       </c>
       <c r="G38" t="n">
+        <v>180.6133333333332</v>
+      </c>
+      <c r="H38" t="n">
         <v>181.1116666666665</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>807.441</v>
       </c>
       <c r="G39" t="n">
+        <v>180.6999999999999</v>
+      </c>
+      <c r="H39" t="n">
         <v>181.1733333333331</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>1000</v>
       </c>
       <c r="G40" t="n">
+        <v>180.7866666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>181.2066666666665</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>500</v>
       </c>
       <c r="G41" t="n">
+        <v>180.8733333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>181.2233333333331</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>4843.4293</v>
       </c>
       <c r="G42" t="n">
+        <v>180.8399999999999</v>
+      </c>
+      <c r="H42" t="n">
         <v>181.1933333333331</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>3</v>
       </c>
       <c r="G43" t="n">
+        <v>180.9133333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>181.1933333333331</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>1100</v>
       </c>
       <c r="G44" t="n">
+        <v>180.9066666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>181.1683333333331</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>9981.946400000001</v>
       </c>
       <c r="G45" t="n">
+        <v>180.8666666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>181.1366666666665</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>625.3082000000001</v>
       </c>
       <c r="G46" t="n">
+        <v>180.9333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>181.1383333333332</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>4928.0548</v>
       </c>
       <c r="G47" t="n">
+        <v>180.9</v>
+      </c>
+      <c r="H47" t="n">
         <v>181.1033333333332</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>1260</v>
       </c>
       <c r="G48" t="n">
+        <v>180.86</v>
+      </c>
+      <c r="H48" t="n">
         <v>181.0683333333332</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>26905.818</v>
       </c>
       <c r="G49" t="n">
+        <v>180.7866666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>181.0216666666665</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>9980</v>
       </c>
       <c r="G50" t="n">
+        <v>180.7533333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>180.9866666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>600</v>
       </c>
       <c r="G51" t="n">
+        <v>180.6733333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>180.9416666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>300</v>
       </c>
       <c r="G52" t="n">
+        <v>180.5466666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>180.8983333333332</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>5102.57775391</v>
       </c>
       <c r="G53" t="n">
+        <v>180.5133333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>180.9133333333332</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>945.77</v>
       </c>
       <c r="G54" t="n">
+        <v>180.2866666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>180.8799999999999</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>105.3233</v>
       </c>
       <c r="G55" t="n">
+        <v>180.0933333333332</v>
+      </c>
+      <c r="H55" t="n">
         <v>180.8333333333332</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>3</v>
       </c>
       <c r="G56" t="n">
+        <v>180.0266666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>180.8183333333332</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>81.0615</v>
       </c>
       <c r="G57" t="n">
+        <v>179.9533333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>180.7699999999999</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>3</v>
       </c>
       <c r="G58" t="n">
+        <v>179.7666666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>180.7216666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>19.99</v>
       </c>
       <c r="G59" t="n">
+        <v>179.6333333333332</v>
+      </c>
+      <c r="H59" t="n">
         <v>180.6649999999999</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>3</v>
       </c>
       <c r="G60" t="n">
+        <v>179.5599999999999</v>
+      </c>
+      <c r="H60" t="n">
         <v>180.6316666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>40</v>
       </c>
       <c r="G61" t="n">
+        <v>179.5533333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>180.6283333333332</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>85.687</v>
       </c>
       <c r="G62" t="n">
+        <v>179.6266666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>180.6249999999999</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>3</v>
       </c>
       <c r="G63" t="n">
+        <v>179.7466666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>180.6333333333332</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>7659.6812</v>
       </c>
       <c r="G64" t="n">
+        <v>179.7133333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>180.5749999999999</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>3</v>
       </c>
       <c r="G65" t="n">
+        <v>179.7933333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>180.5733333333332</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>112.1158</v>
       </c>
       <c r="G66" t="n">
+        <v>179.7466666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>180.5299999999999</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>173.2167</v>
       </c>
       <c r="G67" t="n">
+        <v>179.7066666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>180.4933333333332</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>342.5603</v>
       </c>
       <c r="G68" t="n">
+        <v>179.5066666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>180.4333333333332</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>17325.6951</v>
       </c>
       <c r="G69" t="n">
+        <v>179.4733333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>180.3349999999999</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>238.071</v>
       </c>
       <c r="G70" t="n">
+        <v>179.4066666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>180.2683333333332</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>750.225</v>
       </c>
       <c r="G71" t="n">
+        <v>179.2133333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>180.2216666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>4505.245</v>
       </c>
       <c r="G72" t="n">
+        <v>179.1466666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>180.1749999999999</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>585.354</v>
       </c>
       <c r="G73" t="n">
+        <v>179.08</v>
+      </c>
+      <c r="H73" t="n">
         <v>180.1283333333332</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>2062.492</v>
       </c>
       <c r="G74" t="n">
+        <v>179.0466666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>180.0833333333332</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>641.7037</v>
       </c>
       <c r="G75" t="n">
+        <v>178.98</v>
+      </c>
+      <c r="H75" t="n">
         <v>180.0366666666666</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>4954.486</v>
       </c>
       <c r="G76" t="n">
+        <v>178.7266666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>179.9899999999999</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>16943.3766</v>
       </c>
       <c r="G77" t="n">
+        <v>178.54</v>
+      </c>
+      <c r="H77" t="n">
         <v>179.9416666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>3816.1376</v>
       </c>
       <c r="G78" t="n">
+        <v>178.3066666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>179.8916666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>1227.4324</v>
       </c>
       <c r="G79" t="n">
+        <v>178.2733333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>179.8433333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>12.5774</v>
       </c>
       <c r="G80" t="n">
+        <v>178.08</v>
+      </c>
+      <c r="H80" t="n">
         <v>179.795</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>300</v>
       </c>
       <c r="G81" t="n">
+        <v>178.1199999999999</v>
+      </c>
+      <c r="H81" t="n">
         <v>179.765</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>40.1265</v>
       </c>
       <c r="G82" t="n">
+        <v>178.0933333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>179.7199999999999</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>40.1265</v>
       </c>
       <c r="G83" t="n">
+        <v>178.0666666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>179.6749999999999</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>31456.1391</v>
       </c>
       <c r="G84" t="n">
+        <v>178.02</v>
+      </c>
+      <c r="H84" t="n">
         <v>179.6199999999999</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>3</v>
       </c>
       <c r="G85" t="n">
+        <v>178.1999999999999</v>
+      </c>
+      <c r="H85" t="n">
         <v>179.6216666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>14.0848</v>
       </c>
       <c r="G86" t="n">
+        <v>178.1599999999999</v>
+      </c>
+      <c r="H86" t="n">
         <v>179.5683333333332</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>3</v>
       </c>
       <c r="G87" t="n">
+        <v>178.2666666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>179.5516666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>40075.5463</v>
       </c>
       <c r="G88" t="n">
+        <v>178.1799999999999</v>
+      </c>
+      <c r="H88" t="n">
         <v>179.4849999999999</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>3</v>
       </c>
       <c r="G89" t="n">
+        <v>178.2133333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>179.4499999999999</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>5904.5144</v>
       </c>
       <c r="G90" t="n">
+        <v>178.2399999999999</v>
+      </c>
+      <c r="H90" t="n">
         <v>179.4116666666665</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>707.9777</v>
       </c>
       <c r="G91" t="n">
+        <v>178.2733333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>179.3716666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>1120.44817927</v>
       </c>
       <c r="G92" t="n">
+        <v>178.3066666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>179.3433333333332</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>147.8246</v>
       </c>
       <c r="G93" t="n">
+        <v>178.3066666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>179.3049999999999</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>10003</v>
       </c>
       <c r="G94" t="n">
+        <v>178.2399999999999</v>
+      </c>
+      <c r="H94" t="n">
         <v>179.2533333333332</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>45</v>
       </c>
       <c r="G95" t="n">
+        <v>178.1733333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>179.1999999999999</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>3</v>
       </c>
       <c r="G96" t="n">
+        <v>178.0933333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>179.1583333333332</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,27 @@
         <v>3400</v>
       </c>
       <c r="G97" t="n">
+        <v>177.9999999999999</v>
+      </c>
+      <c r="H97" t="n">
         <v>179.0866666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>177.8</v>
+      </c>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4107,27 @@
         <v>1040.0279</v>
       </c>
       <c r="G98" t="n">
+        <v>177.9066666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>178.9983333333332</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>176.6</v>
+      </c>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4151,27 @@
         <v>3</v>
       </c>
       <c r="G99" t="n">
+        <v>177.9399999999999</v>
+      </c>
+      <c r="H99" t="n">
         <v>178.9299999999999</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>176.6</v>
+      </c>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4195,25 @@
         <v>1500</v>
       </c>
       <c r="G100" t="n">
+        <v>177.6666666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>178.8416666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4237,27 @@
         <v>1783.9999</v>
       </c>
       <c r="G101" t="n">
+        <v>177.6133333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>178.7533333333332</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>176.6</v>
+      </c>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4281,25 @@
         <v>371.9937</v>
       </c>
       <c r="G102" t="n">
+        <v>177.3733333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>178.6849999999999</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4323,25 @@
         <v>3</v>
       </c>
       <c r="G103" t="n">
+        <v>177.3666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>178.5983333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4365,25 @@
         <v>3</v>
       </c>
       <c r="G104" t="n">
+        <v>177.2399999999999</v>
+      </c>
+      <c r="H104" t="n">
         <v>178.5333333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4407,27 @@
         <v>586.538</v>
       </c>
       <c r="G105" t="n">
+        <v>177.0799999999999</v>
+      </c>
+      <c r="H105" t="n">
         <v>178.4649999999999</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>176.6</v>
+      </c>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4451,27 @@
         <v>176.009</v>
       </c>
       <c r="G106" t="n">
+        <v>176.9133333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>178.3666666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>176</v>
+      </c>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4495,27 @@
         <v>3</v>
       </c>
       <c r="G107" t="n">
+        <v>176.7866666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>178.3149999999999</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>176</v>
+      </c>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,24 +4539,27 @@
         <v>79</v>
       </c>
       <c r="G108" t="n">
+        <v>176.7866666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>178.2866666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
         <v>176.6</v>
       </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4199,24 +4583,27 @@
         <v>5589.56086714</v>
       </c>
       <c r="G109" t="n">
+        <v>176.9799999999999</v>
+      </c>
+      <c r="H109" t="n">
         <v>178.3016666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>178</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>178</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4240,22 +4627,25 @@
         <v>45.93</v>
       </c>
       <c r="G110" t="n">
+        <v>177.1266666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>178.2933333333332</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,22 +4669,25 @@
         <v>2011.9862</v>
       </c>
       <c r="G111" t="n">
+        <v>177.1466666666666</v>
+      </c>
+      <c r="H111" t="n">
         <v>178.2766666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4318,22 +4711,445 @@
         <v>5589.5608</v>
       </c>
       <c r="G112" t="n">
+        <v>177.2533333333332</v>
+      </c>
+      <c r="H112" t="n">
         <v>178.2633333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>179</v>
+      </c>
+      <c r="C113" t="n">
+        <v>179</v>
+      </c>
+      <c r="D113" t="n">
+        <v>179</v>
+      </c>
+      <c r="E113" t="n">
+        <v>179</v>
+      </c>
+      <c r="F113" t="n">
+        <v>191.4401</v>
+      </c>
+      <c r="G113" t="n">
+        <v>177.4133333333332</v>
+      </c>
+      <c r="H113" t="n">
+        <v>178.2233333333333</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="C114" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="D114" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="E114" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3</v>
+      </c>
+      <c r="G114" t="n">
+        <v>177.5533333333332</v>
+      </c>
+      <c r="H114" t="n">
+        <v>178.2466666666666</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>180</v>
+      </c>
+      <c r="C115" t="n">
+        <v>180</v>
+      </c>
+      <c r="D115" t="n">
+        <v>180</v>
+      </c>
+      <c r="E115" t="n">
+        <v>180</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1832.1826</v>
+      </c>
+      <c r="G115" t="n">
+        <v>177.7799999999999</v>
+      </c>
+      <c r="H115" t="n">
+        <v>178.2633333333333</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="C116" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="D116" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="E116" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3</v>
+      </c>
+      <c r="G116" t="n">
+        <v>178.0333333333332</v>
+      </c>
+      <c r="H116" t="n">
+        <v>178.2549999999999</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="C117" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="D117" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="E117" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="F117" t="n">
+        <v>3</v>
+      </c>
+      <c r="G117" t="n">
+        <v>178.3399999999999</v>
+      </c>
+      <c r="H117" t="n">
+        <v>178.2816666666666</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="C118" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="D118" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="E118" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="F118" t="n">
+        <v>4.1753</v>
+      </c>
+      <c r="G118" t="n">
+        <v>178.6066666666666</v>
+      </c>
+      <c r="H118" t="n">
+        <v>178.3083333333333</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3</v>
+      </c>
+      <c r="G119" t="n">
+        <v>178.8666666666666</v>
+      </c>
+      <c r="H119" t="n">
+        <v>178.3416666666666</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="C120" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="D120" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="E120" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="F120" t="n">
+        <v>53.5964</v>
+      </c>
+      <c r="G120" t="n">
+        <v>179.1733333333332</v>
+      </c>
+      <c r="H120" t="n">
+        <v>178.3683333333333</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G121" t="n">
+        <v>179.4733333333332</v>
+      </c>
+      <c r="H121" t="n">
+        <v>178.3466666666666</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="C122" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="E122" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G122" t="n">
+        <v>179.7466666666666</v>
+      </c>
+      <c r="H122" t="n">
+        <v>178.345</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-25 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-25 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>183</v>
+        <v>179.8</v>
       </c>
       <c r="C2" t="n">
-        <v>181</v>
+        <v>179.8</v>
       </c>
       <c r="D2" t="n">
-        <v>183.1</v>
+        <v>179.8</v>
       </c>
       <c r="E2" t="n">
-        <v>181</v>
+        <v>179.8</v>
       </c>
       <c r="F2" t="n">
-        <v>12170.3875</v>
+        <v>129.1074</v>
       </c>
       <c r="G2" t="n">
-        <v>181.54</v>
+        <v>-98857.63996715</v>
       </c>
       <c r="H2" t="n">
-        <v>180.7949999999997</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>181</v>
+        <v>179.9</v>
       </c>
       <c r="C3" t="n">
-        <v>181</v>
+        <v>179.9</v>
       </c>
       <c r="D3" t="n">
-        <v>181</v>
+        <v>179.9</v>
       </c>
       <c r="E3" t="n">
-        <v>181</v>
+        <v>179.9</v>
       </c>
       <c r="F3" t="n">
-        <v>6780.6177</v>
+        <v>640.192</v>
       </c>
       <c r="G3" t="n">
-        <v>181.4866666666667</v>
+        <v>-98217.44796715</v>
       </c>
       <c r="H3" t="n">
-        <v>180.8149999999997</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>182</v>
+        <v>179.9</v>
       </c>
       <c r="C4" t="n">
-        <v>182</v>
+        <v>179.8</v>
       </c>
       <c r="D4" t="n">
-        <v>182</v>
+        <v>179.9</v>
       </c>
       <c r="E4" t="n">
-        <v>182</v>
+        <v>179.8</v>
       </c>
       <c r="F4" t="n">
-        <v>10830.067</v>
+        <v>3695.513</v>
       </c>
       <c r="G4" t="n">
-        <v>181.5</v>
+        <v>-101912.96096715</v>
       </c>
       <c r="H4" t="n">
-        <v>180.8499999999997</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>182</v>
+        <v>179.9</v>
       </c>
       <c r="C5" t="n">
-        <v>181</v>
+        <v>179.9</v>
       </c>
       <c r="D5" t="n">
-        <v>182</v>
+        <v>179.9</v>
       </c>
       <c r="E5" t="n">
-        <v>181</v>
+        <v>179.9</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>2900.114</v>
       </c>
       <c r="G5" t="n">
-        <v>181.4466666666667</v>
+        <v>-99012.84696715001</v>
       </c>
       <c r="H5" t="n">
-        <v>180.8699999999997</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>181</v>
+        <v>179.9</v>
       </c>
       <c r="C6" t="n">
-        <v>181</v>
+        <v>179.9</v>
       </c>
       <c r="D6" t="n">
-        <v>181</v>
+        <v>179.9</v>
       </c>
       <c r="E6" t="n">
-        <v>181</v>
+        <v>179.9</v>
       </c>
       <c r="F6" t="n">
-        <v>64.6443</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>181.3933333333333</v>
+        <v>-99012.84696715001</v>
       </c>
       <c r="H6" t="n">
-        <v>180.893333333333</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>182.7</v>
+        <v>179.8</v>
       </c>
       <c r="C7" t="n">
-        <v>180.6</v>
+        <v>179.8</v>
       </c>
       <c r="D7" t="n">
-        <v>183</v>
+        <v>179.8</v>
       </c>
       <c r="E7" t="n">
-        <v>180.6</v>
+        <v>179.8</v>
       </c>
       <c r="F7" t="n">
-        <v>12298.8228</v>
+        <v>1875.562</v>
       </c>
       <c r="G7" t="n">
-        <v>181.3266666666667</v>
+        <v>-100888.40896715</v>
       </c>
       <c r="H7" t="n">
-        <v>180.9099999999997</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>182</v>
+        <v>178.2</v>
       </c>
       <c r="C8" t="n">
-        <v>182</v>
+        <v>178.2</v>
       </c>
       <c r="D8" t="n">
-        <v>182</v>
+        <v>178.2</v>
       </c>
       <c r="E8" t="n">
-        <v>182</v>
+        <v>178.2</v>
       </c>
       <c r="F8" t="n">
-        <v>26.96</v>
+        <v>52</v>
       </c>
       <c r="G8" t="n">
-        <v>181.4266666666666</v>
+        <v>-100940.40896715</v>
       </c>
       <c r="H8" t="n">
-        <v>180.9499999999997</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>183.9</v>
+        <v>179.9</v>
       </c>
       <c r="C9" t="n">
-        <v>183.9</v>
+        <v>179.9</v>
       </c>
       <c r="D9" t="n">
-        <v>183.9</v>
+        <v>179.9</v>
       </c>
       <c r="E9" t="n">
-        <v>183.9</v>
+        <v>179.9</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1105.6952</v>
       </c>
       <c r="G9" t="n">
-        <v>181.6533333333333</v>
+        <v>-99834.71376715001</v>
       </c>
       <c r="H9" t="n">
-        <v>181.018333333333</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>183.8</v>
+        <v>179.9</v>
       </c>
       <c r="C10" t="n">
-        <v>182</v>
+        <v>180.9</v>
       </c>
       <c r="D10" t="n">
-        <v>183.8</v>
+        <v>180.9</v>
       </c>
       <c r="E10" t="n">
-        <v>182</v>
+        <v>179.9</v>
       </c>
       <c r="F10" t="n">
-        <v>125</v>
+        <v>37141.9634</v>
       </c>
       <c r="G10" t="n">
-        <v>181.6666666666666</v>
+        <v>-62692.75036715001</v>
       </c>
       <c r="H10" t="n">
-        <v>181.053333333333</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>180.9</v>
+        <v>181.9</v>
       </c>
       <c r="C11" t="n">
-        <v>180.8</v>
+        <v>181.9</v>
       </c>
       <c r="D11" t="n">
-        <v>180.9</v>
+        <v>181.9</v>
       </c>
       <c r="E11" t="n">
-        <v>180.8</v>
+        <v>181.9</v>
       </c>
       <c r="F11" t="n">
-        <v>1500</v>
+        <v>5483.8165</v>
       </c>
       <c r="G11" t="n">
-        <v>181.6</v>
+        <v>-57208.93386715001</v>
       </c>
       <c r="H11" t="n">
-        <v>181.053333333333</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>180.9</v>
+        <v>181.8</v>
       </c>
       <c r="C12" t="n">
-        <v>180.8</v>
+        <v>181.8</v>
       </c>
       <c r="D12" t="n">
-        <v>180.9</v>
+        <v>181.8</v>
       </c>
       <c r="E12" t="n">
-        <v>180.8</v>
+        <v>181.8</v>
       </c>
       <c r="F12" t="n">
-        <v>757.5542</v>
+        <v>9999.999599999999</v>
       </c>
       <c r="G12" t="n">
-        <v>181.5266666666666</v>
+        <v>-67208.93346715001</v>
       </c>
       <c r="H12" t="n">
-        <v>181.0549999999997</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>180.8</v>
+        <v>181.9</v>
       </c>
       <c r="C13" t="n">
-        <v>180.8</v>
+        <v>182</v>
       </c>
       <c r="D13" t="n">
-        <v>180.8</v>
+        <v>183.9</v>
       </c>
       <c r="E13" t="n">
-        <v>180.8</v>
+        <v>181.9</v>
       </c>
       <c r="F13" t="n">
-        <v>1210</v>
+        <v>14388.0929</v>
       </c>
       <c r="G13" t="n">
-        <v>181.4533333333333</v>
+        <v>-52820.84056715001</v>
       </c>
       <c r="H13" t="n">
-        <v>181.0566666666663</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>181.9</v>
+        <v>182</v>
       </c>
       <c r="C14" t="n">
-        <v>180.7</v>
+        <v>182</v>
       </c>
       <c r="D14" t="n">
-        <v>181.9</v>
+        <v>182</v>
       </c>
       <c r="E14" t="n">
-        <v>180.7</v>
+        <v>182</v>
       </c>
       <c r="F14" t="n">
-        <v>4138.2294</v>
+        <v>21842.1722</v>
       </c>
       <c r="G14" t="n">
-        <v>181.3733333333333</v>
+        <v>-52820.84056715001</v>
       </c>
       <c r="H14" t="n">
-        <v>181.0549999999997</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>180.8</v>
+        <v>181.8</v>
       </c>
       <c r="C15" t="n">
-        <v>180.8</v>
+        <v>181.8</v>
       </c>
       <c r="D15" t="n">
-        <v>180.8</v>
+        <v>181.8</v>
       </c>
       <c r="E15" t="n">
-        <v>180.8</v>
+        <v>181.8</v>
       </c>
       <c r="F15" t="n">
-        <v>694.6034</v>
+        <v>2880</v>
       </c>
       <c r="G15" t="n">
-        <v>181.36</v>
+        <v>-55700.84056715001</v>
       </c>
       <c r="H15" t="n">
-        <v>181.0549999999997</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="C16" t="n">
-        <v>180.8</v>
+        <v>181.8</v>
       </c>
       <c r="D16" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="E16" t="n">
-        <v>180.8</v>
+        <v>181.8</v>
       </c>
       <c r="F16" t="n">
-        <v>791.28</v>
+        <v>250</v>
       </c>
       <c r="G16" t="n">
-        <v>181.28</v>
+        <v>-55700.84056715001</v>
       </c>
       <c r="H16" t="n">
-        <v>181.053333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>180.9</v>
+        <v>181.8</v>
       </c>
       <c r="C17" t="n">
-        <v>180.9</v>
+        <v>181.8</v>
       </c>
       <c r="D17" t="n">
-        <v>180.9</v>
+        <v>181.8</v>
       </c>
       <c r="E17" t="n">
-        <v>180.9</v>
+        <v>181.8</v>
       </c>
       <c r="F17" t="n">
-        <v>183.6</v>
+        <v>14974.7912</v>
       </c>
       <c r="G17" t="n">
-        <v>181.2733333333333</v>
+        <v>-55700.84056715001</v>
       </c>
       <c r="H17" t="n">
-        <v>181.0399999999997</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="C18" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="D18" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="E18" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="F18" t="n">
-        <v>247</v>
+        <v>71.47</v>
       </c>
       <c r="G18" t="n">
-        <v>181.2733333333333</v>
+        <v>-55700.84056715001</v>
       </c>
       <c r="H18" t="n">
-        <v>181.0616666666663</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="C19" t="n">
-        <v>180.9</v>
+        <v>181.8</v>
       </c>
       <c r="D19" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="E19" t="n">
-        <v>180.9</v>
+        <v>181.8</v>
       </c>
       <c r="F19" t="n">
-        <v>1952.701</v>
+        <v>1550.9141</v>
       </c>
       <c r="G19" t="n">
-        <v>181.2</v>
+        <v>-55700.84056715001</v>
       </c>
       <c r="H19" t="n">
-        <v>181.048333333333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>180.9</v>
+        <v>181.8</v>
       </c>
       <c r="C20" t="n">
-        <v>180.9</v>
+        <v>181.8</v>
       </c>
       <c r="D20" t="n">
-        <v>180.9</v>
+        <v>181.8</v>
       </c>
       <c r="E20" t="n">
-        <v>180.9</v>
+        <v>181.8</v>
       </c>
       <c r="F20" t="n">
-        <v>2353.1387</v>
+        <v>2016.1884</v>
       </c>
       <c r="G20" t="n">
-        <v>181.1933333333333</v>
+        <v>-55700.84056715001</v>
       </c>
       <c r="H20" t="n">
-        <v>181.033333333333</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>180.8</v>
+        <v>181.6</v>
       </c>
       <c r="C21" t="n">
-        <v>180.8</v>
+        <v>181.6</v>
       </c>
       <c r="D21" t="n">
-        <v>180.8</v>
+        <v>181.6</v>
       </c>
       <c r="E21" t="n">
-        <v>180.8</v>
+        <v>181.6</v>
       </c>
       <c r="F21" t="n">
-        <v>3110.178</v>
+        <v>384.3575</v>
       </c>
       <c r="G21" t="n">
-        <v>181.18</v>
+        <v>-56085.19806715001</v>
       </c>
       <c r="H21" t="n">
-        <v>181.0149999999996</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>180.7</v>
+        <v>181.6</v>
       </c>
       <c r="C22" t="n">
-        <v>180.7</v>
+        <v>180.5</v>
       </c>
       <c r="D22" t="n">
-        <v>180.7</v>
+        <v>181.6</v>
       </c>
       <c r="E22" t="n">
-        <v>180.7</v>
+        <v>180.5</v>
       </c>
       <c r="F22" t="n">
-        <v>2632</v>
+        <v>2660</v>
       </c>
       <c r="G22" t="n">
-        <v>181.1866666666667</v>
+        <v>-58745.19806715001</v>
       </c>
       <c r="H22" t="n">
-        <v>181.0316666666663</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>180.7</v>
+        <v>180.5</v>
       </c>
       <c r="C23" t="n">
-        <v>180.7</v>
+        <v>180.5</v>
       </c>
       <c r="D23" t="n">
-        <v>180.7</v>
+        <v>180.5</v>
       </c>
       <c r="E23" t="n">
-        <v>180.7</v>
+        <v>180.5</v>
       </c>
       <c r="F23" t="n">
-        <v>306</v>
+        <v>180.16</v>
       </c>
       <c r="G23" t="n">
-        <v>181.1</v>
+        <v>-58745.19806715001</v>
       </c>
       <c r="H23" t="n">
-        <v>181.013333333333</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>180.7</v>
+        <v>181.8</v>
       </c>
       <c r="C24" t="n">
-        <v>180.6</v>
+        <v>181.8</v>
       </c>
       <c r="D24" t="n">
-        <v>180.7</v>
+        <v>181.8</v>
       </c>
       <c r="E24" t="n">
-        <v>180.6</v>
+        <v>181.8</v>
       </c>
       <c r="F24" t="n">
-        <v>1706.6756</v>
+        <v>7000</v>
       </c>
       <c r="G24" t="n">
-        <v>180.88</v>
+        <v>-51745.19806715001</v>
       </c>
       <c r="H24" t="n">
-        <v>180.978333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>180.6</v>
+        <v>181.8</v>
       </c>
       <c r="C25" t="n">
-        <v>180.6</v>
+        <v>181.8</v>
       </c>
       <c r="D25" t="n">
-        <v>180.6</v>
+        <v>181.8</v>
       </c>
       <c r="E25" t="n">
-        <v>180.6</v>
+        <v>181.8</v>
       </c>
       <c r="F25" t="n">
-        <v>9240</v>
+        <v>857</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7866666666667</v>
+        <v>-51745.19806715001</v>
       </c>
       <c r="H25" t="n">
-        <v>180.9566666666663</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>180.6</v>
+        <v>181.9</v>
       </c>
       <c r="C26" t="n">
-        <v>180.6</v>
+        <v>181.9</v>
       </c>
       <c r="D26" t="n">
-        <v>180.6</v>
+        <v>181.9</v>
       </c>
       <c r="E26" t="n">
-        <v>180.6</v>
+        <v>181.9</v>
       </c>
       <c r="F26" t="n">
-        <v>4660</v>
+        <v>2701.3973</v>
       </c>
       <c r="G26" t="n">
-        <v>180.7733333333333</v>
+        <v>-49043.80076715001</v>
       </c>
       <c r="H26" t="n">
-        <v>180.9749999999997</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>180.6</v>
+        <v>181.9</v>
       </c>
       <c r="C27" t="n">
-        <v>180.6</v>
+        <v>181.9</v>
       </c>
       <c r="D27" t="n">
-        <v>180.6</v>
+        <v>181.9</v>
       </c>
       <c r="E27" t="n">
-        <v>180.6</v>
+        <v>181.9</v>
       </c>
       <c r="F27" t="n">
-        <v>253.575</v>
+        <v>85</v>
       </c>
       <c r="G27" t="n">
-        <v>180.7599999999999</v>
+        <v>-49043.80076715001</v>
       </c>
       <c r="H27" t="n">
-        <v>180.9716666666664</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>180.7</v>
+        <v>181.9</v>
       </c>
       <c r="C28" t="n">
-        <v>180.7</v>
+        <v>181.9</v>
       </c>
       <c r="D28" t="n">
-        <v>180.7</v>
+        <v>181.9</v>
       </c>
       <c r="E28" t="n">
-        <v>180.7</v>
+        <v>181.9</v>
       </c>
       <c r="F28" t="n">
-        <v>4994.4879</v>
+        <v>212.68</v>
       </c>
       <c r="G28" t="n">
-        <v>180.7533333333332</v>
+        <v>-49043.80076715001</v>
       </c>
       <c r="H28" t="n">
-        <v>180.9866666666664</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>180.6</v>
+        <v>181.9</v>
       </c>
       <c r="C29" t="n">
-        <v>180.6</v>
+        <v>181</v>
       </c>
       <c r="D29" t="n">
-        <v>180.6</v>
+        <v>181.9</v>
       </c>
       <c r="E29" t="n">
-        <v>180.6</v>
+        <v>181</v>
       </c>
       <c r="F29" t="n">
-        <v>438.117</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>180.7466666666666</v>
+        <v>-49047.80076715001</v>
       </c>
       <c r="H29" t="n">
-        <v>180.9983333333331</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>180.7</v>
+        <v>180.9</v>
       </c>
       <c r="C30" t="n">
-        <v>180.7</v>
+        <v>182</v>
       </c>
       <c r="D30" t="n">
-        <v>180.7</v>
+        <v>182</v>
       </c>
       <c r="E30" t="n">
-        <v>180.7</v>
+        <v>180.9</v>
       </c>
       <c r="F30" t="n">
-        <v>3240</v>
+        <v>7300</v>
       </c>
       <c r="G30" t="n">
-        <v>180.7399999999999</v>
+        <v>-41747.80076715001</v>
       </c>
       <c r="H30" t="n">
-        <v>181.0116666666664</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>180.7</v>
+        <v>183</v>
       </c>
       <c r="C31" t="n">
-        <v>180.9</v>
+        <v>181</v>
       </c>
       <c r="D31" t="n">
-        <v>180.9</v>
+        <v>183.1</v>
       </c>
       <c r="E31" t="n">
-        <v>180.7</v>
+        <v>181</v>
       </c>
       <c r="F31" t="n">
-        <v>3551.435</v>
+        <v>12170.3875</v>
       </c>
       <c r="G31" t="n">
-        <v>180.7466666666666</v>
+        <v>-53918.18826715001</v>
       </c>
       <c r="H31" t="n">
-        <v>181.0299999999997</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>180.6</v>
+        <v>181</v>
       </c>
       <c r="C32" t="n">
-        <v>180.2</v>
+        <v>181</v>
       </c>
       <c r="D32" t="n">
-        <v>180.6</v>
+        <v>181</v>
       </c>
       <c r="E32" t="n">
-        <v>180.2</v>
+        <v>181</v>
       </c>
       <c r="F32" t="n">
-        <v>187.614</v>
+        <v>6780.6177</v>
       </c>
       <c r="G32" t="n">
-        <v>180.6999999999999</v>
+        <v>-53918.18826715001</v>
       </c>
       <c r="H32" t="n">
-        <v>181.0349999999998</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>180.3</v>
+        <v>182</v>
       </c>
       <c r="C33" t="n">
-        <v>180.3</v>
+        <v>182</v>
       </c>
       <c r="D33" t="n">
-        <v>180.3</v>
+        <v>182</v>
       </c>
       <c r="E33" t="n">
-        <v>180.3</v>
+        <v>182</v>
       </c>
       <c r="F33" t="n">
-        <v>25</v>
+        <v>10830.067</v>
       </c>
       <c r="G33" t="n">
-        <v>180.6533333333332</v>
+        <v>-43088.12126715001</v>
       </c>
       <c r="H33" t="n">
-        <v>181.0433333333331</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>180.2</v>
+        <v>182</v>
       </c>
       <c r="C34" t="n">
-        <v>180.1</v>
+        <v>181</v>
       </c>
       <c r="D34" t="n">
-        <v>180.2</v>
+        <v>182</v>
       </c>
       <c r="E34" t="n">
-        <v>180.1</v>
+        <v>181</v>
       </c>
       <c r="F34" t="n">
-        <v>6960</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>180.5999999999999</v>
+        <v>-43091.12126715001</v>
       </c>
       <c r="H34" t="n">
-        <v>181.0466666666665</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>180.2</v>
+        <v>181</v>
       </c>
       <c r="C35" t="n">
-        <v>180.2</v>
+        <v>181</v>
       </c>
       <c r="D35" t="n">
-        <v>180.2</v>
+        <v>181</v>
       </c>
       <c r="E35" t="n">
-        <v>180.2</v>
+        <v>181</v>
       </c>
       <c r="F35" t="n">
-        <v>1102.999</v>
+        <v>64.6443</v>
       </c>
       <c r="G35" t="n">
-        <v>180.5533333333332</v>
+        <v>-43091.12126715001</v>
       </c>
       <c r="H35" t="n">
-        <v>181.0533333333331</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>180.3</v>
+        <v>182.7</v>
       </c>
       <c r="C36" t="n">
-        <v>180.3</v>
+        <v>180.6</v>
       </c>
       <c r="D36" t="n">
-        <v>180.3</v>
+        <v>183</v>
       </c>
       <c r="E36" t="n">
-        <v>180.3</v>
+        <v>180.6</v>
       </c>
       <c r="F36" t="n">
-        <v>1665.6288</v>
+        <v>12298.8228</v>
       </c>
       <c r="G36" t="n">
-        <v>180.5199999999999</v>
+        <v>-55389.94406715001</v>
       </c>
       <c r="H36" t="n">
-        <v>181.0599999999998</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>180.9</v>
+        <v>182</v>
       </c>
       <c r="C37" t="n">
-        <v>180.9</v>
+        <v>182</v>
       </c>
       <c r="D37" t="n">
-        <v>180.9</v>
+        <v>182</v>
       </c>
       <c r="E37" t="n">
-        <v>180.9</v>
+        <v>182</v>
       </c>
       <c r="F37" t="n">
-        <v>1782.0417</v>
+        <v>26.96</v>
       </c>
       <c r="G37" t="n">
-        <v>180.5333333333332</v>
+        <v>-55362.98406715001</v>
       </c>
       <c r="H37" t="n">
-        <v>181.0766666666665</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>181.9</v>
+        <v>183.9</v>
       </c>
       <c r="C38" t="n">
-        <v>181.9</v>
+        <v>183.9</v>
       </c>
       <c r="D38" t="n">
-        <v>181.9</v>
+        <v>183.9</v>
       </c>
       <c r="E38" t="n">
-        <v>181.9</v>
+        <v>183.9</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>180.6133333333332</v>
+        <v>-55359.98406715001</v>
       </c>
       <c r="H38" t="n">
-        <v>181.1116666666665</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>180.4</v>
+        <v>183.8</v>
       </c>
       <c r="C39" t="n">
-        <v>181.9</v>
+        <v>182</v>
       </c>
       <c r="D39" t="n">
-        <v>181.9</v>
+        <v>183.8</v>
       </c>
       <c r="E39" t="n">
-        <v>180.4</v>
+        <v>182</v>
       </c>
       <c r="F39" t="n">
-        <v>807.441</v>
+        <v>125</v>
       </c>
       <c r="G39" t="n">
-        <v>180.6999999999999</v>
+        <v>-55484.98406715001</v>
       </c>
       <c r="H39" t="n">
-        <v>181.1733333333331</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>181.9</v>
+        <v>180.9</v>
       </c>
       <c r="C40" t="n">
-        <v>181.9</v>
+        <v>180.8</v>
       </c>
       <c r="D40" t="n">
-        <v>181.9</v>
+        <v>180.9</v>
       </c>
       <c r="E40" t="n">
-        <v>181.9</v>
+        <v>180.8</v>
       </c>
       <c r="F40" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G40" t="n">
-        <v>180.7866666666666</v>
+        <v>-56984.98406715001</v>
       </c>
       <c r="H40" t="n">
-        <v>181.2066666666665</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>181.9</v>
+        <v>180.9</v>
       </c>
       <c r="C41" t="n">
-        <v>181.9</v>
+        <v>180.8</v>
       </c>
       <c r="D41" t="n">
-        <v>181.9</v>
+        <v>180.9</v>
       </c>
       <c r="E41" t="n">
-        <v>181.9</v>
+        <v>180.8</v>
       </c>
       <c r="F41" t="n">
-        <v>500</v>
+        <v>757.5542</v>
       </c>
       <c r="G41" t="n">
-        <v>180.8733333333333</v>
+        <v>-56984.98406715001</v>
       </c>
       <c r="H41" t="n">
-        <v>181.2233333333331</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>181.8</v>
+        <v>180.8</v>
       </c>
       <c r="C42" t="n">
-        <v>180.1</v>
+        <v>180.8</v>
       </c>
       <c r="D42" t="n">
-        <v>181.8</v>
+        <v>180.8</v>
       </c>
       <c r="E42" t="n">
-        <v>180.1</v>
+        <v>180.8</v>
       </c>
       <c r="F42" t="n">
-        <v>4843.4293</v>
+        <v>1210</v>
       </c>
       <c r="G42" t="n">
-        <v>180.8399999999999</v>
+        <v>-56984.98406715001</v>
       </c>
       <c r="H42" t="n">
-        <v>181.1933333333331</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>181.8</v>
+        <v>181.9</v>
       </c>
       <c r="C43" t="n">
-        <v>181.8</v>
+        <v>180.7</v>
       </c>
       <c r="D43" t="n">
-        <v>181.8</v>
+        <v>181.9</v>
       </c>
       <c r="E43" t="n">
-        <v>181.8</v>
+        <v>180.7</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>4138.2294</v>
       </c>
       <c r="G43" t="n">
-        <v>180.9133333333333</v>
+        <v>-61123.21346715001</v>
       </c>
       <c r="H43" t="n">
-        <v>181.1933333333331</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>180.5</v>
+        <v>180.8</v>
       </c>
       <c r="C44" t="n">
-        <v>180.5</v>
+        <v>180.8</v>
       </c>
       <c r="D44" t="n">
-        <v>180.5</v>
+        <v>180.8</v>
       </c>
       <c r="E44" t="n">
-        <v>180.5</v>
+        <v>180.8</v>
       </c>
       <c r="F44" t="n">
-        <v>1100</v>
+        <v>694.6034</v>
       </c>
       <c r="G44" t="n">
-        <v>180.9066666666666</v>
+        <v>-60428.61006715001</v>
       </c>
       <c r="H44" t="n">
-        <v>181.1683333333331</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>180.2</v>
+        <v>181</v>
       </c>
       <c r="C45" t="n">
-        <v>180.1</v>
+        <v>180.8</v>
       </c>
       <c r="D45" t="n">
-        <v>180.2</v>
+        <v>181</v>
       </c>
       <c r="E45" t="n">
-        <v>180.1</v>
+        <v>180.8</v>
       </c>
       <c r="F45" t="n">
-        <v>9981.946400000001</v>
+        <v>791.28</v>
       </c>
       <c r="G45" t="n">
-        <v>180.8666666666666</v>
+        <v>-60428.61006715001</v>
       </c>
       <c r="H45" t="n">
-        <v>181.1366666666665</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>179.7</v>
+        <v>180.9</v>
       </c>
       <c r="C46" t="n">
-        <v>181.9</v>
+        <v>180.9</v>
       </c>
       <c r="D46" t="n">
-        <v>181.9</v>
+        <v>180.9</v>
       </c>
       <c r="E46" t="n">
-        <v>179.7</v>
+        <v>180.9</v>
       </c>
       <c r="F46" t="n">
-        <v>625.3082000000001</v>
+        <v>183.6</v>
       </c>
       <c r="G46" t="n">
-        <v>180.9333333333333</v>
+        <v>-60245.01006715001</v>
       </c>
       <c r="H46" t="n">
-        <v>181.1383333333332</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>179.7</v>
+        <v>181</v>
       </c>
       <c r="C47" t="n">
-        <v>179.7</v>
+        <v>181</v>
       </c>
       <c r="D47" t="n">
-        <v>179.7</v>
+        <v>181</v>
       </c>
       <c r="E47" t="n">
-        <v>179.7</v>
+        <v>181</v>
       </c>
       <c r="F47" t="n">
-        <v>4928.0548</v>
+        <v>247</v>
       </c>
       <c r="G47" t="n">
-        <v>180.9</v>
+        <v>-59998.01006715001</v>
       </c>
       <c r="H47" t="n">
-        <v>181.1033333333332</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>179.7</v>
+        <v>181</v>
       </c>
       <c r="C48" t="n">
-        <v>179.7</v>
+        <v>180.9</v>
       </c>
       <c r="D48" t="n">
-        <v>179.7</v>
+        <v>181</v>
       </c>
       <c r="E48" t="n">
-        <v>179.7</v>
+        <v>180.9</v>
       </c>
       <c r="F48" t="n">
-        <v>1260</v>
+        <v>1952.701</v>
       </c>
       <c r="G48" t="n">
-        <v>180.86</v>
+        <v>-61950.71106715001</v>
       </c>
       <c r="H48" t="n">
-        <v>181.0683333333332</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>179.7</v>
+        <v>180.9</v>
       </c>
       <c r="C49" t="n">
-        <v>179</v>
+        <v>180.9</v>
       </c>
       <c r="D49" t="n">
-        <v>179.7</v>
+        <v>180.9</v>
       </c>
       <c r="E49" t="n">
-        <v>179</v>
+        <v>180.9</v>
       </c>
       <c r="F49" t="n">
-        <v>26905.818</v>
+        <v>2353.1387</v>
       </c>
       <c r="G49" t="n">
-        <v>180.7866666666666</v>
+        <v>-61950.71106715001</v>
       </c>
       <c r="H49" t="n">
-        <v>181.0216666666665</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>179.6</v>
+        <v>180.8</v>
       </c>
       <c r="C50" t="n">
-        <v>179.7</v>
+        <v>180.8</v>
       </c>
       <c r="D50" t="n">
-        <v>179.7</v>
+        <v>180.8</v>
       </c>
       <c r="E50" t="n">
-        <v>179.6</v>
+        <v>180.8</v>
       </c>
       <c r="F50" t="n">
-        <v>9980</v>
+        <v>3110.178</v>
       </c>
       <c r="G50" t="n">
-        <v>180.7533333333333</v>
+        <v>-65060.88906715001</v>
       </c>
       <c r="H50" t="n">
-        <v>180.9866666666666</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>179.1</v>
+        <v>180.7</v>
       </c>
       <c r="C51" t="n">
-        <v>179.1</v>
+        <v>180.7</v>
       </c>
       <c r="D51" t="n">
-        <v>179.1</v>
+        <v>180.7</v>
       </c>
       <c r="E51" t="n">
-        <v>179.1</v>
+        <v>180.7</v>
       </c>
       <c r="F51" t="n">
-        <v>600</v>
+        <v>2632</v>
       </c>
       <c r="G51" t="n">
-        <v>180.6733333333333</v>
+        <v>-67692.88906715001</v>
       </c>
       <c r="H51" t="n">
-        <v>180.9416666666666</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>179</v>
+        <v>180.7</v>
       </c>
       <c r="C52" t="n">
-        <v>179</v>
+        <v>180.7</v>
       </c>
       <c r="D52" t="n">
-        <v>179</v>
+        <v>180.7</v>
       </c>
       <c r="E52" t="n">
-        <v>179</v>
+        <v>180.7</v>
       </c>
       <c r="F52" t="n">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G52" t="n">
-        <v>180.5466666666666</v>
+        <v>-67692.88906715001</v>
       </c>
       <c r="H52" t="n">
-        <v>180.8983333333332</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>179.6</v>
+        <v>180.7</v>
       </c>
       <c r="C53" t="n">
-        <v>181.4</v>
+        <v>180.6</v>
       </c>
       <c r="D53" t="n">
-        <v>181.4</v>
+        <v>180.7</v>
       </c>
       <c r="E53" t="n">
-        <v>179.6</v>
+        <v>180.6</v>
       </c>
       <c r="F53" t="n">
-        <v>5102.57775391</v>
+        <v>1706.6756</v>
       </c>
       <c r="G53" t="n">
-        <v>180.5133333333333</v>
+        <v>-69399.56466715001</v>
       </c>
       <c r="H53" t="n">
-        <v>180.9133333333332</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>179.1</v>
+        <v>180.6</v>
       </c>
       <c r="C54" t="n">
-        <v>178.5</v>
+        <v>180.6</v>
       </c>
       <c r="D54" t="n">
-        <v>179.1</v>
+        <v>180.6</v>
       </c>
       <c r="E54" t="n">
-        <v>178.5</v>
+        <v>180.6</v>
       </c>
       <c r="F54" t="n">
-        <v>945.77</v>
+        <v>9240</v>
       </c>
       <c r="G54" t="n">
-        <v>180.2866666666666</v>
+        <v>-69399.56466715001</v>
       </c>
       <c r="H54" t="n">
-        <v>180.8799999999999</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>179</v>
+        <v>180.6</v>
       </c>
       <c r="C55" t="n">
-        <v>179</v>
+        <v>180.6</v>
       </c>
       <c r="D55" t="n">
-        <v>179</v>
+        <v>180.6</v>
       </c>
       <c r="E55" t="n">
-        <v>179</v>
+        <v>180.6</v>
       </c>
       <c r="F55" t="n">
-        <v>105.3233</v>
+        <v>4660</v>
       </c>
       <c r="G55" t="n">
-        <v>180.0933333333332</v>
+        <v>-69399.56466715001</v>
       </c>
       <c r="H55" t="n">
-        <v>180.8333333333332</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>180.9</v>
+        <v>180.6</v>
       </c>
       <c r="C56" t="n">
-        <v>180.9</v>
+        <v>180.6</v>
       </c>
       <c r="D56" t="n">
-        <v>180.9</v>
+        <v>180.6</v>
       </c>
       <c r="E56" t="n">
-        <v>180.9</v>
+        <v>180.6</v>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>253.575</v>
       </c>
       <c r="G56" t="n">
-        <v>180.0266666666666</v>
+        <v>-69399.56466715001</v>
       </c>
       <c r="H56" t="n">
-        <v>180.8183333333332</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>179</v>
+        <v>180.7</v>
       </c>
       <c r="C57" t="n">
-        <v>179</v>
+        <v>180.7</v>
       </c>
       <c r="D57" t="n">
-        <v>179</v>
+        <v>180.7</v>
       </c>
       <c r="E57" t="n">
-        <v>179</v>
+        <v>180.7</v>
       </c>
       <c r="F57" t="n">
-        <v>81.0615</v>
+        <v>4994.4879</v>
       </c>
       <c r="G57" t="n">
-        <v>179.9533333333333</v>
+        <v>-64405.07676715001</v>
       </c>
       <c r="H57" t="n">
-        <v>180.7699999999999</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>179</v>
+        <v>180.6</v>
       </c>
       <c r="C58" t="n">
-        <v>179</v>
+        <v>180.6</v>
       </c>
       <c r="D58" t="n">
-        <v>179</v>
+        <v>180.6</v>
       </c>
       <c r="E58" t="n">
-        <v>179</v>
+        <v>180.6</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>438.117</v>
       </c>
       <c r="G58" t="n">
-        <v>179.7666666666666</v>
+        <v>-64843.19376715001</v>
       </c>
       <c r="H58" t="n">
-        <v>180.7216666666666</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>178.5</v>
+        <v>180.7</v>
       </c>
       <c r="C59" t="n">
-        <v>178.5</v>
+        <v>180.7</v>
       </c>
       <c r="D59" t="n">
-        <v>178.5</v>
+        <v>180.7</v>
       </c>
       <c r="E59" t="n">
-        <v>178.5</v>
+        <v>180.7</v>
       </c>
       <c r="F59" t="n">
-        <v>19.99</v>
+        <v>3240</v>
       </c>
       <c r="G59" t="n">
-        <v>179.6333333333332</v>
+        <v>-61603.19376715001</v>
       </c>
       <c r="H59" t="n">
-        <v>180.6649999999999</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>179</v>
+        <v>180.7</v>
       </c>
       <c r="C60" t="n">
-        <v>179</v>
+        <v>180.9</v>
       </c>
       <c r="D60" t="n">
-        <v>179</v>
+        <v>180.9</v>
       </c>
       <c r="E60" t="n">
-        <v>179</v>
+        <v>180.7</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>3551.435</v>
       </c>
       <c r="G60" t="n">
-        <v>179.5599999999999</v>
+        <v>-58051.75876715002</v>
       </c>
       <c r="H60" t="n">
-        <v>180.6316666666666</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>179</v>
+        <v>180.6</v>
       </c>
       <c r="C61" t="n">
-        <v>181.8</v>
+        <v>180.2</v>
       </c>
       <c r="D61" t="n">
-        <v>181.8</v>
+        <v>180.6</v>
       </c>
       <c r="E61" t="n">
-        <v>179</v>
+        <v>180.2</v>
       </c>
       <c r="F61" t="n">
-        <v>40</v>
+        <v>187.614</v>
       </c>
       <c r="G61" t="n">
-        <v>179.5533333333333</v>
+        <v>-58239.37276715002</v>
       </c>
       <c r="H61" t="n">
-        <v>180.6283333333332</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>180.8</v>
+        <v>180.3</v>
       </c>
       <c r="C62" t="n">
-        <v>180.8</v>
+        <v>180.3</v>
       </c>
       <c r="D62" t="n">
-        <v>180.8</v>
+        <v>180.3</v>
       </c>
       <c r="E62" t="n">
-        <v>180.8</v>
+        <v>180.3</v>
       </c>
       <c r="F62" t="n">
-        <v>85.687</v>
+        <v>25</v>
       </c>
       <c r="G62" t="n">
-        <v>179.6266666666666</v>
+        <v>-58214.37276715002</v>
       </c>
       <c r="H62" t="n">
-        <v>180.6249999999999</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>181.5</v>
+        <v>180.2</v>
       </c>
       <c r="C63" t="n">
-        <v>181.5</v>
+        <v>180.1</v>
       </c>
       <c r="D63" t="n">
-        <v>181.5</v>
+        <v>180.2</v>
       </c>
       <c r="E63" t="n">
-        <v>181.5</v>
+        <v>180.1</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>6960</v>
       </c>
       <c r="G63" t="n">
-        <v>179.7466666666666</v>
+        <v>-65174.37276715002</v>
       </c>
       <c r="H63" t="n">
-        <v>180.6333333333332</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>178.5</v>
+        <v>180.2</v>
       </c>
       <c r="C64" t="n">
-        <v>178.5</v>
+        <v>180.2</v>
       </c>
       <c r="D64" t="n">
-        <v>178.5</v>
+        <v>180.2</v>
       </c>
       <c r="E64" t="n">
-        <v>178.5</v>
+        <v>180.2</v>
       </c>
       <c r="F64" t="n">
-        <v>7659.6812</v>
+        <v>1102.999</v>
       </c>
       <c r="G64" t="n">
-        <v>179.7133333333333</v>
+        <v>-64071.37376715001</v>
       </c>
       <c r="H64" t="n">
-        <v>180.5749999999999</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>180.9</v>
+        <v>180.3</v>
       </c>
       <c r="C65" t="n">
-        <v>180.9</v>
+        <v>180.3</v>
       </c>
       <c r="D65" t="n">
-        <v>180.9</v>
+        <v>180.3</v>
       </c>
       <c r="E65" t="n">
-        <v>180.9</v>
+        <v>180.3</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>1665.6288</v>
       </c>
       <c r="G65" t="n">
-        <v>179.7933333333333</v>
+        <v>-62405.74496715001</v>
       </c>
       <c r="H65" t="n">
-        <v>180.5733333333332</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>178.4</v>
+        <v>180.9</v>
       </c>
       <c r="C66" t="n">
-        <v>178.4</v>
+        <v>180.9</v>
       </c>
       <c r="D66" t="n">
-        <v>178.4</v>
+        <v>180.9</v>
       </c>
       <c r="E66" t="n">
-        <v>178.4</v>
+        <v>180.9</v>
       </c>
       <c r="F66" t="n">
-        <v>112.1158</v>
+        <v>1782.0417</v>
       </c>
       <c r="G66" t="n">
-        <v>179.7466666666666</v>
+        <v>-60623.70326715001</v>
       </c>
       <c r="H66" t="n">
-        <v>180.5299999999999</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>179</v>
+        <v>181.9</v>
       </c>
       <c r="C67" t="n">
-        <v>178.4</v>
+        <v>181.9</v>
       </c>
       <c r="D67" t="n">
-        <v>179</v>
+        <v>181.9</v>
       </c>
       <c r="E67" t="n">
-        <v>178.4</v>
+        <v>181.9</v>
       </c>
       <c r="F67" t="n">
-        <v>173.2167</v>
+        <v>3</v>
       </c>
       <c r="G67" t="n">
-        <v>179.7066666666666</v>
+        <v>-60620.70326715001</v>
       </c>
       <c r="H67" t="n">
-        <v>180.4933333333332</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>178.4</v>
+        <v>180.4</v>
       </c>
       <c r="C68" t="n">
-        <v>178.4</v>
+        <v>181.9</v>
       </c>
       <c r="D68" t="n">
-        <v>178.4</v>
+        <v>181.9</v>
       </c>
       <c r="E68" t="n">
-        <v>178.4</v>
+        <v>180.4</v>
       </c>
       <c r="F68" t="n">
-        <v>342.5603</v>
+        <v>807.441</v>
       </c>
       <c r="G68" t="n">
-        <v>179.5066666666667</v>
+        <v>-60620.70326715001</v>
       </c>
       <c r="H68" t="n">
-        <v>180.4333333333332</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>178.2</v>
+        <v>181.9</v>
       </c>
       <c r="C69" t="n">
-        <v>178</v>
+        <v>181.9</v>
       </c>
       <c r="D69" t="n">
-        <v>178.2</v>
+        <v>181.9</v>
       </c>
       <c r="E69" t="n">
-        <v>178</v>
+        <v>181.9</v>
       </c>
       <c r="F69" t="n">
-        <v>17325.6951</v>
+        <v>1000</v>
       </c>
       <c r="G69" t="n">
-        <v>179.4733333333333</v>
+        <v>-60620.70326715001</v>
       </c>
       <c r="H69" t="n">
-        <v>180.3349999999999</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>178</v>
+        <v>181.9</v>
       </c>
       <c r="C70" t="n">
-        <v>178</v>
+        <v>181.9</v>
       </c>
       <c r="D70" t="n">
-        <v>178</v>
+        <v>181.9</v>
       </c>
       <c r="E70" t="n">
-        <v>178</v>
+        <v>181.9</v>
       </c>
       <c r="F70" t="n">
-        <v>238.071</v>
+        <v>500</v>
       </c>
       <c r="G70" t="n">
-        <v>179.4066666666667</v>
+        <v>-60620.70326715001</v>
       </c>
       <c r="H70" t="n">
-        <v>180.2683333333332</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>178</v>
+        <v>181.8</v>
       </c>
       <c r="C71" t="n">
-        <v>178</v>
+        <v>180.1</v>
       </c>
       <c r="D71" t="n">
-        <v>178</v>
+        <v>181.8</v>
       </c>
       <c r="E71" t="n">
-        <v>178</v>
+        <v>180.1</v>
       </c>
       <c r="F71" t="n">
-        <v>750.225</v>
+        <v>4843.4293</v>
       </c>
       <c r="G71" t="n">
-        <v>179.2133333333333</v>
+        <v>-65464.13256715001</v>
       </c>
       <c r="H71" t="n">
-        <v>180.2216666666666</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>178</v>
+        <v>181.8</v>
       </c>
       <c r="C72" t="n">
-        <v>178</v>
+        <v>181.8</v>
       </c>
       <c r="D72" t="n">
-        <v>178</v>
+        <v>181.8</v>
       </c>
       <c r="E72" t="n">
-        <v>178</v>
+        <v>181.8</v>
       </c>
       <c r="F72" t="n">
-        <v>4505.245</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>179.1466666666666</v>
+        <v>-65461.13256715001</v>
       </c>
       <c r="H72" t="n">
-        <v>180.1749999999999</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>178</v>
+        <v>180.5</v>
       </c>
       <c r="C73" t="n">
-        <v>178</v>
+        <v>180.5</v>
       </c>
       <c r="D73" t="n">
-        <v>178</v>
+        <v>180.5</v>
       </c>
       <c r="E73" t="n">
-        <v>178</v>
+        <v>180.5</v>
       </c>
       <c r="F73" t="n">
-        <v>585.354</v>
+        <v>1100</v>
       </c>
       <c r="G73" t="n">
-        <v>179.08</v>
+        <v>-66561.13256715001</v>
       </c>
       <c r="H73" t="n">
-        <v>180.1283333333332</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>178</v>
+        <v>180.2</v>
       </c>
       <c r="C74" t="n">
-        <v>178</v>
+        <v>180.1</v>
       </c>
       <c r="D74" t="n">
-        <v>178</v>
+        <v>180.2</v>
       </c>
       <c r="E74" t="n">
-        <v>178</v>
+        <v>180.1</v>
       </c>
       <c r="F74" t="n">
-        <v>2062.492</v>
+        <v>9981.946400000001</v>
       </c>
       <c r="G74" t="n">
-        <v>179.0466666666667</v>
+        <v>-76543.07896715001</v>
       </c>
       <c r="H74" t="n">
-        <v>180.0833333333332</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>178</v>
+        <v>179.7</v>
       </c>
       <c r="C75" t="n">
-        <v>178</v>
+        <v>181.9</v>
       </c>
       <c r="D75" t="n">
-        <v>178</v>
+        <v>181.9</v>
       </c>
       <c r="E75" t="n">
-        <v>178</v>
+        <v>179.7</v>
       </c>
       <c r="F75" t="n">
-        <v>641.7037</v>
+        <v>625.3082000000001</v>
       </c>
       <c r="G75" t="n">
-        <v>178.98</v>
+        <v>-75917.77076715001</v>
       </c>
       <c r="H75" t="n">
-        <v>180.0366666666666</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>178</v>
+        <v>179.7</v>
       </c>
       <c r="C76" t="n">
-        <v>178</v>
+        <v>179.7</v>
       </c>
       <c r="D76" t="n">
-        <v>178</v>
+        <v>179.7</v>
       </c>
       <c r="E76" t="n">
-        <v>178</v>
+        <v>179.7</v>
       </c>
       <c r="F76" t="n">
-        <v>4954.486</v>
+        <v>4928.0548</v>
       </c>
       <c r="G76" t="n">
-        <v>178.7266666666666</v>
+        <v>-80845.82556715001</v>
       </c>
       <c r="H76" t="n">
-        <v>179.9899999999999</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>178</v>
+        <v>179.7</v>
       </c>
       <c r="C77" t="n">
-        <v>178</v>
+        <v>179.7</v>
       </c>
       <c r="D77" t="n">
-        <v>178</v>
+        <v>179.7</v>
       </c>
       <c r="E77" t="n">
-        <v>178</v>
+        <v>179.7</v>
       </c>
       <c r="F77" t="n">
-        <v>16943.3766</v>
+        <v>1260</v>
       </c>
       <c r="G77" t="n">
-        <v>178.54</v>
+        <v>-80845.82556715001</v>
       </c>
       <c r="H77" t="n">
-        <v>179.9416666666666</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>178</v>
+        <v>179.7</v>
       </c>
       <c r="C78" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D78" t="n">
-        <v>178</v>
+        <v>179.7</v>
       </c>
       <c r="E78" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F78" t="n">
-        <v>3816.1376</v>
+        <v>26905.818</v>
       </c>
       <c r="G78" t="n">
-        <v>178.3066666666666</v>
+        <v>-107751.64356715</v>
       </c>
       <c r="H78" t="n">
-        <v>179.8916666666666</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>178</v>
+        <v>179.6</v>
       </c>
       <c r="C79" t="n">
-        <v>178</v>
+        <v>179.7</v>
       </c>
       <c r="D79" t="n">
-        <v>178</v>
+        <v>179.7</v>
       </c>
       <c r="E79" t="n">
-        <v>178</v>
+        <v>179.6</v>
       </c>
       <c r="F79" t="n">
-        <v>1227.4324</v>
+        <v>9980</v>
       </c>
       <c r="G79" t="n">
-        <v>178.2733333333333</v>
+        <v>-97771.64356715001</v>
       </c>
       <c r="H79" t="n">
-        <v>179.8433333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>178</v>
+        <v>179.1</v>
       </c>
       <c r="C80" t="n">
-        <v>178</v>
+        <v>179.1</v>
       </c>
       <c r="D80" t="n">
-        <v>178</v>
+        <v>179.1</v>
       </c>
       <c r="E80" t="n">
-        <v>178</v>
+        <v>179.1</v>
       </c>
       <c r="F80" t="n">
-        <v>12.5774</v>
+        <v>600</v>
       </c>
       <c r="G80" t="n">
-        <v>178.08</v>
+        <v>-98371.64356715001</v>
       </c>
       <c r="H80" t="n">
-        <v>179.795</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,7 +3198,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C81" t="n">
         <v>179</v>
@@ -3449,27 +3207,24 @@
         <v>179</v>
       </c>
       <c r="E81" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F81" t="n">
         <v>300</v>
       </c>
       <c r="G81" t="n">
-        <v>178.1199999999999</v>
+        <v>-98671.64356715001</v>
       </c>
       <c r="H81" t="n">
-        <v>179.765</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>178</v>
+        <v>179.6</v>
       </c>
       <c r="C82" t="n">
-        <v>178</v>
+        <v>181.4</v>
       </c>
       <c r="D82" t="n">
-        <v>178</v>
+        <v>181.4</v>
       </c>
       <c r="E82" t="n">
-        <v>178</v>
+        <v>179.6</v>
       </c>
       <c r="F82" t="n">
-        <v>40.1265</v>
+        <v>5102.57775391</v>
       </c>
       <c r="G82" t="n">
-        <v>178.0933333333333</v>
+        <v>-93569.06581324001</v>
       </c>
       <c r="H82" t="n">
-        <v>179.7199999999999</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>178</v>
+        <v>179.1</v>
       </c>
       <c r="C83" t="n">
-        <v>178</v>
+        <v>178.5</v>
       </c>
       <c r="D83" t="n">
-        <v>178</v>
+        <v>179.1</v>
       </c>
       <c r="E83" t="n">
-        <v>178</v>
+        <v>178.5</v>
       </c>
       <c r="F83" t="n">
-        <v>40.1265</v>
+        <v>945.77</v>
       </c>
       <c r="G83" t="n">
-        <v>178.0666666666666</v>
+        <v>-94514.83581324002</v>
       </c>
       <c r="H83" t="n">
-        <v>179.6749999999999</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C84" t="n">
-        <v>177.3</v>
+        <v>179</v>
       </c>
       <c r="D84" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E84" t="n">
-        <v>177.3</v>
+        <v>179</v>
       </c>
       <c r="F84" t="n">
-        <v>31456.1391</v>
+        <v>105.3233</v>
       </c>
       <c r="G84" t="n">
-        <v>178.02</v>
+        <v>-94409.51251324001</v>
       </c>
       <c r="H84" t="n">
-        <v>179.6199999999999</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>180.7</v>
+        <v>180.9</v>
       </c>
       <c r="C85" t="n">
-        <v>180.7</v>
+        <v>180.9</v>
       </c>
       <c r="D85" t="n">
-        <v>180.7</v>
+        <v>180.9</v>
       </c>
       <c r="E85" t="n">
-        <v>180.7</v>
+        <v>180.9</v>
       </c>
       <c r="F85" t="n">
         <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>178.1999999999999</v>
+        <v>-94406.51251324001</v>
       </c>
       <c r="H85" t="n">
-        <v>179.6216666666666</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>177.4</v>
+        <v>179</v>
       </c>
       <c r="C86" t="n">
-        <v>177.4</v>
+        <v>179</v>
       </c>
       <c r="D86" t="n">
-        <v>177.4</v>
+        <v>179</v>
       </c>
       <c r="E86" t="n">
-        <v>177.4</v>
+        <v>179</v>
       </c>
       <c r="F86" t="n">
-        <v>14.0848</v>
+        <v>81.0615</v>
       </c>
       <c r="G86" t="n">
-        <v>178.1599999999999</v>
+        <v>-94487.57401324001</v>
       </c>
       <c r="H86" t="n">
-        <v>179.5683333333332</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>179.6</v>
+        <v>179</v>
       </c>
       <c r="C87" t="n">
-        <v>179.6</v>
+        <v>179</v>
       </c>
       <c r="D87" t="n">
-        <v>179.6</v>
+        <v>179</v>
       </c>
       <c r="E87" t="n">
-        <v>179.6</v>
+        <v>179</v>
       </c>
       <c r="F87" t="n">
         <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>178.2666666666666</v>
+        <v>-94487.57401324001</v>
       </c>
       <c r="H87" t="n">
-        <v>179.5516666666666</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>178.1</v>
+        <v>178.5</v>
       </c>
       <c r="C88" t="n">
-        <v>176.7</v>
+        <v>178.5</v>
       </c>
       <c r="D88" t="n">
-        <v>178.1</v>
+        <v>178.5</v>
       </c>
       <c r="E88" t="n">
-        <v>176.7</v>
+        <v>178.5</v>
       </c>
       <c r="F88" t="n">
-        <v>40075.5463</v>
+        <v>19.99</v>
       </c>
       <c r="G88" t="n">
-        <v>178.1799999999999</v>
+        <v>-94507.56401324001</v>
       </c>
       <c r="H88" t="n">
-        <v>179.4849999999999</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>178.5</v>
+        <v>179</v>
       </c>
       <c r="C89" t="n">
-        <v>178.5</v>
+        <v>179</v>
       </c>
       <c r="D89" t="n">
-        <v>178.5</v>
+        <v>179</v>
       </c>
       <c r="E89" t="n">
-        <v>178.5</v>
+        <v>179</v>
       </c>
       <c r="F89" t="n">
         <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>178.2133333333333</v>
+        <v>-94504.56401324001</v>
       </c>
       <c r="H89" t="n">
-        <v>179.4499999999999</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>177.1</v>
+        <v>179</v>
       </c>
       <c r="C90" t="n">
-        <v>178.4</v>
+        <v>181.8</v>
       </c>
       <c r="D90" t="n">
-        <v>178.4</v>
+        <v>181.8</v>
       </c>
       <c r="E90" t="n">
-        <v>177.1</v>
+        <v>179</v>
       </c>
       <c r="F90" t="n">
-        <v>5904.5144</v>
+        <v>40</v>
       </c>
       <c r="G90" t="n">
-        <v>178.2399999999999</v>
+        <v>-94464.56401324001</v>
       </c>
       <c r="H90" t="n">
-        <v>179.4116666666665</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>178.5</v>
+        <v>180.8</v>
       </c>
       <c r="C91" t="n">
-        <v>178.5</v>
+        <v>180.8</v>
       </c>
       <c r="D91" t="n">
-        <v>178.5</v>
+        <v>180.8</v>
       </c>
       <c r="E91" t="n">
-        <v>178.4</v>
+        <v>180.8</v>
       </c>
       <c r="F91" t="n">
-        <v>707.9777</v>
+        <v>85.687</v>
       </c>
       <c r="G91" t="n">
-        <v>178.2733333333333</v>
+        <v>-94550.25101324002</v>
       </c>
       <c r="H91" t="n">
-        <v>179.3716666666666</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>178.5</v>
+        <v>181.5</v>
       </c>
       <c r="C92" t="n">
-        <v>178.5</v>
+        <v>181.5</v>
       </c>
       <c r="D92" t="n">
-        <v>178.5</v>
+        <v>181.5</v>
       </c>
       <c r="E92" t="n">
-        <v>178.5</v>
+        <v>181.5</v>
       </c>
       <c r="F92" t="n">
-        <v>1120.44817927</v>
+        <v>3</v>
       </c>
       <c r="G92" t="n">
-        <v>178.3066666666666</v>
+        <v>-94547.25101324002</v>
       </c>
       <c r="H92" t="n">
-        <v>179.3433333333332</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>178</v>
+        <v>178.5</v>
       </c>
       <c r="C93" t="n">
-        <v>178</v>
+        <v>178.5</v>
       </c>
       <c r="D93" t="n">
-        <v>178</v>
+        <v>178.5</v>
       </c>
       <c r="E93" t="n">
-        <v>178</v>
+        <v>178.5</v>
       </c>
       <c r="F93" t="n">
-        <v>147.8246</v>
+        <v>7659.6812</v>
       </c>
       <c r="G93" t="n">
-        <v>178.3066666666666</v>
+        <v>-102206.93221324</v>
       </c>
       <c r="H93" t="n">
-        <v>179.3049999999999</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>177.9</v>
+        <v>180.9</v>
       </c>
       <c r="C94" t="n">
-        <v>177</v>
+        <v>180.9</v>
       </c>
       <c r="D94" t="n">
-        <v>178</v>
+        <v>180.9</v>
       </c>
       <c r="E94" t="n">
-        <v>177</v>
+        <v>180.9</v>
       </c>
       <c r="F94" t="n">
-        <v>10003</v>
+        <v>3</v>
       </c>
       <c r="G94" t="n">
-        <v>178.2399999999999</v>
+        <v>-102203.93221324</v>
       </c>
       <c r="H94" t="n">
-        <v>179.2533333333332</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3688,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>177</v>
+        <v>178.4</v>
       </c>
       <c r="C95" t="n">
-        <v>177</v>
+        <v>178.4</v>
       </c>
       <c r="D95" t="n">
-        <v>177</v>
+        <v>178.4</v>
       </c>
       <c r="E95" t="n">
-        <v>177</v>
+        <v>178.4</v>
       </c>
       <c r="F95" t="n">
-        <v>45</v>
+        <v>112.1158</v>
       </c>
       <c r="G95" t="n">
-        <v>178.1733333333333</v>
+        <v>-102316.04801324</v>
       </c>
       <c r="H95" t="n">
-        <v>179.1999999999999</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>177.8</v>
+        <v>179</v>
       </c>
       <c r="C96" t="n">
-        <v>177.8</v>
+        <v>178.4</v>
       </c>
       <c r="D96" t="n">
-        <v>177.8</v>
+        <v>179</v>
       </c>
       <c r="E96" t="n">
-        <v>177.8</v>
+        <v>178.4</v>
       </c>
       <c r="F96" t="n">
-        <v>3</v>
+        <v>173.2167</v>
       </c>
       <c r="G96" t="n">
-        <v>178.0933333333333</v>
+        <v>-102316.04801324</v>
       </c>
       <c r="H96" t="n">
-        <v>179.1583333333332</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,1108 +3758,2085 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="C97" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="D97" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="E97" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="F97" t="n">
+        <v>342.5603</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-102316.04801324</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="C98" t="n">
+        <v>178</v>
+      </c>
+      <c r="D98" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="E98" t="n">
+        <v>178</v>
+      </c>
+      <c r="F98" t="n">
+        <v>17325.6951</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>178</v>
+      </c>
+      <c r="C99" t="n">
+        <v>178</v>
+      </c>
+      <c r="D99" t="n">
+        <v>178</v>
+      </c>
+      <c r="E99" t="n">
+        <v>178</v>
+      </c>
+      <c r="F99" t="n">
+        <v>238.071</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>178</v>
+      </c>
+      <c r="C100" t="n">
+        <v>178</v>
+      </c>
+      <c r="D100" t="n">
+        <v>178</v>
+      </c>
+      <c r="E100" t="n">
+        <v>178</v>
+      </c>
+      <c r="F100" t="n">
+        <v>750.225</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>178</v>
+      </c>
+      <c r="C101" t="n">
+        <v>178</v>
+      </c>
+      <c r="D101" t="n">
+        <v>178</v>
+      </c>
+      <c r="E101" t="n">
+        <v>178</v>
+      </c>
+      <c r="F101" t="n">
+        <v>4505.245</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>178</v>
+      </c>
+      <c r="C102" t="n">
+        <v>178</v>
+      </c>
+      <c r="D102" t="n">
+        <v>178</v>
+      </c>
+      <c r="E102" t="n">
+        <v>178</v>
+      </c>
+      <c r="F102" t="n">
+        <v>585.354</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>178</v>
+      </c>
+      <c r="C103" t="n">
+        <v>178</v>
+      </c>
+      <c r="D103" t="n">
+        <v>178</v>
+      </c>
+      <c r="E103" t="n">
+        <v>178</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2062.492</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>178</v>
+      </c>
+      <c r="C104" t="n">
+        <v>178</v>
+      </c>
+      <c r="D104" t="n">
+        <v>178</v>
+      </c>
+      <c r="E104" t="n">
+        <v>178</v>
+      </c>
+      <c r="F104" t="n">
+        <v>641.7037</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>178</v>
+      </c>
+      <c r="C105" t="n">
+        <v>178</v>
+      </c>
+      <c r="D105" t="n">
+        <v>178</v>
+      </c>
+      <c r="E105" t="n">
+        <v>178</v>
+      </c>
+      <c r="F105" t="n">
+        <v>4954.486</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>178</v>
+      </c>
+      <c r="C106" t="n">
+        <v>178</v>
+      </c>
+      <c r="D106" t="n">
+        <v>178</v>
+      </c>
+      <c r="E106" t="n">
+        <v>178</v>
+      </c>
+      <c r="F106" t="n">
+        <v>16943.3766</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>178</v>
+      </c>
+      <c r="K106" t="n">
+        <v>178</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>178</v>
+      </c>
+      <c r="C107" t="n">
+        <v>178</v>
+      </c>
+      <c r="D107" t="n">
+        <v>178</v>
+      </c>
+      <c r="E107" t="n">
+        <v>178</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3816.1376</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>178</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>178</v>
+      </c>
+      <c r="C108" t="n">
+        <v>178</v>
+      </c>
+      <c r="D108" t="n">
+        <v>178</v>
+      </c>
+      <c r="E108" t="n">
+        <v>178</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1227.4324</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>178</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>178</v>
+      </c>
+      <c r="C109" t="n">
+        <v>178</v>
+      </c>
+      <c r="D109" t="n">
+        <v>178</v>
+      </c>
+      <c r="E109" t="n">
+        <v>178</v>
+      </c>
+      <c r="F109" t="n">
+        <v>12.5774</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>178</v>
+      </c>
+      <c r="C110" t="n">
+        <v>179</v>
+      </c>
+      <c r="D110" t="n">
+        <v>179</v>
+      </c>
+      <c r="E110" t="n">
+        <v>178</v>
+      </c>
+      <c r="F110" t="n">
+        <v>300</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-119341.74311324</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>178</v>
+      </c>
+      <c r="C111" t="n">
+        <v>178</v>
+      </c>
+      <c r="D111" t="n">
+        <v>178</v>
+      </c>
+      <c r="E111" t="n">
+        <v>178</v>
+      </c>
+      <c r="F111" t="n">
+        <v>40.1265</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-119381.86961324</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>178</v>
+      </c>
+      <c r="C112" t="n">
+        <v>178</v>
+      </c>
+      <c r="D112" t="n">
+        <v>178</v>
+      </c>
+      <c r="E112" t="n">
+        <v>178</v>
+      </c>
+      <c r="F112" t="n">
+        <v>40.1265</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-119381.86961324</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>178</v>
+      </c>
+      <c r="C113" t="n">
+        <v>177.3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>178</v>
+      </c>
+      <c r="E113" t="n">
+        <v>177.3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>31456.1391</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-150838.00871324</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="C114" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="D114" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="E114" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-150835.00871324</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>177.3</v>
+      </c>
+      <c r="K114" t="n">
+        <v>177.3</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="C115" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="D115" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="E115" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>14.0848</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-150849.09351324</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>177.3</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="C116" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="D116" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="E116" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-150846.09351324</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>177.3</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="C117" t="n">
         <v>176.7</v>
       </c>
-      <c r="C97" t="n">
+      <c r="D117" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="E117" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="F117" t="n">
+        <v>40075.5463</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-190921.63981324</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-190918.63981324</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>177.1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="D119" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="E119" t="n">
+        <v>177.1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>5904.5144</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-196823.15421324</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="C120" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="D120" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="E120" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>707.9777</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-196115.17651324</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1120.44817927</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-196115.17651324</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>178</v>
+      </c>
+      <c r="C122" t="n">
+        <v>178</v>
+      </c>
+      <c r="D122" t="n">
+        <v>178</v>
+      </c>
+      <c r="E122" t="n">
+        <v>178</v>
+      </c>
+      <c r="F122" t="n">
+        <v>147.8246</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-196263.00111324</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="C123" t="n">
+        <v>177</v>
+      </c>
+      <c r="D123" t="n">
+        <v>178</v>
+      </c>
+      <c r="E123" t="n">
+        <v>177</v>
+      </c>
+      <c r="F123" t="n">
+        <v>10003</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-206266.00111324</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>177</v>
+      </c>
+      <c r="C124" t="n">
+        <v>177</v>
+      </c>
+      <c r="D124" t="n">
+        <v>177</v>
+      </c>
+      <c r="E124" t="n">
+        <v>177</v>
+      </c>
+      <c r="F124" t="n">
+        <v>45</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-206266.00111324</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="C125" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="D125" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="E125" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-206263.00111324</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="C126" t="n">
         <v>176.6</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D126" t="n">
         <v>176.7</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E126" t="n">
         <v>176.6</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F126" t="n">
         <v>3400</v>
       </c>
-      <c r="G97" t="n">
-        <v>177.9999999999999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>179.0866666666666</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
+      <c r="G126" t="n">
+        <v>-209663.00111324</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C127" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D127" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1040.0279</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-209663.00111324</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
         <v>177.8</v>
       </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
+      <c r="C128" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="D128" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="E128" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-209660.00111324</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C129" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D129" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-211160.00111324</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E130" t="n">
+        <v>176</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1783.9999</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-211160.00111324</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>176</v>
+      </c>
+      <c r="C131" t="n">
+        <v>176</v>
+      </c>
+      <c r="D131" t="n">
+        <v>176</v>
+      </c>
+      <c r="E131" t="n">
+        <v>176</v>
+      </c>
+      <c r="F131" t="n">
+        <v>371.9937</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-211531.99481324</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="K131" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C132" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E132" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-211528.99481324</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C133" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D133" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E133" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-211528.99481324</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="K133" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>176</v>
+      </c>
+      <c r="C134" t="n">
+        <v>176</v>
+      </c>
+      <c r="D134" t="n">
+        <v>176</v>
+      </c>
+      <c r="E134" t="n">
+        <v>176</v>
+      </c>
+      <c r="F134" t="n">
+        <v>586.538</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-212115.53281324</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="K134" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>176.1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>176</v>
+      </c>
+      <c r="D135" t="n">
+        <v>176.1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>176</v>
+      </c>
+      <c r="F135" t="n">
+        <v>176.009</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-212115.53281324</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>176</v>
+      </c>
+      <c r="K135" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="N97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
         <v>176.6</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C136" t="n">
         <v>176.6</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D136" t="n">
         <v>176.6</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E136" t="n">
         <v>176.6</v>
       </c>
-      <c r="F98" t="n">
-        <v>1040.0279</v>
-      </c>
-      <c r="G98" t="n">
-        <v>177.9066666666666</v>
-      </c>
-      <c r="H98" t="n">
-        <v>178.9983333333332</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="n">
+      <c r="F136" t="n">
+        <v>3</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-212112.53281324</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>176</v>
+      </c>
+      <c r="K136" t="n">
         <v>176.6</v>
       </c>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
+      <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="C99" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="D99" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="E99" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="F99" t="n">
-        <v>3</v>
-      </c>
-      <c r="G99" t="n">
-        <v>177.9399999999999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>178.9299999999999</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="n">
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
         <v>176.6</v>
       </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
+      <c r="C137" t="n">
+        <v>178</v>
+      </c>
+      <c r="D137" t="n">
+        <v>178</v>
+      </c>
+      <c r="E137" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F137" t="n">
+        <v>79</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-212033.53281324</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="K137" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="C138" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="F138" t="n">
+        <v>5589.56086714</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-206443.9719461</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
         <v>176.6</v>
       </c>
-      <c r="C100" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D100" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E100" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G100" t="n">
-        <v>177.6666666666666</v>
-      </c>
-      <c r="H100" t="n">
-        <v>178.8416666666666</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
+      <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>179.2</v>
+      </c>
+      <c r="C139" t="n">
+        <v>179.2</v>
+      </c>
+      <c r="D139" t="n">
+        <v>179.2</v>
+      </c>
+      <c r="E139" t="n">
+        <v>179.2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>45.93</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-206489.9019461</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
         <v>176.6</v>
       </c>
-      <c r="C101" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D101" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E101" t="n">
-        <v>176</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1783.9999</v>
-      </c>
-      <c r="G101" t="n">
-        <v>177.6133333333333</v>
-      </c>
-      <c r="H101" t="n">
-        <v>178.7533333333332</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
+      <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>176</v>
-      </c>
-      <c r="C102" t="n">
-        <v>176</v>
-      </c>
-      <c r="D102" t="n">
-        <v>176</v>
-      </c>
-      <c r="E102" t="n">
-        <v>176</v>
-      </c>
-      <c r="F102" t="n">
-        <v>371.9937</v>
-      </c>
-      <c r="G102" t="n">
-        <v>177.3733333333333</v>
-      </c>
-      <c r="H102" t="n">
-        <v>178.6849999999999</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="E140" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2011.9862</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-208501.8881461</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="C141" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>5589.5608</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-202912.3273461</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
         <v>176.6</v>
       </c>
-      <c r="C103" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D103" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E103" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F103" t="n">
-        <v>3</v>
-      </c>
-      <c r="G103" t="n">
-        <v>177.3666666666666</v>
-      </c>
-      <c r="H103" t="n">
-        <v>178.5983333333333</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
+      <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>179</v>
+      </c>
+      <c r="C142" t="n">
+        <v>179</v>
+      </c>
+      <c r="D142" t="n">
+        <v>179</v>
+      </c>
+      <c r="E142" t="n">
+        <v>179</v>
+      </c>
+      <c r="F142" t="n">
+        <v>191.4401</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-202720.8872461</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
         <v>176.6</v>
       </c>
-      <c r="C104" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D104" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E104" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F104" t="n">
-        <v>3</v>
-      </c>
-      <c r="G104" t="n">
-        <v>177.2399999999999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>178.5333333333333</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
+      <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>176</v>
-      </c>
-      <c r="C105" t="n">
-        <v>176</v>
-      </c>
-      <c r="D105" t="n">
-        <v>176</v>
-      </c>
-      <c r="E105" t="n">
-        <v>176</v>
-      </c>
-      <c r="F105" t="n">
-        <v>586.538</v>
-      </c>
-      <c r="G105" t="n">
-        <v>177.0799999999999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>178.4649999999999</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="n">
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="C143" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="D143" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-202717.8872461</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
         <v>176.6</v>
       </c>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
+      <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>176.1</v>
-      </c>
-      <c r="C106" t="n">
-        <v>176</v>
-      </c>
-      <c r="D106" t="n">
-        <v>176.1</v>
-      </c>
-      <c r="E106" t="n">
-        <v>176</v>
-      </c>
-      <c r="F106" t="n">
-        <v>176.009</v>
-      </c>
-      <c r="G106" t="n">
-        <v>176.9133333333333</v>
-      </c>
-      <c r="H106" t="n">
-        <v>178.3666666666666</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="n">
-        <v>176</v>
-      </c>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>180</v>
+      </c>
+      <c r="C144" t="n">
+        <v>180</v>
+      </c>
+      <c r="D144" t="n">
+        <v>180</v>
+      </c>
+      <c r="E144" t="n">
+        <v>180</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1832.1826</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-200885.7046461</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="C145" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="D145" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="E145" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-200882.7046461</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
         <v>176.6</v>
       </c>
-      <c r="C107" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D107" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E107" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F107" t="n">
-        <v>3</v>
-      </c>
-      <c r="G107" t="n">
-        <v>176.7866666666666</v>
-      </c>
-      <c r="H107" t="n">
-        <v>178.3149999999999</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="n">
-        <v>176</v>
-      </c>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
+      <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="C146" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="E146" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-200879.7046461</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
         <v>176.6</v>
       </c>
-      <c r="C108" t="n">
-        <v>178</v>
-      </c>
-      <c r="D108" t="n">
-        <v>178</v>
-      </c>
-      <c r="E108" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F108" t="n">
-        <v>79</v>
-      </c>
-      <c r="G108" t="n">
-        <v>176.7866666666666</v>
-      </c>
-      <c r="H108" t="n">
-        <v>178.2866666666666</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
+      <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="C109" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="D109" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="E109" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="F109" t="n">
-        <v>5589.56086714</v>
-      </c>
-      <c r="G109" t="n">
-        <v>176.9799999999999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>178.3016666666666</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>178</v>
-      </c>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="C147" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="E147" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="F147" t="n">
+        <v>4.1753</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-200879.7046461</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>179.2</v>
-      </c>
-      <c r="C110" t="n">
-        <v>179.2</v>
-      </c>
-      <c r="D110" t="n">
-        <v>179.2</v>
-      </c>
-      <c r="E110" t="n">
-        <v>179.2</v>
-      </c>
-      <c r="F110" t="n">
-        <v>45.93</v>
-      </c>
-      <c r="G110" t="n">
-        <v>177.1266666666666</v>
-      </c>
-      <c r="H110" t="n">
-        <v>178.2933333333332</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="D148" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-200882.7046461</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>179.1</v>
-      </c>
-      <c r="C111" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="D111" t="n">
-        <v>179.1</v>
-      </c>
-      <c r="E111" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="F111" t="n">
-        <v>2011.9862</v>
-      </c>
-      <c r="G111" t="n">
-        <v>177.1466666666666</v>
-      </c>
-      <c r="H111" t="n">
-        <v>178.2766666666666</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="C149" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="D149" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="E149" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="F149" t="n">
+        <v>53.5964</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-200829.1082461</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="C112" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="D112" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="E112" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="F112" t="n">
-        <v>5589.5608</v>
-      </c>
-      <c r="G112" t="n">
-        <v>177.2533333333332</v>
-      </c>
-      <c r="H112" t="n">
-        <v>178.2633333333333</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="D150" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-201829.1082461</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>179</v>
-      </c>
-      <c r="C113" t="n">
-        <v>179</v>
-      </c>
-      <c r="D113" t="n">
-        <v>179</v>
-      </c>
-      <c r="E113" t="n">
-        <v>179</v>
-      </c>
-      <c r="F113" t="n">
-        <v>191.4401</v>
-      </c>
-      <c r="G113" t="n">
-        <v>177.4133333333332</v>
-      </c>
-      <c r="H113" t="n">
-        <v>178.2233333333333</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="C151" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="E151" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-199329.1082461</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="C114" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="D114" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="E114" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="F114" t="n">
-        <v>3</v>
-      </c>
-      <c r="G114" t="n">
-        <v>177.5533333333332</v>
-      </c>
-      <c r="H114" t="n">
-        <v>178.2466666666666</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>180</v>
-      </c>
-      <c r="C115" t="n">
-        <v>180</v>
-      </c>
-      <c r="D115" t="n">
-        <v>180</v>
-      </c>
-      <c r="E115" t="n">
-        <v>180</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1832.1826</v>
-      </c>
-      <c r="G115" t="n">
-        <v>177.7799999999999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>178.2633333333333</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>180.4</v>
-      </c>
-      <c r="C116" t="n">
-        <v>180.4</v>
-      </c>
-      <c r="D116" t="n">
-        <v>180.4</v>
-      </c>
-      <c r="E116" t="n">
-        <v>180.4</v>
-      </c>
-      <c r="F116" t="n">
-        <v>3</v>
-      </c>
-      <c r="G116" t="n">
-        <v>178.0333333333332</v>
-      </c>
-      <c r="H116" t="n">
-        <v>178.2549999999999</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="C117" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="D117" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="E117" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="F117" t="n">
-        <v>3</v>
-      </c>
-      <c r="G117" t="n">
-        <v>178.3399999999999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>178.2816666666666</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="C118" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="D118" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="E118" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="F118" t="n">
-        <v>4.1753</v>
-      </c>
-      <c r="G118" t="n">
-        <v>178.6066666666666</v>
-      </c>
-      <c r="H118" t="n">
-        <v>178.3083333333333</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="C119" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="D119" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="E119" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="F119" t="n">
-        <v>3</v>
-      </c>
-      <c r="G119" t="n">
-        <v>178.8666666666666</v>
-      </c>
-      <c r="H119" t="n">
-        <v>178.3416666666666</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="C120" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="D120" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="E120" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="F120" t="n">
-        <v>53.5964</v>
-      </c>
-      <c r="G120" t="n">
-        <v>179.1733333333332</v>
-      </c>
-      <c r="H120" t="n">
-        <v>178.3683333333333</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="C121" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="D121" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="E121" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G121" t="n">
-        <v>179.4733333333332</v>
-      </c>
-      <c r="H121" t="n">
-        <v>178.3466666666666</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="C122" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="D122" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="E122" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G122" t="n">
-        <v>179.7466666666666</v>
-      </c>
-      <c r="H122" t="n">
-        <v>178.345</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-25 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-25 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.8</v>
+        <v>180.8</v>
       </c>
       <c r="C2" t="n">
-        <v>179.8</v>
+        <v>180.8</v>
       </c>
       <c r="D2" t="n">
-        <v>179.8</v>
+        <v>180.8</v>
       </c>
       <c r="E2" t="n">
-        <v>179.8</v>
+        <v>180.8</v>
       </c>
       <c r="F2" t="n">
-        <v>129.1074</v>
+        <v>694.6034</v>
       </c>
       <c r="G2" t="n">
-        <v>-98857.63996715</v>
+        <v>-60428.61006715001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>179.9</v>
+        <v>181</v>
       </c>
       <c r="C3" t="n">
-        <v>179.9</v>
+        <v>180.8</v>
       </c>
       <c r="D3" t="n">
-        <v>179.9</v>
+        <v>181</v>
       </c>
       <c r="E3" t="n">
-        <v>179.9</v>
+        <v>180.8</v>
       </c>
       <c r="F3" t="n">
-        <v>640.192</v>
+        <v>791.28</v>
       </c>
       <c r="G3" t="n">
-        <v>-98217.44796715</v>
+        <v>-60428.61006715001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>179.9</v>
+        <v>180.9</v>
       </c>
       <c r="C4" t="n">
-        <v>179.8</v>
+        <v>180.9</v>
       </c>
       <c r="D4" t="n">
-        <v>179.9</v>
+        <v>180.9</v>
       </c>
       <c r="E4" t="n">
-        <v>179.8</v>
+        <v>180.9</v>
       </c>
       <c r="F4" t="n">
-        <v>3695.513</v>
+        <v>183.6</v>
       </c>
       <c r="G4" t="n">
-        <v>-101912.96096715</v>
+        <v>-60245.01006715001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>179.9</v>
+        <v>181</v>
       </c>
       <c r="C5" t="n">
-        <v>179.9</v>
+        <v>181</v>
       </c>
       <c r="D5" t="n">
-        <v>179.9</v>
+        <v>181</v>
       </c>
       <c r="E5" t="n">
-        <v>179.9</v>
+        <v>181</v>
       </c>
       <c r="F5" t="n">
-        <v>2900.114</v>
+        <v>247</v>
       </c>
       <c r="G5" t="n">
-        <v>-99012.84696715001</v>
+        <v>-59998.01006715001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>179.9</v>
+        <v>181</v>
       </c>
       <c r="C6" t="n">
-        <v>179.9</v>
+        <v>180.9</v>
       </c>
       <c r="D6" t="n">
-        <v>179.9</v>
+        <v>181</v>
       </c>
       <c r="E6" t="n">
-        <v>179.9</v>
+        <v>180.9</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1952.701</v>
       </c>
       <c r="G6" t="n">
-        <v>-99012.84696715001</v>
+        <v>-61950.71106715001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>179.8</v>
+        <v>180.9</v>
       </c>
       <c r="C7" t="n">
-        <v>179.8</v>
+        <v>180.9</v>
       </c>
       <c r="D7" t="n">
-        <v>179.8</v>
+        <v>180.9</v>
       </c>
       <c r="E7" t="n">
-        <v>179.8</v>
+        <v>180.9</v>
       </c>
       <c r="F7" t="n">
-        <v>1875.562</v>
+        <v>2353.1387</v>
       </c>
       <c r="G7" t="n">
-        <v>-100888.40896715</v>
+        <v>-61950.71106715001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>178.2</v>
+        <v>180.8</v>
       </c>
       <c r="C8" t="n">
-        <v>178.2</v>
+        <v>180.8</v>
       </c>
       <c r="D8" t="n">
-        <v>178.2</v>
+        <v>180.8</v>
       </c>
       <c r="E8" t="n">
-        <v>178.2</v>
+        <v>180.8</v>
       </c>
       <c r="F8" t="n">
-        <v>52</v>
+        <v>3110.178</v>
       </c>
       <c r="G8" t="n">
-        <v>-100940.40896715</v>
+        <v>-65060.88906715001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>179.9</v>
+        <v>180.7</v>
       </c>
       <c r="C9" t="n">
-        <v>179.9</v>
+        <v>180.7</v>
       </c>
       <c r="D9" t="n">
-        <v>179.9</v>
+        <v>180.7</v>
       </c>
       <c r="E9" t="n">
-        <v>179.9</v>
+        <v>180.7</v>
       </c>
       <c r="F9" t="n">
-        <v>1105.6952</v>
+        <v>2632</v>
       </c>
       <c r="G9" t="n">
-        <v>-99834.71376715001</v>
+        <v>-67692.88906715001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>179.9</v>
+        <v>180.7</v>
       </c>
       <c r="C10" t="n">
-        <v>180.9</v>
+        <v>180.7</v>
       </c>
       <c r="D10" t="n">
-        <v>180.9</v>
+        <v>180.7</v>
       </c>
       <c r="E10" t="n">
-        <v>179.9</v>
+        <v>180.7</v>
       </c>
       <c r="F10" t="n">
-        <v>37141.9634</v>
+        <v>306</v>
       </c>
       <c r="G10" t="n">
-        <v>-62692.75036715001</v>
+        <v>-67692.88906715001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181.9</v>
+        <v>180.7</v>
       </c>
       <c r="C11" t="n">
-        <v>181.9</v>
+        <v>180.6</v>
       </c>
       <c r="D11" t="n">
-        <v>181.9</v>
+        <v>180.7</v>
       </c>
       <c r="E11" t="n">
-        <v>181.9</v>
+        <v>180.6</v>
       </c>
       <c r="F11" t="n">
-        <v>5483.8165</v>
+        <v>1706.6756</v>
       </c>
       <c r="G11" t="n">
-        <v>-57208.93386715001</v>
+        <v>-69399.56466715001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181.8</v>
+        <v>180.6</v>
       </c>
       <c r="C12" t="n">
-        <v>181.8</v>
+        <v>180.6</v>
       </c>
       <c r="D12" t="n">
-        <v>181.8</v>
+        <v>180.6</v>
       </c>
       <c r="E12" t="n">
-        <v>181.8</v>
+        <v>180.6</v>
       </c>
       <c r="F12" t="n">
-        <v>9999.999599999999</v>
+        <v>9240</v>
       </c>
       <c r="G12" t="n">
-        <v>-67208.93346715001</v>
+        <v>-69399.56466715001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>181.9</v>
+        <v>180.6</v>
       </c>
       <c r="C13" t="n">
-        <v>182</v>
+        <v>180.6</v>
       </c>
       <c r="D13" t="n">
-        <v>183.9</v>
+        <v>180.6</v>
       </c>
       <c r="E13" t="n">
-        <v>181.9</v>
+        <v>180.6</v>
       </c>
       <c r="F13" t="n">
-        <v>14388.0929</v>
+        <v>4660</v>
       </c>
       <c r="G13" t="n">
-        <v>-52820.84056715001</v>
+        <v>-69399.56466715001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>182</v>
+        <v>180.6</v>
       </c>
       <c r="C14" t="n">
-        <v>182</v>
+        <v>180.6</v>
       </c>
       <c r="D14" t="n">
-        <v>182</v>
+        <v>180.6</v>
       </c>
       <c r="E14" t="n">
-        <v>182</v>
+        <v>180.6</v>
       </c>
       <c r="F14" t="n">
-        <v>21842.1722</v>
+        <v>253.575</v>
       </c>
       <c r="G14" t="n">
-        <v>-52820.84056715001</v>
+        <v>-69399.56466715001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>181.8</v>
+        <v>180.7</v>
       </c>
       <c r="C15" t="n">
-        <v>181.8</v>
+        <v>180.7</v>
       </c>
       <c r="D15" t="n">
-        <v>181.8</v>
+        <v>180.7</v>
       </c>
       <c r="E15" t="n">
-        <v>181.8</v>
+        <v>180.7</v>
       </c>
       <c r="F15" t="n">
-        <v>2880</v>
+        <v>4994.4879</v>
       </c>
       <c r="G15" t="n">
-        <v>-55700.84056715001</v>
+        <v>-64405.07676715001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,34 +935,35 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>181.8</v>
+        <v>180.6</v>
       </c>
       <c r="C16" t="n">
-        <v>181.8</v>
+        <v>180.6</v>
       </c>
       <c r="D16" t="n">
-        <v>181.8</v>
+        <v>180.6</v>
       </c>
       <c r="E16" t="n">
-        <v>181.8</v>
+        <v>180.6</v>
       </c>
       <c r="F16" t="n">
-        <v>250</v>
+        <v>438.117</v>
       </c>
       <c r="G16" t="n">
-        <v>-55700.84056715001</v>
+        <v>-64843.19376715001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>181.8</v>
+        <v>180.7</v>
       </c>
       <c r="C17" t="n">
-        <v>181.8</v>
+        <v>180.7</v>
       </c>
       <c r="D17" t="n">
-        <v>181.8</v>
+        <v>180.7</v>
       </c>
       <c r="E17" t="n">
-        <v>181.8</v>
+        <v>180.7</v>
       </c>
       <c r="F17" t="n">
-        <v>14974.7912</v>
+        <v>3240</v>
       </c>
       <c r="G17" t="n">
-        <v>-55700.84056715001</v>
+        <v>-61603.19376715001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>181.8</v>
+        <v>180.7</v>
       </c>
       <c r="C18" t="n">
-        <v>181.8</v>
+        <v>180.9</v>
       </c>
       <c r="D18" t="n">
-        <v>181.8</v>
+        <v>180.9</v>
       </c>
       <c r="E18" t="n">
-        <v>181.8</v>
+        <v>180.7</v>
       </c>
       <c r="F18" t="n">
-        <v>71.47</v>
+        <v>3551.435</v>
       </c>
       <c r="G18" t="n">
-        <v>-55700.84056715001</v>
+        <v>-58051.75876715002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>181.8</v>
+        <v>180.6</v>
       </c>
       <c r="C19" t="n">
-        <v>181.8</v>
+        <v>180.2</v>
       </c>
       <c r="D19" t="n">
-        <v>181.8</v>
+        <v>180.6</v>
       </c>
       <c r="E19" t="n">
-        <v>181.8</v>
+        <v>180.2</v>
       </c>
       <c r="F19" t="n">
-        <v>1550.9141</v>
+        <v>187.614</v>
       </c>
       <c r="G19" t="n">
-        <v>-55700.84056715001</v>
+        <v>-58239.37276715002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>181.8</v>
+        <v>180.3</v>
       </c>
       <c r="C20" t="n">
-        <v>181.8</v>
+        <v>180.3</v>
       </c>
       <c r="D20" t="n">
-        <v>181.8</v>
+        <v>180.3</v>
       </c>
       <c r="E20" t="n">
-        <v>181.8</v>
+        <v>180.3</v>
       </c>
       <c r="F20" t="n">
-        <v>2016.1884</v>
+        <v>25</v>
       </c>
       <c r="G20" t="n">
-        <v>-55700.84056715001</v>
+        <v>-58214.37276715002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>181.6</v>
+        <v>180.2</v>
       </c>
       <c r="C21" t="n">
-        <v>181.6</v>
+        <v>180.1</v>
       </c>
       <c r="D21" t="n">
-        <v>181.6</v>
+        <v>180.2</v>
       </c>
       <c r="E21" t="n">
-        <v>181.6</v>
+        <v>180.1</v>
       </c>
       <c r="F21" t="n">
-        <v>384.3575</v>
+        <v>6960</v>
       </c>
       <c r="G21" t="n">
-        <v>-56085.19806715001</v>
+        <v>-65174.37276715002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>181.6</v>
+        <v>180.2</v>
       </c>
       <c r="C22" t="n">
-        <v>180.5</v>
+        <v>180.2</v>
       </c>
       <c r="D22" t="n">
-        <v>181.6</v>
+        <v>180.2</v>
       </c>
       <c r="E22" t="n">
-        <v>180.5</v>
+        <v>180.2</v>
       </c>
       <c r="F22" t="n">
-        <v>2660</v>
+        <v>1102.999</v>
       </c>
       <c r="G22" t="n">
-        <v>-58745.19806715001</v>
+        <v>-64071.37376715001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>180.5</v>
+        <v>180.3</v>
       </c>
       <c r="C23" t="n">
-        <v>180.5</v>
+        <v>180.3</v>
       </c>
       <c r="D23" t="n">
-        <v>180.5</v>
+        <v>180.3</v>
       </c>
       <c r="E23" t="n">
-        <v>180.5</v>
+        <v>180.3</v>
       </c>
       <c r="F23" t="n">
-        <v>180.16</v>
+        <v>1665.6288</v>
       </c>
       <c r="G23" t="n">
-        <v>-58745.19806715001</v>
+        <v>-62405.74496715001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>181.8</v>
+        <v>180.9</v>
       </c>
       <c r="C24" t="n">
-        <v>181.8</v>
+        <v>180.9</v>
       </c>
       <c r="D24" t="n">
-        <v>181.8</v>
+        <v>180.9</v>
       </c>
       <c r="E24" t="n">
-        <v>181.8</v>
+        <v>180.9</v>
       </c>
       <c r="F24" t="n">
-        <v>7000</v>
+        <v>1782.0417</v>
       </c>
       <c r="G24" t="n">
-        <v>-51745.19806715001</v>
+        <v>-60623.70326715001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>181.8</v>
+        <v>181.9</v>
       </c>
       <c r="C25" t="n">
-        <v>181.8</v>
+        <v>181.9</v>
       </c>
       <c r="D25" t="n">
-        <v>181.8</v>
+        <v>181.9</v>
       </c>
       <c r="E25" t="n">
-        <v>181.8</v>
+        <v>181.9</v>
       </c>
       <c r="F25" t="n">
-        <v>857</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>-51745.19806715001</v>
+        <v>-60620.70326715001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,13 +1295,14 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>181.9</v>
+        <v>180.4</v>
       </c>
       <c r="C26" t="n">
         <v>181.9</v>
@@ -1282,19 +1311,19 @@
         <v>181.9</v>
       </c>
       <c r="E26" t="n">
-        <v>181.9</v>
+        <v>180.4</v>
       </c>
       <c r="F26" t="n">
-        <v>2701.3973</v>
+        <v>807.441</v>
       </c>
       <c r="G26" t="n">
-        <v>-49043.80076715001</v>
+        <v>-60620.70326715001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1320,10 +1350,10 @@
         <v>181.9</v>
       </c>
       <c r="F27" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="G27" t="n">
-        <v>-49043.80076715001</v>
+        <v>-60620.70326715001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1355,16 +1386,16 @@
         <v>181.9</v>
       </c>
       <c r="F28" t="n">
-        <v>212.68</v>
+        <v>500</v>
       </c>
       <c r="G28" t="n">
-        <v>-49043.80076715001</v>
+        <v>-60620.70326715001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>181.9</v>
+        <v>181.8</v>
       </c>
       <c r="C29" t="n">
-        <v>181</v>
+        <v>180.1</v>
       </c>
       <c r="D29" t="n">
-        <v>181.9</v>
+        <v>181.8</v>
       </c>
       <c r="E29" t="n">
-        <v>181</v>
+        <v>180.1</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>4843.4293</v>
       </c>
       <c r="G29" t="n">
-        <v>-49047.80076715001</v>
+        <v>-65464.13256715001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>180.9</v>
+        <v>181.8</v>
       </c>
       <c r="C30" t="n">
-        <v>182</v>
+        <v>181.8</v>
       </c>
       <c r="D30" t="n">
-        <v>182</v>
+        <v>181.8</v>
       </c>
       <c r="E30" t="n">
-        <v>180.9</v>
+        <v>181.8</v>
       </c>
       <c r="F30" t="n">
-        <v>7300</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>-41747.80076715001</v>
+        <v>-65461.13256715001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>183</v>
+        <v>180.5</v>
       </c>
       <c r="C31" t="n">
-        <v>181</v>
+        <v>180.5</v>
       </c>
       <c r="D31" t="n">
-        <v>183.1</v>
+        <v>180.5</v>
       </c>
       <c r="E31" t="n">
-        <v>181</v>
+        <v>180.5</v>
       </c>
       <c r="F31" t="n">
-        <v>12170.3875</v>
+        <v>1100</v>
       </c>
       <c r="G31" t="n">
-        <v>-53918.18826715001</v>
+        <v>-66561.13256715001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>181</v>
+        <v>180.2</v>
       </c>
       <c r="C32" t="n">
-        <v>181</v>
+        <v>180.1</v>
       </c>
       <c r="D32" t="n">
-        <v>181</v>
+        <v>180.2</v>
       </c>
       <c r="E32" t="n">
-        <v>181</v>
+        <v>180.1</v>
       </c>
       <c r="F32" t="n">
-        <v>6780.6177</v>
+        <v>9981.946400000001</v>
       </c>
       <c r="G32" t="n">
-        <v>-53918.18826715001</v>
+        <v>-76543.07896715001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>182</v>
+        <v>179.7</v>
       </c>
       <c r="C33" t="n">
-        <v>182</v>
+        <v>181.9</v>
       </c>
       <c r="D33" t="n">
-        <v>182</v>
+        <v>181.9</v>
       </c>
       <c r="E33" t="n">
-        <v>182</v>
+        <v>179.7</v>
       </c>
       <c r="F33" t="n">
-        <v>10830.067</v>
+        <v>625.3082000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>-43088.12126715001</v>
+        <v>-75917.77076715001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>182</v>
+        <v>179.7</v>
       </c>
       <c r="C34" t="n">
-        <v>181</v>
+        <v>179.7</v>
       </c>
       <c r="D34" t="n">
-        <v>182</v>
+        <v>179.7</v>
       </c>
       <c r="E34" t="n">
-        <v>181</v>
+        <v>179.7</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>4928.0548</v>
       </c>
       <c r="G34" t="n">
-        <v>-43091.12126715001</v>
+        <v>-80845.82556715001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,34 +1619,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>181</v>
+        <v>179.7</v>
       </c>
       <c r="C35" t="n">
-        <v>181</v>
+        <v>179.7</v>
       </c>
       <c r="D35" t="n">
-        <v>181</v>
+        <v>179.7</v>
       </c>
       <c r="E35" t="n">
-        <v>181</v>
+        <v>179.7</v>
       </c>
       <c r="F35" t="n">
-        <v>64.6443</v>
+        <v>1260</v>
       </c>
       <c r="G35" t="n">
-        <v>-43091.12126715001</v>
+        <v>-80845.82556715001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,34 +1655,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>182.7</v>
+        <v>179.7</v>
       </c>
       <c r="C36" t="n">
-        <v>180.6</v>
+        <v>179</v>
       </c>
       <c r="D36" t="n">
-        <v>183</v>
+        <v>179.7</v>
       </c>
       <c r="E36" t="n">
-        <v>180.6</v>
+        <v>179</v>
       </c>
       <c r="F36" t="n">
-        <v>12298.8228</v>
+        <v>26905.818</v>
       </c>
       <c r="G36" t="n">
-        <v>-55389.94406715001</v>
+        <v>-107751.64356715</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>182</v>
+        <v>179.6</v>
       </c>
       <c r="C37" t="n">
-        <v>182</v>
+        <v>179.7</v>
       </c>
       <c r="D37" t="n">
-        <v>182</v>
+        <v>179.7</v>
       </c>
       <c r="E37" t="n">
-        <v>182</v>
+        <v>179.6</v>
       </c>
       <c r="F37" t="n">
-        <v>26.96</v>
+        <v>9980</v>
       </c>
       <c r="G37" t="n">
-        <v>-55362.98406715001</v>
+        <v>-97771.64356715001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,34 +1727,35 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>183.9</v>
+        <v>179.1</v>
       </c>
       <c r="C38" t="n">
-        <v>183.9</v>
+        <v>179.1</v>
       </c>
       <c r="D38" t="n">
-        <v>183.9</v>
+        <v>179.1</v>
       </c>
       <c r="E38" t="n">
-        <v>183.9</v>
+        <v>179.1</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>600</v>
       </c>
       <c r="G38" t="n">
-        <v>-55359.98406715001</v>
+        <v>-98371.64356715001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1722,34 +1763,35 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>183.8</v>
+        <v>179</v>
       </c>
       <c r="C39" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D39" t="n">
-        <v>183.8</v>
+        <v>179</v>
       </c>
       <c r="E39" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F39" t="n">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="G39" t="n">
-        <v>-55484.98406715001</v>
+        <v>-98671.64356715001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1757,34 +1799,35 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>180.9</v>
+        <v>179.6</v>
       </c>
       <c r="C40" t="n">
-        <v>180.8</v>
+        <v>181.4</v>
       </c>
       <c r="D40" t="n">
-        <v>180.9</v>
+        <v>181.4</v>
       </c>
       <c r="E40" t="n">
-        <v>180.8</v>
+        <v>179.6</v>
       </c>
       <c r="F40" t="n">
-        <v>1500</v>
+        <v>5102.57775391</v>
       </c>
       <c r="G40" t="n">
-        <v>-56984.98406715001</v>
+        <v>-93569.06581324001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>180.9</v>
+        <v>179.1</v>
       </c>
       <c r="C41" t="n">
-        <v>180.8</v>
+        <v>178.5</v>
       </c>
       <c r="D41" t="n">
-        <v>180.9</v>
+        <v>179.1</v>
       </c>
       <c r="E41" t="n">
-        <v>180.8</v>
+        <v>178.5</v>
       </c>
       <c r="F41" t="n">
-        <v>757.5542</v>
+        <v>945.77</v>
       </c>
       <c r="G41" t="n">
-        <v>-56984.98406715001</v>
+        <v>-94514.83581324002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>180.8</v>
+        <v>179</v>
       </c>
       <c r="C42" t="n">
-        <v>180.8</v>
+        <v>179</v>
       </c>
       <c r="D42" t="n">
-        <v>180.8</v>
+        <v>179</v>
       </c>
       <c r="E42" t="n">
-        <v>180.8</v>
+        <v>179</v>
       </c>
       <c r="F42" t="n">
-        <v>1210</v>
+        <v>105.3233</v>
       </c>
       <c r="G42" t="n">
-        <v>-56984.98406715001</v>
+        <v>-94409.51251324001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>181.9</v>
+        <v>180.9</v>
       </c>
       <c r="C43" t="n">
-        <v>180.7</v>
+        <v>180.9</v>
       </c>
       <c r="D43" t="n">
-        <v>181.9</v>
+        <v>180.9</v>
       </c>
       <c r="E43" t="n">
-        <v>180.7</v>
+        <v>180.9</v>
       </c>
       <c r="F43" t="n">
-        <v>4138.2294</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>-61123.21346715001</v>
+        <v>-94406.51251324001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>180.8</v>
+        <v>179</v>
       </c>
       <c r="C44" t="n">
-        <v>180.8</v>
+        <v>179</v>
       </c>
       <c r="D44" t="n">
-        <v>180.8</v>
+        <v>179</v>
       </c>
       <c r="E44" t="n">
-        <v>180.8</v>
+        <v>179</v>
       </c>
       <c r="F44" t="n">
-        <v>694.6034</v>
+        <v>81.0615</v>
       </c>
       <c r="G44" t="n">
-        <v>-60428.61006715001</v>
+        <v>-94487.57401324001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C45" t="n">
-        <v>180.8</v>
+        <v>179</v>
       </c>
       <c r="D45" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E45" t="n">
-        <v>180.8</v>
+        <v>179</v>
       </c>
       <c r="F45" t="n">
-        <v>791.28</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>-60428.61006715001</v>
+        <v>-94487.57401324001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>180.9</v>
+        <v>178.5</v>
       </c>
       <c r="C46" t="n">
-        <v>180.9</v>
+        <v>178.5</v>
       </c>
       <c r="D46" t="n">
-        <v>180.9</v>
+        <v>178.5</v>
       </c>
       <c r="E46" t="n">
-        <v>180.9</v>
+        <v>178.5</v>
       </c>
       <c r="F46" t="n">
-        <v>183.6</v>
+        <v>19.99</v>
       </c>
       <c r="G46" t="n">
-        <v>-60245.01006715001</v>
+        <v>-94507.56401324001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C47" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D47" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E47" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F47" t="n">
-        <v>247</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
-        <v>-59998.01006715001</v>
+        <v>-94504.56401324001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C48" t="n">
-        <v>180.9</v>
+        <v>181.8</v>
       </c>
       <c r="D48" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="E48" t="n">
-        <v>180.9</v>
+        <v>179</v>
       </c>
       <c r="F48" t="n">
-        <v>1952.701</v>
+        <v>40</v>
       </c>
       <c r="G48" t="n">
-        <v>-61950.71106715001</v>
+        <v>-94464.56401324001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>180.9</v>
+        <v>180.8</v>
       </c>
       <c r="C49" t="n">
-        <v>180.9</v>
+        <v>180.8</v>
       </c>
       <c r="D49" t="n">
-        <v>180.9</v>
+        <v>180.8</v>
       </c>
       <c r="E49" t="n">
-        <v>180.9</v>
+        <v>180.8</v>
       </c>
       <c r="F49" t="n">
-        <v>2353.1387</v>
+        <v>85.687</v>
       </c>
       <c r="G49" t="n">
-        <v>-61950.71106715001</v>
+        <v>-94550.25101324002</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>180.8</v>
+        <v>181.5</v>
       </c>
       <c r="C50" t="n">
-        <v>180.8</v>
+        <v>181.5</v>
       </c>
       <c r="D50" t="n">
-        <v>180.8</v>
+        <v>181.5</v>
       </c>
       <c r="E50" t="n">
-        <v>180.8</v>
+        <v>181.5</v>
       </c>
       <c r="F50" t="n">
-        <v>3110.178</v>
+        <v>3</v>
       </c>
       <c r="G50" t="n">
-        <v>-65060.88906715001</v>
+        <v>-94547.25101324002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>180.7</v>
+        <v>178.5</v>
       </c>
       <c r="C51" t="n">
-        <v>180.7</v>
+        <v>178.5</v>
       </c>
       <c r="D51" t="n">
-        <v>180.7</v>
+        <v>178.5</v>
       </c>
       <c r="E51" t="n">
-        <v>180.7</v>
+        <v>178.5</v>
       </c>
       <c r="F51" t="n">
-        <v>2632</v>
+        <v>7659.6812</v>
       </c>
       <c r="G51" t="n">
-        <v>-67692.88906715001</v>
+        <v>-102206.93221324</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>180.7</v>
+        <v>180.9</v>
       </c>
       <c r="C52" t="n">
-        <v>180.7</v>
+        <v>180.9</v>
       </c>
       <c r="D52" t="n">
-        <v>180.7</v>
+        <v>180.9</v>
       </c>
       <c r="E52" t="n">
-        <v>180.7</v>
+        <v>180.9</v>
       </c>
       <c r="F52" t="n">
-        <v>306</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>-67692.88906715001</v>
+        <v>-102203.93221324</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>180.7</v>
+        <v>178.4</v>
       </c>
       <c r="C53" t="n">
-        <v>180.6</v>
+        <v>178.4</v>
       </c>
       <c r="D53" t="n">
-        <v>180.7</v>
+        <v>178.4</v>
       </c>
       <c r="E53" t="n">
-        <v>180.6</v>
+        <v>178.4</v>
       </c>
       <c r="F53" t="n">
-        <v>1706.6756</v>
+        <v>112.1158</v>
       </c>
       <c r="G53" t="n">
-        <v>-69399.56466715001</v>
+        <v>-102316.04801324</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>180.6</v>
+        <v>179</v>
       </c>
       <c r="C54" t="n">
-        <v>180.6</v>
+        <v>178.4</v>
       </c>
       <c r="D54" t="n">
-        <v>180.6</v>
+        <v>179</v>
       </c>
       <c r="E54" t="n">
-        <v>180.6</v>
+        <v>178.4</v>
       </c>
       <c r="F54" t="n">
-        <v>9240</v>
+        <v>173.2167</v>
       </c>
       <c r="G54" t="n">
-        <v>-69399.56466715001</v>
+        <v>-102316.04801324</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>180.6</v>
+        <v>178.4</v>
       </c>
       <c r="C55" t="n">
-        <v>180.6</v>
+        <v>178.4</v>
       </c>
       <c r="D55" t="n">
-        <v>180.6</v>
+        <v>178.4</v>
       </c>
       <c r="E55" t="n">
-        <v>180.6</v>
+        <v>178.4</v>
       </c>
       <c r="F55" t="n">
-        <v>4660</v>
+        <v>342.5603</v>
       </c>
       <c r="G55" t="n">
-        <v>-69399.56466715001</v>
+        <v>-102316.04801324</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>180.6</v>
+        <v>178.2</v>
       </c>
       <c r="C56" t="n">
-        <v>180.6</v>
+        <v>178</v>
       </c>
       <c r="D56" t="n">
-        <v>180.6</v>
+        <v>178.2</v>
       </c>
       <c r="E56" t="n">
-        <v>180.6</v>
+        <v>178</v>
       </c>
       <c r="F56" t="n">
-        <v>253.575</v>
+        <v>17325.6951</v>
       </c>
       <c r="G56" t="n">
-        <v>-69399.56466715001</v>
+        <v>-119641.74311324</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>180.7</v>
+        <v>178</v>
       </c>
       <c r="C57" t="n">
-        <v>180.7</v>
+        <v>178</v>
       </c>
       <c r="D57" t="n">
-        <v>180.7</v>
+        <v>178</v>
       </c>
       <c r="E57" t="n">
-        <v>180.7</v>
+        <v>178</v>
       </c>
       <c r="F57" t="n">
-        <v>4994.4879</v>
+        <v>238.071</v>
       </c>
       <c r="G57" t="n">
-        <v>-64405.07676715001</v>
+        <v>-119641.74311324</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>180.6</v>
+        <v>178</v>
       </c>
       <c r="C58" t="n">
-        <v>180.6</v>
+        <v>178</v>
       </c>
       <c r="D58" t="n">
-        <v>180.6</v>
+        <v>178</v>
       </c>
       <c r="E58" t="n">
-        <v>180.6</v>
+        <v>178</v>
       </c>
       <c r="F58" t="n">
-        <v>438.117</v>
+        <v>750.225</v>
       </c>
       <c r="G58" t="n">
-        <v>-64843.19376715001</v>
+        <v>-119641.74311324</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>180.7</v>
+        <v>178</v>
       </c>
       <c r="C59" t="n">
-        <v>180.7</v>
+        <v>178</v>
       </c>
       <c r="D59" t="n">
-        <v>180.7</v>
+        <v>178</v>
       </c>
       <c r="E59" t="n">
-        <v>180.7</v>
+        <v>178</v>
       </c>
       <c r="F59" t="n">
-        <v>3240</v>
+        <v>4505.245</v>
       </c>
       <c r="G59" t="n">
-        <v>-61603.19376715001</v>
+        <v>-119641.74311324</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>180.7</v>
+        <v>178</v>
       </c>
       <c r="C60" t="n">
-        <v>180.9</v>
+        <v>178</v>
       </c>
       <c r="D60" t="n">
-        <v>180.9</v>
+        <v>178</v>
       </c>
       <c r="E60" t="n">
-        <v>180.7</v>
+        <v>178</v>
       </c>
       <c r="F60" t="n">
-        <v>3551.435</v>
+        <v>585.354</v>
       </c>
       <c r="G60" t="n">
-        <v>-58051.75876715002</v>
+        <v>-119641.74311324</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>180.6</v>
+        <v>178</v>
       </c>
       <c r="C61" t="n">
-        <v>180.2</v>
+        <v>178</v>
       </c>
       <c r="D61" t="n">
-        <v>180.6</v>
+        <v>178</v>
       </c>
       <c r="E61" t="n">
-        <v>180.2</v>
+        <v>178</v>
       </c>
       <c r="F61" t="n">
-        <v>187.614</v>
+        <v>2062.492</v>
       </c>
       <c r="G61" t="n">
-        <v>-58239.37276715002</v>
+        <v>-119641.74311324</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>180.3</v>
+        <v>178</v>
       </c>
       <c r="C62" t="n">
-        <v>180.3</v>
+        <v>178</v>
       </c>
       <c r="D62" t="n">
-        <v>180.3</v>
+        <v>178</v>
       </c>
       <c r="E62" t="n">
-        <v>180.3</v>
+        <v>178</v>
       </c>
       <c r="F62" t="n">
-        <v>25</v>
+        <v>641.7037</v>
       </c>
       <c r="G62" t="n">
-        <v>-58214.37276715002</v>
+        <v>-119641.74311324</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>180.2</v>
+        <v>178</v>
       </c>
       <c r="C63" t="n">
-        <v>180.1</v>
+        <v>178</v>
       </c>
       <c r="D63" t="n">
-        <v>180.2</v>
+        <v>178</v>
       </c>
       <c r="E63" t="n">
-        <v>180.1</v>
+        <v>178</v>
       </c>
       <c r="F63" t="n">
-        <v>6960</v>
+        <v>4954.486</v>
       </c>
       <c r="G63" t="n">
-        <v>-65174.37276715002</v>
+        <v>-119641.74311324</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>180.2</v>
+        <v>178</v>
       </c>
       <c r="C64" t="n">
-        <v>180.2</v>
+        <v>178</v>
       </c>
       <c r="D64" t="n">
-        <v>180.2</v>
+        <v>178</v>
       </c>
       <c r="E64" t="n">
-        <v>180.2</v>
+        <v>178</v>
       </c>
       <c r="F64" t="n">
-        <v>1102.999</v>
+        <v>16943.3766</v>
       </c>
       <c r="G64" t="n">
-        <v>-64071.37376715001</v>
+        <v>-119641.74311324</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>180.3</v>
+        <v>178</v>
       </c>
       <c r="C65" t="n">
-        <v>180.3</v>
+        <v>178</v>
       </c>
       <c r="D65" t="n">
-        <v>180.3</v>
+        <v>178</v>
       </c>
       <c r="E65" t="n">
-        <v>180.3</v>
+        <v>178</v>
       </c>
       <c r="F65" t="n">
-        <v>1665.6288</v>
+        <v>3816.1376</v>
       </c>
       <c r="G65" t="n">
-        <v>-62405.74496715001</v>
+        <v>-119641.74311324</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>180.9</v>
+        <v>178</v>
       </c>
       <c r="C66" t="n">
-        <v>180.9</v>
+        <v>178</v>
       </c>
       <c r="D66" t="n">
-        <v>180.9</v>
+        <v>178</v>
       </c>
       <c r="E66" t="n">
-        <v>180.9</v>
+        <v>178</v>
       </c>
       <c r="F66" t="n">
-        <v>1782.0417</v>
+        <v>1227.4324</v>
       </c>
       <c r="G66" t="n">
-        <v>-60623.70326715001</v>
+        <v>-119641.74311324</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>181.9</v>
+        <v>178</v>
       </c>
       <c r="C67" t="n">
-        <v>181.9</v>
+        <v>178</v>
       </c>
       <c r="D67" t="n">
-        <v>181.9</v>
+        <v>178</v>
       </c>
       <c r="E67" t="n">
-        <v>181.9</v>
+        <v>178</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>12.5774</v>
       </c>
       <c r="G67" t="n">
-        <v>-60620.70326715001</v>
+        <v>-119641.74311324</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>180.4</v>
+        <v>178</v>
       </c>
       <c r="C68" t="n">
-        <v>181.9</v>
+        <v>179</v>
       </c>
       <c r="D68" t="n">
-        <v>181.9</v>
+        <v>179</v>
       </c>
       <c r="E68" t="n">
-        <v>180.4</v>
+        <v>178</v>
       </c>
       <c r="F68" t="n">
-        <v>807.441</v>
+        <v>300</v>
       </c>
       <c r="G68" t="n">
-        <v>-60620.70326715001</v>
+        <v>-119341.74311324</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>181.9</v>
+        <v>178</v>
       </c>
       <c r="C69" t="n">
-        <v>181.9</v>
+        <v>178</v>
       </c>
       <c r="D69" t="n">
-        <v>181.9</v>
+        <v>178</v>
       </c>
       <c r="E69" t="n">
-        <v>181.9</v>
+        <v>178</v>
       </c>
       <c r="F69" t="n">
-        <v>1000</v>
+        <v>40.1265</v>
       </c>
       <c r="G69" t="n">
-        <v>-60620.70326715001</v>
+        <v>-119381.86961324</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>181.9</v>
+        <v>178</v>
       </c>
       <c r="C70" t="n">
-        <v>181.9</v>
+        <v>178</v>
       </c>
       <c r="D70" t="n">
-        <v>181.9</v>
+        <v>178</v>
       </c>
       <c r="E70" t="n">
-        <v>181.9</v>
+        <v>178</v>
       </c>
       <c r="F70" t="n">
-        <v>500</v>
+        <v>40.1265</v>
       </c>
       <c r="G70" t="n">
-        <v>-60620.70326715001</v>
+        <v>-119381.86961324</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>181.8</v>
+        <v>178</v>
       </c>
       <c r="C71" t="n">
-        <v>180.1</v>
+        <v>177.3</v>
       </c>
       <c r="D71" t="n">
-        <v>181.8</v>
+        <v>178</v>
       </c>
       <c r="E71" t="n">
-        <v>180.1</v>
+        <v>177.3</v>
       </c>
       <c r="F71" t="n">
-        <v>4843.4293</v>
+        <v>31456.1391</v>
       </c>
       <c r="G71" t="n">
-        <v>-65464.13256715001</v>
+        <v>-150838.00871324</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>181.8</v>
+        <v>180.7</v>
       </c>
       <c r="C72" t="n">
-        <v>181.8</v>
+        <v>180.7</v>
       </c>
       <c r="D72" t="n">
-        <v>181.8</v>
+        <v>180.7</v>
       </c>
       <c r="E72" t="n">
-        <v>181.8</v>
+        <v>180.7</v>
       </c>
       <c r="F72" t="n">
         <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>-65461.13256715001</v>
+        <v>-150835.00871324</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>180.5</v>
+        <v>177.4</v>
       </c>
       <c r="C73" t="n">
-        <v>180.5</v>
+        <v>177.4</v>
       </c>
       <c r="D73" t="n">
-        <v>180.5</v>
+        <v>177.4</v>
       </c>
       <c r="E73" t="n">
-        <v>180.5</v>
+        <v>177.4</v>
       </c>
       <c r="F73" t="n">
-        <v>1100</v>
+        <v>14.0848</v>
       </c>
       <c r="G73" t="n">
-        <v>-66561.13256715001</v>
+        <v>-150849.09351324</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>180.2</v>
+        <v>179.6</v>
       </c>
       <c r="C74" t="n">
-        <v>180.1</v>
+        <v>179.6</v>
       </c>
       <c r="D74" t="n">
-        <v>180.2</v>
+        <v>179.6</v>
       </c>
       <c r="E74" t="n">
-        <v>180.1</v>
+        <v>179.6</v>
       </c>
       <c r="F74" t="n">
-        <v>9981.946400000001</v>
+        <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>-76543.07896715001</v>
+        <v>-150846.09351324</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>179.7</v>
+        <v>178.1</v>
       </c>
       <c r="C75" t="n">
-        <v>181.9</v>
+        <v>176.7</v>
       </c>
       <c r="D75" t="n">
-        <v>181.9</v>
+        <v>178.1</v>
       </c>
       <c r="E75" t="n">
-        <v>179.7</v>
+        <v>176.7</v>
       </c>
       <c r="F75" t="n">
-        <v>625.3082000000001</v>
+        <v>40075.5463</v>
       </c>
       <c r="G75" t="n">
-        <v>-75917.77076715001</v>
+        <v>-190921.63981324</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>179.7</v>
+        <v>178.5</v>
       </c>
       <c r="C76" t="n">
-        <v>179.7</v>
+        <v>178.5</v>
       </c>
       <c r="D76" t="n">
-        <v>179.7</v>
+        <v>178.5</v>
       </c>
       <c r="E76" t="n">
-        <v>179.7</v>
+        <v>178.5</v>
       </c>
       <c r="F76" t="n">
-        <v>4928.0548</v>
+        <v>3</v>
       </c>
       <c r="G76" t="n">
-        <v>-80845.82556715001</v>
+        <v>-190918.63981324</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>179.7</v>
+        <v>177.1</v>
       </c>
       <c r="C77" t="n">
-        <v>179.7</v>
+        <v>178.4</v>
       </c>
       <c r="D77" t="n">
-        <v>179.7</v>
+        <v>178.4</v>
       </c>
       <c r="E77" t="n">
-        <v>179.7</v>
+        <v>177.1</v>
       </c>
       <c r="F77" t="n">
-        <v>1260</v>
+        <v>5904.5144</v>
       </c>
       <c r="G77" t="n">
-        <v>-80845.82556715001</v>
+        <v>-196823.15421324</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>179.7</v>
+        <v>178.5</v>
       </c>
       <c r="C78" t="n">
-        <v>179</v>
+        <v>178.5</v>
       </c>
       <c r="D78" t="n">
-        <v>179.7</v>
+        <v>178.5</v>
       </c>
       <c r="E78" t="n">
-        <v>179</v>
+        <v>178.4</v>
       </c>
       <c r="F78" t="n">
-        <v>26905.818</v>
+        <v>707.9777</v>
       </c>
       <c r="G78" t="n">
-        <v>-107751.64356715</v>
+        <v>-196115.17651324</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>179.6</v>
+        <v>178.5</v>
       </c>
       <c r="C79" t="n">
-        <v>179.7</v>
+        <v>178.5</v>
       </c>
       <c r="D79" t="n">
-        <v>179.7</v>
+        <v>178.5</v>
       </c>
       <c r="E79" t="n">
-        <v>179.6</v>
+        <v>178.5</v>
       </c>
       <c r="F79" t="n">
-        <v>9980</v>
+        <v>1120.44817927</v>
       </c>
       <c r="G79" t="n">
-        <v>-97771.64356715001</v>
+        <v>-196115.17651324</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>179.1</v>
+        <v>178</v>
       </c>
       <c r="C80" t="n">
-        <v>179.1</v>
+        <v>178</v>
       </c>
       <c r="D80" t="n">
-        <v>179.1</v>
+        <v>178</v>
       </c>
       <c r="E80" t="n">
-        <v>179.1</v>
+        <v>178</v>
       </c>
       <c r="F80" t="n">
-        <v>600</v>
+        <v>147.8246</v>
       </c>
       <c r="G80" t="n">
-        <v>-98371.64356715001</v>
+        <v>-196263.00111324</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>179</v>
+        <v>177.9</v>
       </c>
       <c r="C81" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D81" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E81" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F81" t="n">
-        <v>300</v>
+        <v>10003</v>
       </c>
       <c r="G81" t="n">
-        <v>-98671.64356715001</v>
+        <v>-206266.00111324</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>179.6</v>
+        <v>177</v>
       </c>
       <c r="C82" t="n">
-        <v>181.4</v>
+        <v>177</v>
       </c>
       <c r="D82" t="n">
-        <v>181.4</v>
+        <v>177</v>
       </c>
       <c r="E82" t="n">
-        <v>179.6</v>
+        <v>177</v>
       </c>
       <c r="F82" t="n">
-        <v>5102.57775391</v>
+        <v>45</v>
       </c>
       <c r="G82" t="n">
-        <v>-93569.06581324001</v>
+        <v>-206266.00111324</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>179.1</v>
+        <v>177.8</v>
       </c>
       <c r="C83" t="n">
-        <v>178.5</v>
+        <v>177.8</v>
       </c>
       <c r="D83" t="n">
-        <v>179.1</v>
+        <v>177.8</v>
       </c>
       <c r="E83" t="n">
-        <v>178.5</v>
+        <v>177.8</v>
       </c>
       <c r="F83" t="n">
-        <v>945.77</v>
+        <v>3</v>
       </c>
       <c r="G83" t="n">
-        <v>-94514.83581324002</v>
+        <v>-206263.00111324</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>179</v>
+        <v>176.7</v>
       </c>
       <c r="C84" t="n">
-        <v>179</v>
+        <v>176.6</v>
       </c>
       <c r="D84" t="n">
-        <v>179</v>
+        <v>176.7</v>
       </c>
       <c r="E84" t="n">
-        <v>179</v>
+        <v>176.6</v>
       </c>
       <c r="F84" t="n">
-        <v>105.3233</v>
+        <v>3400</v>
       </c>
       <c r="G84" t="n">
-        <v>-94409.51251324001</v>
+        <v>-209663.00111324</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>180.9</v>
+        <v>176.6</v>
       </c>
       <c r="C85" t="n">
-        <v>180.9</v>
+        <v>176.6</v>
       </c>
       <c r="D85" t="n">
-        <v>180.9</v>
+        <v>176.6</v>
       </c>
       <c r="E85" t="n">
-        <v>180.9</v>
+        <v>176.6</v>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>1040.0279</v>
       </c>
       <c r="G85" t="n">
-        <v>-94406.51251324001</v>
+        <v>-209663.00111324</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>179</v>
+        <v>177.8</v>
       </c>
       <c r="C86" t="n">
-        <v>179</v>
+        <v>177.8</v>
       </c>
       <c r="D86" t="n">
-        <v>179</v>
+        <v>177.8</v>
       </c>
       <c r="E86" t="n">
-        <v>179</v>
+        <v>177.8</v>
       </c>
       <c r="F86" t="n">
-        <v>81.0615</v>
+        <v>3</v>
       </c>
       <c r="G86" t="n">
-        <v>-94487.57401324001</v>
+        <v>-209660.00111324</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>179</v>
+        <v>176.6</v>
       </c>
       <c r="C87" t="n">
-        <v>179</v>
+        <v>176.6</v>
       </c>
       <c r="D87" t="n">
-        <v>179</v>
+        <v>176.6</v>
       </c>
       <c r="E87" t="n">
-        <v>179</v>
+        <v>176.6</v>
       </c>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>1500</v>
       </c>
       <c r="G87" t="n">
-        <v>-94487.57401324001</v>
+        <v>-211160.00111324</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>178.5</v>
+        <v>176.6</v>
       </c>
       <c r="C88" t="n">
-        <v>178.5</v>
+        <v>176.6</v>
       </c>
       <c r="D88" t="n">
-        <v>178.5</v>
+        <v>176.6</v>
       </c>
       <c r="E88" t="n">
-        <v>178.5</v>
+        <v>176</v>
       </c>
       <c r="F88" t="n">
-        <v>19.99</v>
+        <v>1783.9999</v>
       </c>
       <c r="G88" t="n">
-        <v>-94507.56401324001</v>
+        <v>-211160.00111324</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C89" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D89" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E89" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F89" t="n">
-        <v>3</v>
+        <v>371.9937</v>
       </c>
       <c r="G89" t="n">
-        <v>-94504.56401324001</v>
+        <v>-211531.99481324</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>179</v>
+        <v>176.6</v>
       </c>
       <c r="C90" t="n">
-        <v>181.8</v>
+        <v>176.6</v>
       </c>
       <c r="D90" t="n">
-        <v>181.8</v>
+        <v>176.6</v>
       </c>
       <c r="E90" t="n">
-        <v>179</v>
+        <v>176.6</v>
       </c>
       <c r="F90" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G90" t="n">
-        <v>-94464.56401324001</v>
+        <v>-211528.99481324</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>180.8</v>
+        <v>176.6</v>
       </c>
       <c r="C91" t="n">
-        <v>180.8</v>
+        <v>176.6</v>
       </c>
       <c r="D91" t="n">
-        <v>180.8</v>
+        <v>176.6</v>
       </c>
       <c r="E91" t="n">
-        <v>180.8</v>
+        <v>176.6</v>
       </c>
       <c r="F91" t="n">
-        <v>85.687</v>
+        <v>3</v>
       </c>
       <c r="G91" t="n">
-        <v>-94550.25101324002</v>
+        <v>-211528.99481324</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>181.5</v>
+        <v>176</v>
       </c>
       <c r="C92" t="n">
-        <v>181.5</v>
+        <v>176</v>
       </c>
       <c r="D92" t="n">
-        <v>181.5</v>
+        <v>176</v>
       </c>
       <c r="E92" t="n">
-        <v>181.5</v>
+        <v>176</v>
       </c>
       <c r="F92" t="n">
-        <v>3</v>
+        <v>586.538</v>
       </c>
       <c r="G92" t="n">
-        <v>-94547.25101324002</v>
+        <v>-212115.53281324</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,168 +3707,197 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>178.5</v>
+        <v>176.1</v>
       </c>
       <c r="C93" t="n">
-        <v>178.5</v>
+        <v>176</v>
       </c>
       <c r="D93" t="n">
-        <v>178.5</v>
+        <v>176.1</v>
       </c>
       <c r="E93" t="n">
-        <v>178.5</v>
+        <v>176</v>
       </c>
       <c r="F93" t="n">
-        <v>7659.6812</v>
+        <v>176.009</v>
       </c>
       <c r="G93" t="n">
-        <v>-102206.93221324</v>
+        <v>-212115.53281324</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>176</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>180.9</v>
+        <v>176.6</v>
       </c>
       <c r="C94" t="n">
-        <v>180.9</v>
+        <v>176.6</v>
       </c>
       <c r="D94" t="n">
-        <v>180.9</v>
+        <v>176.6</v>
       </c>
       <c r="E94" t="n">
-        <v>180.9</v>
+        <v>176.6</v>
       </c>
       <c r="F94" t="n">
         <v>3</v>
       </c>
       <c r="G94" t="n">
-        <v>-102203.93221324</v>
+        <v>-212112.53281324</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>176</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>178.4</v>
+        <v>176.6</v>
       </c>
       <c r="C95" t="n">
-        <v>178.4</v>
+        <v>178</v>
       </c>
       <c r="D95" t="n">
-        <v>178.4</v>
+        <v>178</v>
       </c>
       <c r="E95" t="n">
-        <v>178.4</v>
+        <v>176.6</v>
       </c>
       <c r="F95" t="n">
-        <v>112.1158</v>
+        <v>79</v>
       </c>
       <c r="G95" t="n">
-        <v>-102316.04801324</v>
+        <v>-212033.53281324</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>176.6</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>179</v>
+        <v>178.9</v>
       </c>
       <c r="C96" t="n">
-        <v>178.4</v>
+        <v>179.9</v>
       </c>
       <c r="D96" t="n">
-        <v>179</v>
+        <v>179.9</v>
       </c>
       <c r="E96" t="n">
-        <v>178.4</v>
+        <v>178.9</v>
       </c>
       <c r="F96" t="n">
-        <v>173.2167</v>
+        <v>5589.56086714</v>
       </c>
       <c r="G96" t="n">
-        <v>-102316.04801324</v>
+        <v>-206443.9719461</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>178</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>178.4</v>
+        <v>179.2</v>
       </c>
       <c r="C97" t="n">
-        <v>178.4</v>
+        <v>179.2</v>
       </c>
       <c r="D97" t="n">
-        <v>178.4</v>
+        <v>179.2</v>
       </c>
       <c r="E97" t="n">
-        <v>178.4</v>
+        <v>179.2</v>
       </c>
       <c r="F97" t="n">
-        <v>342.5603</v>
+        <v>45.93</v>
       </c>
       <c r="G97" t="n">
-        <v>-102316.04801324</v>
+        <v>-206489.9019461</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3783,32 +3907,37 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>178.2</v>
+        <v>179.1</v>
       </c>
       <c r="C98" t="n">
-        <v>178</v>
+        <v>178.1</v>
       </c>
       <c r="D98" t="n">
-        <v>178.2</v>
+        <v>179.1</v>
       </c>
       <c r="E98" t="n">
-        <v>178</v>
+        <v>178.1</v>
       </c>
       <c r="F98" t="n">
-        <v>17325.6951</v>
+        <v>2011.9862</v>
       </c>
       <c r="G98" t="n">
-        <v>-119641.74311324</v>
+        <v>-208501.8881461</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3818,32 +3947,37 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>178</v>
+        <v>178.2</v>
       </c>
       <c r="C99" t="n">
-        <v>178</v>
+        <v>178.2</v>
       </c>
       <c r="D99" t="n">
-        <v>178</v>
+        <v>178.2</v>
       </c>
       <c r="E99" t="n">
-        <v>178</v>
+        <v>178.2</v>
       </c>
       <c r="F99" t="n">
-        <v>238.071</v>
+        <v>5589.5608</v>
       </c>
       <c r="G99" t="n">
-        <v>-119641.74311324</v>
+        <v>-202912.3273461</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3853,32 +3987,37 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C100" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D100" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E100" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F100" t="n">
-        <v>750.225</v>
+        <v>191.4401</v>
       </c>
       <c r="G100" t="n">
-        <v>-119641.74311324</v>
+        <v>-202720.8872461</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3888,32 +4027,37 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>178</v>
+        <v>179.9</v>
       </c>
       <c r="C101" t="n">
-        <v>178</v>
+        <v>179.9</v>
       </c>
       <c r="D101" t="n">
-        <v>178</v>
+        <v>179.9</v>
       </c>
       <c r="E101" t="n">
-        <v>178</v>
+        <v>179.9</v>
       </c>
       <c r="F101" t="n">
-        <v>4505.245</v>
+        <v>3</v>
       </c>
       <c r="G101" t="n">
-        <v>-119641.74311324</v>
+        <v>-202717.8872461</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3923,32 +4067,37 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C102" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D102" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E102" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F102" t="n">
-        <v>585.354</v>
+        <v>1832.1826</v>
       </c>
       <c r="G102" t="n">
-        <v>-119641.74311324</v>
+        <v>-200885.7046461</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3958,32 +4107,37 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>178</v>
+        <v>180.4</v>
       </c>
       <c r="C103" t="n">
-        <v>178</v>
+        <v>180.4</v>
       </c>
       <c r="D103" t="n">
-        <v>178</v>
+        <v>180.4</v>
       </c>
       <c r="E103" t="n">
-        <v>178</v>
+        <v>180.4</v>
       </c>
       <c r="F103" t="n">
-        <v>2062.492</v>
+        <v>3</v>
       </c>
       <c r="G103" t="n">
-        <v>-119641.74311324</v>
+        <v>-200882.7046461</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3993,32 +4147,37 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>178</v>
+        <v>180.6</v>
       </c>
       <c r="C104" t="n">
-        <v>178</v>
+        <v>180.6</v>
       </c>
       <c r="D104" t="n">
-        <v>178</v>
+        <v>180.6</v>
       </c>
       <c r="E104" t="n">
-        <v>178</v>
+        <v>180.6</v>
       </c>
       <c r="F104" t="n">
-        <v>641.7037</v>
+        <v>3</v>
       </c>
       <c r="G104" t="n">
-        <v>-119641.74311324</v>
+        <v>-200879.7046461</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4028,32 +4187,37 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>178</v>
+        <v>180.6</v>
       </c>
       <c r="C105" t="n">
-        <v>178</v>
+        <v>180.6</v>
       </c>
       <c r="D105" t="n">
-        <v>178</v>
+        <v>180.6</v>
       </c>
       <c r="E105" t="n">
-        <v>178</v>
+        <v>180.6</v>
       </c>
       <c r="F105" t="n">
-        <v>4954.486</v>
+        <v>4.1753</v>
       </c>
       <c r="G105" t="n">
-        <v>-119641.74311324</v>
+        <v>-200879.7046461</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4063,71 +4227,77 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>178</v>
+        <v>180.5</v>
       </c>
       <c r="C106" t="n">
-        <v>178</v>
+        <v>180.5</v>
       </c>
       <c r="D106" t="n">
-        <v>178</v>
+        <v>180.5</v>
       </c>
       <c r="E106" t="n">
-        <v>178</v>
+        <v>180.5</v>
       </c>
       <c r="F106" t="n">
-        <v>16943.3766</v>
+        <v>3</v>
       </c>
       <c r="G106" t="n">
-        <v>-119641.74311324</v>
+        <v>-200882.7046461</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>178</v>
-      </c>
-      <c r="K106" t="n">
-        <v>178</v>
-      </c>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>178</v>
+        <v>180.7</v>
       </c>
       <c r="C107" t="n">
-        <v>178</v>
+        <v>180.6</v>
       </c>
       <c r="D107" t="n">
-        <v>178</v>
+        <v>180.7</v>
       </c>
       <c r="E107" t="n">
-        <v>178</v>
+        <v>180.6</v>
       </c>
       <c r="F107" t="n">
-        <v>3816.1376</v>
+        <v>53.5964</v>
       </c>
       <c r="G107" t="n">
-        <v>-119641.74311324</v>
+        <v>-200829.1082461</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4136,39 +4306,38 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>178</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>178</v>
+        <v>180.5</v>
       </c>
       <c r="C108" t="n">
-        <v>178</v>
+        <v>180.5</v>
       </c>
       <c r="D108" t="n">
-        <v>178</v>
+        <v>180.5</v>
       </c>
       <c r="E108" t="n">
-        <v>178</v>
+        <v>180.5</v>
       </c>
       <c r="F108" t="n">
-        <v>1227.4324</v>
+        <v>1000</v>
       </c>
       <c r="G108" t="n">
-        <v>-119641.74311324</v>
+        <v>-201829.1082461</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4177,39 +4346,38 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>178</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>178</v>
+        <v>180.7</v>
       </c>
       <c r="C109" t="n">
-        <v>178</v>
+        <v>180.7</v>
       </c>
       <c r="D109" t="n">
-        <v>178</v>
+        <v>180.7</v>
       </c>
       <c r="E109" t="n">
-        <v>178</v>
+        <v>180.7</v>
       </c>
       <c r="F109" t="n">
-        <v>12.5774</v>
+        <v>2500</v>
       </c>
       <c r="G109" t="n">
-        <v>-119641.74311324</v>
+        <v>-199329.1082461</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4219,1626 +4387,15 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>178</v>
-      </c>
-      <c r="C110" t="n">
-        <v>179</v>
-      </c>
-      <c r="D110" t="n">
-        <v>179</v>
-      </c>
-      <c r="E110" t="n">
-        <v>178</v>
-      </c>
-      <c r="F110" t="n">
-        <v>300</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-119341.74311324</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>178</v>
-      </c>
-      <c r="C111" t="n">
-        <v>178</v>
-      </c>
-      <c r="D111" t="n">
-        <v>178</v>
-      </c>
-      <c r="E111" t="n">
-        <v>178</v>
-      </c>
-      <c r="F111" t="n">
-        <v>40.1265</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-119381.86961324</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>178</v>
-      </c>
-      <c r="C112" t="n">
-        <v>178</v>
-      </c>
-      <c r="D112" t="n">
-        <v>178</v>
-      </c>
-      <c r="E112" t="n">
-        <v>178</v>
-      </c>
-      <c r="F112" t="n">
-        <v>40.1265</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-119381.86961324</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>178</v>
-      </c>
-      <c r="C113" t="n">
-        <v>177.3</v>
-      </c>
-      <c r="D113" t="n">
-        <v>178</v>
-      </c>
-      <c r="E113" t="n">
-        <v>177.3</v>
-      </c>
-      <c r="F113" t="n">
-        <v>31456.1391</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-150838.00871324</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="C114" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="D114" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="E114" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="F114" t="n">
-        <v>3</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-150835.00871324</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>177.3</v>
-      </c>
-      <c r="K114" t="n">
-        <v>177.3</v>
-      </c>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>177.4</v>
-      </c>
-      <c r="C115" t="n">
-        <v>177.4</v>
-      </c>
-      <c r="D115" t="n">
-        <v>177.4</v>
-      </c>
-      <c r="E115" t="n">
-        <v>177.4</v>
-      </c>
-      <c r="F115" t="n">
-        <v>14.0848</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-150849.09351324</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>177.3</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="C116" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="D116" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="E116" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="F116" t="n">
-        <v>3</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-150846.09351324</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>177.3</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="C117" t="n">
-        <v>176.7</v>
-      </c>
-      <c r="D117" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="E117" t="n">
-        <v>176.7</v>
-      </c>
-      <c r="F117" t="n">
-        <v>40075.5463</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-190921.63981324</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="C118" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="D118" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="E118" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="F118" t="n">
-        <v>3</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-190918.63981324</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>177.1</v>
-      </c>
-      <c r="C119" t="n">
-        <v>178.4</v>
-      </c>
-      <c r="D119" t="n">
-        <v>178.4</v>
-      </c>
-      <c r="E119" t="n">
-        <v>177.1</v>
-      </c>
-      <c r="F119" t="n">
-        <v>5904.5144</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-196823.15421324</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="C120" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="D120" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="E120" t="n">
-        <v>178.4</v>
-      </c>
-      <c r="F120" t="n">
-        <v>707.9777</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-196115.17651324</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="C121" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="D121" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="E121" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1120.44817927</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-196115.17651324</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>178</v>
-      </c>
-      <c r="C122" t="n">
-        <v>178</v>
-      </c>
-      <c r="D122" t="n">
-        <v>178</v>
-      </c>
-      <c r="E122" t="n">
-        <v>178</v>
-      </c>
-      <c r="F122" t="n">
-        <v>147.8246</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-196263.00111324</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>177.9</v>
-      </c>
-      <c r="C123" t="n">
-        <v>177</v>
-      </c>
-      <c r="D123" t="n">
-        <v>178</v>
-      </c>
-      <c r="E123" t="n">
-        <v>177</v>
-      </c>
-      <c r="F123" t="n">
-        <v>10003</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-206266.00111324</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>177</v>
-      </c>
-      <c r="C124" t="n">
-        <v>177</v>
-      </c>
-      <c r="D124" t="n">
-        <v>177</v>
-      </c>
-      <c r="E124" t="n">
-        <v>177</v>
-      </c>
-      <c r="F124" t="n">
-        <v>45</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-206266.00111324</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="C125" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="D125" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="E125" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="F125" t="n">
-        <v>3</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-206263.00111324</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>176.7</v>
-      </c>
-      <c r="C126" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D126" t="n">
-        <v>176.7</v>
-      </c>
-      <c r="E126" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F126" t="n">
-        <v>3400</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-209663.00111324</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C127" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D127" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E127" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1040.0279</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-209663.00111324</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="C128" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="D128" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="E128" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="F128" t="n">
-        <v>3</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-209660.00111324</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C129" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D129" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E129" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-211160.00111324</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C130" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D130" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E130" t="n">
-        <v>176</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1783.9999</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-211160.00111324</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>176</v>
-      </c>
-      <c r="C131" t="n">
-        <v>176</v>
-      </c>
-      <c r="D131" t="n">
-        <v>176</v>
-      </c>
-      <c r="E131" t="n">
-        <v>176</v>
-      </c>
-      <c r="F131" t="n">
-        <v>371.9937</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-211531.99481324</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="K131" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C132" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D132" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E132" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F132" t="n">
-        <v>3</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-211528.99481324</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C133" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D133" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E133" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F133" t="n">
-        <v>3</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-211528.99481324</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="K133" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>176</v>
-      </c>
-      <c r="C134" t="n">
-        <v>176</v>
-      </c>
-      <c r="D134" t="n">
-        <v>176</v>
-      </c>
-      <c r="E134" t="n">
-        <v>176</v>
-      </c>
-      <c r="F134" t="n">
-        <v>586.538</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-212115.53281324</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="K134" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>176.1</v>
-      </c>
-      <c r="C135" t="n">
-        <v>176</v>
-      </c>
-      <c r="D135" t="n">
-        <v>176.1</v>
-      </c>
-      <c r="E135" t="n">
-        <v>176</v>
-      </c>
-      <c r="F135" t="n">
-        <v>176.009</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-212115.53281324</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>176</v>
-      </c>
-      <c r="K135" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C136" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D136" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E136" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F136" t="n">
-        <v>3</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-212112.53281324</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>176</v>
-      </c>
-      <c r="K136" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C137" t="n">
-        <v>178</v>
-      </c>
-      <c r="D137" t="n">
-        <v>178</v>
-      </c>
-      <c r="E137" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F137" t="n">
-        <v>79</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-212033.53281324</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="K137" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="C138" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="D138" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="E138" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="F138" t="n">
-        <v>5589.56086714</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-206443.9719461</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>179.2</v>
-      </c>
-      <c r="C139" t="n">
-        <v>179.2</v>
-      </c>
-      <c r="D139" t="n">
-        <v>179.2</v>
-      </c>
-      <c r="E139" t="n">
-        <v>179.2</v>
-      </c>
-      <c r="F139" t="n">
-        <v>45.93</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-206489.9019461</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>179.1</v>
-      </c>
-      <c r="C140" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="D140" t="n">
-        <v>179.1</v>
-      </c>
-      <c r="E140" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2011.9862</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-208501.8881461</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="C141" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="D141" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="E141" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="F141" t="n">
-        <v>5589.5608</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-202912.3273461</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>179</v>
-      </c>
-      <c r="C142" t="n">
-        <v>179</v>
-      </c>
-      <c r="D142" t="n">
-        <v>179</v>
-      </c>
-      <c r="E142" t="n">
-        <v>179</v>
-      </c>
-      <c r="F142" t="n">
-        <v>191.4401</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-202720.8872461</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="C143" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="D143" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="E143" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="F143" t="n">
-        <v>3</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-202717.8872461</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>180</v>
-      </c>
-      <c r="C144" t="n">
-        <v>180</v>
-      </c>
-      <c r="D144" t="n">
-        <v>180</v>
-      </c>
-      <c r="E144" t="n">
-        <v>180</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1832.1826</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-200885.7046461</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>180.4</v>
-      </c>
-      <c r="C145" t="n">
-        <v>180.4</v>
-      </c>
-      <c r="D145" t="n">
-        <v>180.4</v>
-      </c>
-      <c r="E145" t="n">
-        <v>180.4</v>
-      </c>
-      <c r="F145" t="n">
-        <v>3</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-200882.7046461</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="C146" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="D146" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="E146" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="F146" t="n">
-        <v>3</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-200879.7046461</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="C147" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="D147" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="E147" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="F147" t="n">
-        <v>4.1753</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-200879.7046461</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="C148" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="D148" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="E148" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="F148" t="n">
-        <v>3</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-200882.7046461</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="C149" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="D149" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="E149" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="F149" t="n">
-        <v>53.5964</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-200829.1082461</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="C150" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="D150" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="E150" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-201829.1082461</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="C151" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="D151" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="E151" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="F151" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-199329.1082461</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-25 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-25 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:N180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>180.8</v>
+        <v>179.7</v>
       </c>
       <c r="C2" t="n">
-        <v>180.8</v>
+        <v>179.9</v>
       </c>
       <c r="D2" t="n">
-        <v>180.8</v>
+        <v>179.9</v>
       </c>
       <c r="E2" t="n">
-        <v>180.8</v>
+        <v>179.7</v>
       </c>
       <c r="F2" t="n">
-        <v>694.6034</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>-60428.61006715001</v>
+        <v>-43493.40846769999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>181</v>
+        <v>179.8</v>
       </c>
       <c r="C3" t="n">
-        <v>180.8</v>
+        <v>179.8</v>
       </c>
       <c r="D3" t="n">
-        <v>181</v>
+        <v>179.8</v>
       </c>
       <c r="E3" t="n">
-        <v>180.8</v>
+        <v>179.8</v>
       </c>
       <c r="F3" t="n">
-        <v>791.28</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>-60428.61006715001</v>
+        <v>-43496.40846769999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>180.9</v>
+        <v>179.6</v>
       </c>
       <c r="C4" t="n">
-        <v>180.9</v>
+        <v>179.6</v>
       </c>
       <c r="D4" t="n">
-        <v>180.9</v>
+        <v>179.6</v>
       </c>
       <c r="E4" t="n">
-        <v>180.9</v>
+        <v>179.6</v>
       </c>
       <c r="F4" t="n">
-        <v>183.6</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>-60245.01006715001</v>
+        <v>-43499.40846769999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>181</v>
+        <v>179.6</v>
       </c>
       <c r="C5" t="n">
-        <v>181</v>
+        <v>179.6</v>
       </c>
       <c r="D5" t="n">
-        <v>181</v>
+        <v>179.6</v>
       </c>
       <c r="E5" t="n">
-        <v>181</v>
+        <v>179.6</v>
       </c>
       <c r="F5" t="n">
-        <v>247</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>-59998.01006715001</v>
+        <v>-43499.40846769999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>181</v>
+        <v>179.6</v>
       </c>
       <c r="C6" t="n">
-        <v>180.9</v>
+        <v>179.6</v>
       </c>
       <c r="D6" t="n">
-        <v>181</v>
+        <v>179.6</v>
       </c>
       <c r="E6" t="n">
-        <v>180.9</v>
+        <v>179.6</v>
       </c>
       <c r="F6" t="n">
-        <v>1952.701</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>-61950.71106715001</v>
+        <v>-43499.40846769999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>180.9</v>
+        <v>179.7</v>
       </c>
       <c r="C7" t="n">
-        <v>180.9</v>
+        <v>179.8</v>
       </c>
       <c r="D7" t="n">
-        <v>180.9</v>
+        <v>179.8</v>
       </c>
       <c r="E7" t="n">
-        <v>180.9</v>
+        <v>179.7</v>
       </c>
       <c r="F7" t="n">
-        <v>2353.1387</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>-61950.71106715001</v>
+        <v>-43493.40846769999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>180.8</v>
+        <v>179.8</v>
       </c>
       <c r="C8" t="n">
-        <v>180.8</v>
+        <v>179.9</v>
       </c>
       <c r="D8" t="n">
-        <v>180.8</v>
+        <v>179.9</v>
       </c>
       <c r="E8" t="n">
-        <v>180.8</v>
+        <v>179.8</v>
       </c>
       <c r="F8" t="n">
-        <v>3110.178</v>
+        <v>5550.8656</v>
       </c>
       <c r="G8" t="n">
-        <v>-65060.88906715001</v>
+        <v>-37942.54286769999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>180.7</v>
+        <v>180.8</v>
       </c>
       <c r="C9" t="n">
-        <v>180.7</v>
+        <v>180.8</v>
       </c>
       <c r="D9" t="n">
-        <v>180.7</v>
+        <v>180.8</v>
       </c>
       <c r="E9" t="n">
-        <v>180.7</v>
+        <v>180.8</v>
       </c>
       <c r="F9" t="n">
-        <v>2632</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>-67692.88906715001</v>
+        <v>-37939.54286769999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -738,16 +738,16 @@
         <v>180.7</v>
       </c>
       <c r="F10" t="n">
-        <v>306</v>
+        <v>1213.775</v>
       </c>
       <c r="G10" t="n">
-        <v>-67692.88906715001</v>
+        <v>-39153.3178677</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -765,25 +765,25 @@
         <v>180.7</v>
       </c>
       <c r="C11" t="n">
-        <v>180.6</v>
+        <v>180.7</v>
       </c>
       <c r="D11" t="n">
         <v>180.7</v>
       </c>
       <c r="E11" t="n">
-        <v>180.6</v>
+        <v>180.7</v>
       </c>
       <c r="F11" t="n">
-        <v>1706.6756</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>-69399.56466715001</v>
+        <v>-39153.3178677</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>180.6</v>
+        <v>180.8</v>
       </c>
       <c r="C12" t="n">
-        <v>180.6</v>
+        <v>180.8</v>
       </c>
       <c r="D12" t="n">
-        <v>180.6</v>
+        <v>180.8</v>
       </c>
       <c r="E12" t="n">
-        <v>180.6</v>
+        <v>180.8</v>
       </c>
       <c r="F12" t="n">
-        <v>9240</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>-69399.56466715001</v>
+        <v>-39150.3178677</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -837,25 +837,25 @@
         <v>180.6</v>
       </c>
       <c r="C13" t="n">
-        <v>180.6</v>
+        <v>180.8</v>
       </c>
       <c r="D13" t="n">
-        <v>180.6</v>
+        <v>180.8</v>
       </c>
       <c r="E13" t="n">
-        <v>180.6</v>
+        <v>178.7</v>
       </c>
       <c r="F13" t="n">
-        <v>4660</v>
+        <v>103</v>
       </c>
       <c r="G13" t="n">
-        <v>-69399.56466715001</v>
+        <v>-39150.3178677</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>180.6</v>
+        <v>180.9</v>
       </c>
       <c r="C14" t="n">
-        <v>180.6</v>
+        <v>180.9</v>
       </c>
       <c r="D14" t="n">
-        <v>180.6</v>
+        <v>180.9</v>
       </c>
       <c r="E14" t="n">
-        <v>180.6</v>
+        <v>180.9</v>
       </c>
       <c r="F14" t="n">
-        <v>253.575</v>
+        <v>33</v>
       </c>
       <c r="G14" t="n">
-        <v>-69399.56466715001</v>
+        <v>-39117.3178677</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>180.7</v>
+        <v>181.7</v>
       </c>
       <c r="C15" t="n">
-        <v>180.7</v>
+        <v>181.7</v>
       </c>
       <c r="D15" t="n">
-        <v>180.7</v>
+        <v>181.7</v>
       </c>
       <c r="E15" t="n">
-        <v>180.7</v>
+        <v>181.7</v>
       </c>
       <c r="F15" t="n">
-        <v>4994.4879</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>-64405.07676715001</v>
+        <v>-39114.3178677</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>180.6</v>
+        <v>181.6</v>
       </c>
       <c r="C16" t="n">
-        <v>180.6</v>
+        <v>179.7</v>
       </c>
       <c r="D16" t="n">
-        <v>180.6</v>
+        <v>181.6</v>
       </c>
       <c r="E16" t="n">
-        <v>180.6</v>
+        <v>179.7</v>
       </c>
       <c r="F16" t="n">
-        <v>438.117</v>
+        <v>8350.526599999999</v>
       </c>
       <c r="G16" t="n">
-        <v>-64843.19376715001</v>
+        <v>-47464.84446769999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>180.7</v>
+        <v>181.7</v>
       </c>
       <c r="C17" t="n">
-        <v>180.7</v>
+        <v>181.7</v>
       </c>
       <c r="D17" t="n">
-        <v>180.7</v>
+        <v>181.7</v>
       </c>
       <c r="E17" t="n">
-        <v>180.7</v>
+        <v>181.7</v>
       </c>
       <c r="F17" t="n">
-        <v>3240</v>
+        <v>1341.6597</v>
       </c>
       <c r="G17" t="n">
-        <v>-61603.19376715001</v>
+        <v>-46123.1847677</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>180.7</v>
+        <v>181.7</v>
       </c>
       <c r="C18" t="n">
-        <v>180.9</v>
+        <v>181.8</v>
       </c>
       <c r="D18" t="n">
-        <v>180.9</v>
+        <v>181.8</v>
       </c>
       <c r="E18" t="n">
-        <v>180.7</v>
+        <v>181.7</v>
       </c>
       <c r="F18" t="n">
-        <v>3551.435</v>
+        <v>4476.84700055</v>
       </c>
       <c r="G18" t="n">
-        <v>-58051.75876715002</v>
+        <v>-41646.33776715</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>180.6</v>
+        <v>181.9</v>
       </c>
       <c r="C19" t="n">
-        <v>180.2</v>
+        <v>181.9</v>
       </c>
       <c r="D19" t="n">
-        <v>180.6</v>
+        <v>181.9</v>
       </c>
       <c r="E19" t="n">
-        <v>180.2</v>
+        <v>181.9</v>
       </c>
       <c r="F19" t="n">
-        <v>187.614</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>-58239.37276715002</v>
+        <v>-41643.33776715</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>180.3</v>
+        <v>181.6</v>
       </c>
       <c r="C20" t="n">
-        <v>180.3</v>
+        <v>179.7</v>
       </c>
       <c r="D20" t="n">
-        <v>180.3</v>
+        <v>181.6</v>
       </c>
       <c r="E20" t="n">
-        <v>180.3</v>
+        <v>179.7</v>
       </c>
       <c r="F20" t="n">
-        <v>25</v>
+        <v>5000</v>
       </c>
       <c r="G20" t="n">
-        <v>-58214.37276715002</v>
+        <v>-46643.33776715</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>180.2</v>
+        <v>181.7</v>
       </c>
       <c r="C21" t="n">
-        <v>180.1</v>
+        <v>181.8</v>
       </c>
       <c r="D21" t="n">
-        <v>180.2</v>
+        <v>181.8</v>
       </c>
       <c r="E21" t="n">
-        <v>180.1</v>
+        <v>181.7</v>
       </c>
       <c r="F21" t="n">
-        <v>6960</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>-65174.37276715002</v>
+        <v>-46637.33776715</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>180.2</v>
+        <v>181.9</v>
       </c>
       <c r="C22" t="n">
-        <v>180.2</v>
+        <v>182.7</v>
       </c>
       <c r="D22" t="n">
-        <v>180.2</v>
+        <v>182.7</v>
       </c>
       <c r="E22" t="n">
-        <v>180.2</v>
+        <v>181.9</v>
       </c>
       <c r="F22" t="n">
-        <v>1102.999</v>
+        <v>1392</v>
       </c>
       <c r="G22" t="n">
-        <v>-64071.37376715001</v>
+        <v>-45245.33776715</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>180.3</v>
+        <v>182.5</v>
       </c>
       <c r="C23" t="n">
-        <v>180.3</v>
+        <v>181.9</v>
       </c>
       <c r="D23" t="n">
-        <v>180.3</v>
+        <v>182.5</v>
       </c>
       <c r="E23" t="n">
-        <v>180.3</v>
+        <v>179.5</v>
       </c>
       <c r="F23" t="n">
-        <v>1665.6288</v>
+        <v>9503</v>
       </c>
       <c r="G23" t="n">
-        <v>-62405.74496715001</v>
+        <v>-54748.33776715</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>180.9</v>
+        <v>181</v>
       </c>
       <c r="C24" t="n">
-        <v>180.9</v>
+        <v>179.5</v>
       </c>
       <c r="D24" t="n">
-        <v>180.9</v>
+        <v>181.9</v>
       </c>
       <c r="E24" t="n">
-        <v>180.9</v>
+        <v>179.5</v>
       </c>
       <c r="F24" t="n">
-        <v>1782.0417</v>
+        <v>5477.79</v>
       </c>
       <c r="G24" t="n">
-        <v>-60623.70326715001</v>
+        <v>-60226.12776715</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>181.9</v>
+        <v>181.4</v>
       </c>
       <c r="C25" t="n">
-        <v>181.9</v>
+        <v>180.8</v>
       </c>
       <c r="D25" t="n">
-        <v>181.9</v>
+        <v>181.4</v>
       </c>
       <c r="E25" t="n">
-        <v>181.9</v>
+        <v>180</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>159.1745</v>
       </c>
       <c r="G25" t="n">
-        <v>-60620.70326715001</v>
+        <v>-60066.95326715</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>180.4</v>
+        <v>179.5</v>
       </c>
       <c r="C26" t="n">
-        <v>181.9</v>
+        <v>179.8</v>
       </c>
       <c r="D26" t="n">
-        <v>181.9</v>
+        <v>179.8</v>
       </c>
       <c r="E26" t="n">
-        <v>180.4</v>
+        <v>176.6</v>
       </c>
       <c r="F26" t="n">
-        <v>807.441</v>
+        <v>39275.72</v>
       </c>
       <c r="G26" t="n">
-        <v>-60620.70326715001</v>
+        <v>-99342.67326715001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>181.9</v>
+        <v>179.9</v>
       </c>
       <c r="C27" t="n">
-        <v>181.9</v>
+        <v>179.9</v>
       </c>
       <c r="D27" t="n">
-        <v>181.9</v>
+        <v>179.9</v>
       </c>
       <c r="E27" t="n">
-        <v>181.9</v>
+        <v>179.9</v>
       </c>
       <c r="F27" t="n">
-        <v>1000</v>
+        <v>502</v>
       </c>
       <c r="G27" t="n">
-        <v>-60620.70326715001</v>
+        <v>-98840.67326715001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>181.9</v>
+        <v>179.8</v>
       </c>
       <c r="C28" t="n">
-        <v>181.9</v>
+        <v>179.9</v>
       </c>
       <c r="D28" t="n">
-        <v>181.9</v>
+        <v>179.9</v>
       </c>
       <c r="E28" t="n">
-        <v>181.9</v>
+        <v>179.8</v>
       </c>
       <c r="F28" t="n">
-        <v>500</v>
+        <v>1440</v>
       </c>
       <c r="G28" t="n">
-        <v>-60620.70326715001</v>
+        <v>-98840.67326715001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>181.8</v>
+        <v>179.8</v>
       </c>
       <c r="C29" t="n">
-        <v>180.1</v>
+        <v>179.8</v>
       </c>
       <c r="D29" t="n">
-        <v>181.8</v>
+        <v>179.8</v>
       </c>
       <c r="E29" t="n">
-        <v>180.1</v>
+        <v>179.8</v>
       </c>
       <c r="F29" t="n">
-        <v>4843.4293</v>
+        <v>1387.8593</v>
       </c>
       <c r="G29" t="n">
-        <v>-65464.13256715001</v>
+        <v>-100228.53256715</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>181.8</v>
+        <v>179.9</v>
       </c>
       <c r="C30" t="n">
-        <v>181.8</v>
+        <v>179.9</v>
       </c>
       <c r="D30" t="n">
-        <v>181.8</v>
+        <v>179.9</v>
       </c>
       <c r="E30" t="n">
-        <v>181.8</v>
+        <v>179.9</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>1500</v>
       </c>
       <c r="G30" t="n">
-        <v>-65461.13256715001</v>
+        <v>-98728.53256715</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>180.5</v>
+        <v>179.8</v>
       </c>
       <c r="C31" t="n">
-        <v>180.5</v>
+        <v>179.8</v>
       </c>
       <c r="D31" t="n">
-        <v>180.5</v>
+        <v>179.8</v>
       </c>
       <c r="E31" t="n">
-        <v>180.5</v>
+        <v>179.8</v>
       </c>
       <c r="F31" t="n">
-        <v>1100</v>
+        <v>129.1074</v>
       </c>
       <c r="G31" t="n">
-        <v>-66561.13256715001</v>
+        <v>-98857.63996715</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>180.2</v>
+        <v>179.9</v>
       </c>
       <c r="C32" t="n">
-        <v>180.1</v>
+        <v>179.9</v>
       </c>
       <c r="D32" t="n">
-        <v>180.2</v>
+        <v>179.9</v>
       </c>
       <c r="E32" t="n">
-        <v>180.1</v>
+        <v>179.9</v>
       </c>
       <c r="F32" t="n">
-        <v>9981.946400000001</v>
+        <v>640.192</v>
       </c>
       <c r="G32" t="n">
-        <v>-76543.07896715001</v>
+        <v>-98217.44796715</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>179.7</v>
+        <v>179.9</v>
       </c>
       <c r="C33" t="n">
-        <v>181.9</v>
+        <v>179.8</v>
       </c>
       <c r="D33" t="n">
-        <v>181.9</v>
+        <v>179.9</v>
       </c>
       <c r="E33" t="n">
-        <v>179.7</v>
+        <v>179.8</v>
       </c>
       <c r="F33" t="n">
-        <v>625.3082000000001</v>
+        <v>3695.513</v>
       </c>
       <c r="G33" t="n">
-        <v>-75917.77076715001</v>
+        <v>-101912.96096715</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>179.7</v>
+        <v>179.9</v>
       </c>
       <c r="C34" t="n">
-        <v>179.7</v>
+        <v>179.9</v>
       </c>
       <c r="D34" t="n">
-        <v>179.7</v>
+        <v>179.9</v>
       </c>
       <c r="E34" t="n">
-        <v>179.7</v>
+        <v>179.9</v>
       </c>
       <c r="F34" t="n">
-        <v>4928.0548</v>
+        <v>2900.114</v>
       </c>
       <c r="G34" t="n">
-        <v>-80845.82556715001</v>
+        <v>-99012.84696715001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>179.7</v>
+        <v>179.9</v>
       </c>
       <c r="C35" t="n">
-        <v>179.7</v>
+        <v>179.9</v>
       </c>
       <c r="D35" t="n">
-        <v>179.7</v>
+        <v>179.9</v>
       </c>
       <c r="E35" t="n">
-        <v>179.7</v>
+        <v>179.9</v>
       </c>
       <c r="F35" t="n">
-        <v>1260</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>-80845.82556715001</v>
+        <v>-99012.84696715001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>179.7</v>
+        <v>179.8</v>
       </c>
       <c r="C36" t="n">
-        <v>179</v>
+        <v>179.8</v>
       </c>
       <c r="D36" t="n">
-        <v>179.7</v>
+        <v>179.8</v>
       </c>
       <c r="E36" t="n">
-        <v>179</v>
+        <v>179.8</v>
       </c>
       <c r="F36" t="n">
-        <v>26905.818</v>
+        <v>1875.562</v>
       </c>
       <c r="G36" t="n">
-        <v>-107751.64356715</v>
+        <v>-100888.40896715</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>179.6</v>
+        <v>178.2</v>
       </c>
       <c r="C37" t="n">
-        <v>179.7</v>
+        <v>178.2</v>
       </c>
       <c r="D37" t="n">
-        <v>179.7</v>
+        <v>178.2</v>
       </c>
       <c r="E37" t="n">
-        <v>179.6</v>
+        <v>178.2</v>
       </c>
       <c r="F37" t="n">
-        <v>9980</v>
+        <v>52</v>
       </c>
       <c r="G37" t="n">
-        <v>-97771.64356715001</v>
+        <v>-100940.40896715</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,31 +1734,35 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>179.1</v>
+        <v>179.9</v>
       </c>
       <c r="C38" t="n">
-        <v>179.1</v>
+        <v>179.9</v>
       </c>
       <c r="D38" t="n">
-        <v>179.1</v>
+        <v>179.9</v>
       </c>
       <c r="E38" t="n">
-        <v>179.1</v>
+        <v>179.9</v>
       </c>
       <c r="F38" t="n">
-        <v>600</v>
+        <v>1105.6952</v>
       </c>
       <c r="G38" t="n">
-        <v>-98371.64356715001</v>
+        <v>-99834.71376715001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>178.2</v>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
@@ -1770,22 +1774,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>179</v>
+        <v>179.9</v>
       </c>
       <c r="C39" t="n">
-        <v>179</v>
+        <v>180.9</v>
       </c>
       <c r="D39" t="n">
-        <v>179</v>
+        <v>180.9</v>
       </c>
       <c r="E39" t="n">
-        <v>179</v>
+        <v>179.9</v>
       </c>
       <c r="F39" t="n">
-        <v>300</v>
+        <v>37141.9634</v>
       </c>
       <c r="G39" t="n">
-        <v>-98671.64356715001</v>
+        <v>-62692.75036715001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +1798,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +1816,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>179.6</v>
+        <v>181.9</v>
       </c>
       <c r="C40" t="n">
-        <v>181.4</v>
+        <v>181.9</v>
       </c>
       <c r="D40" t="n">
-        <v>181.4</v>
+        <v>181.9</v>
       </c>
       <c r="E40" t="n">
-        <v>179.6</v>
+        <v>181.9</v>
       </c>
       <c r="F40" t="n">
-        <v>5102.57775391</v>
+        <v>5483.8165</v>
       </c>
       <c r="G40" t="n">
-        <v>-93569.06581324001</v>
+        <v>-57208.93386715001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +1840,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +1858,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>179.1</v>
+        <v>181.8</v>
       </c>
       <c r="C41" t="n">
-        <v>178.5</v>
+        <v>181.8</v>
       </c>
       <c r="D41" t="n">
-        <v>179.1</v>
+        <v>181.8</v>
       </c>
       <c r="E41" t="n">
-        <v>178.5</v>
+        <v>181.8</v>
       </c>
       <c r="F41" t="n">
-        <v>945.77</v>
+        <v>9999.999599999999</v>
       </c>
       <c r="G41" t="n">
-        <v>-94514.83581324002</v>
+        <v>-67208.93346715001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1894,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>179</v>
+        <v>181.9</v>
       </c>
       <c r="C42" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D42" t="n">
-        <v>179</v>
+        <v>183.9</v>
       </c>
       <c r="E42" t="n">
-        <v>179</v>
+        <v>181.9</v>
       </c>
       <c r="F42" t="n">
-        <v>105.3233</v>
+        <v>14388.0929</v>
       </c>
       <c r="G42" t="n">
-        <v>-94409.51251324001</v>
+        <v>-52820.84056715001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1930,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>180.9</v>
+        <v>182</v>
       </c>
       <c r="C43" t="n">
-        <v>180.9</v>
+        <v>182</v>
       </c>
       <c r="D43" t="n">
-        <v>180.9</v>
+        <v>182</v>
       </c>
       <c r="E43" t="n">
-        <v>180.9</v>
+        <v>182</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>21842.1722</v>
       </c>
       <c r="G43" t="n">
-        <v>-94406.51251324001</v>
+        <v>-52820.84056715001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1966,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>179</v>
+        <v>181.8</v>
       </c>
       <c r="C44" t="n">
-        <v>179</v>
+        <v>181.8</v>
       </c>
       <c r="D44" t="n">
-        <v>179</v>
+        <v>181.8</v>
       </c>
       <c r="E44" t="n">
-        <v>179</v>
+        <v>181.8</v>
       </c>
       <c r="F44" t="n">
-        <v>81.0615</v>
+        <v>2880</v>
       </c>
       <c r="G44" t="n">
-        <v>-94487.57401324001</v>
+        <v>-55700.84056715001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +2002,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>179</v>
+        <v>181.8</v>
       </c>
       <c r="C45" t="n">
-        <v>179</v>
+        <v>181.8</v>
       </c>
       <c r="D45" t="n">
-        <v>179</v>
+        <v>181.8</v>
       </c>
       <c r="E45" t="n">
-        <v>179</v>
+        <v>181.8</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>250</v>
       </c>
       <c r="G45" t="n">
-        <v>-94487.57401324001</v>
+        <v>-55700.84056715001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2038,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>178.5</v>
+        <v>181.8</v>
       </c>
       <c r="C46" t="n">
-        <v>178.5</v>
+        <v>181.8</v>
       </c>
       <c r="D46" t="n">
-        <v>178.5</v>
+        <v>181.8</v>
       </c>
       <c r="E46" t="n">
-        <v>178.5</v>
+        <v>181.8</v>
       </c>
       <c r="F46" t="n">
-        <v>19.99</v>
+        <v>14974.7912</v>
       </c>
       <c r="G46" t="n">
-        <v>-94507.56401324001</v>
+        <v>-55700.84056715001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2074,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>179</v>
+        <v>181.8</v>
       </c>
       <c r="C47" t="n">
-        <v>179</v>
+        <v>181.8</v>
       </c>
       <c r="D47" t="n">
-        <v>179</v>
+        <v>181.8</v>
       </c>
       <c r="E47" t="n">
-        <v>179</v>
+        <v>181.8</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>71.47</v>
       </c>
       <c r="G47" t="n">
-        <v>-94504.56401324001</v>
+        <v>-55700.84056715001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,7 +2110,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>179</v>
+        <v>181.8</v>
       </c>
       <c r="C48" t="n">
         <v>181.8</v>
@@ -2103,13 +2119,13 @@
         <v>181.8</v>
       </c>
       <c r="E48" t="n">
-        <v>179</v>
+        <v>181.8</v>
       </c>
       <c r="F48" t="n">
-        <v>40</v>
+        <v>1550.9141</v>
       </c>
       <c r="G48" t="n">
-        <v>-94464.56401324001</v>
+        <v>-55700.84056715001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2146,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>180.8</v>
+        <v>181.8</v>
       </c>
       <c r="C49" t="n">
-        <v>180.8</v>
+        <v>181.8</v>
       </c>
       <c r="D49" t="n">
-        <v>180.8</v>
+        <v>181.8</v>
       </c>
       <c r="E49" t="n">
-        <v>180.8</v>
+        <v>181.8</v>
       </c>
       <c r="F49" t="n">
-        <v>85.687</v>
+        <v>2016.1884</v>
       </c>
       <c r="G49" t="n">
-        <v>-94550.25101324002</v>
+        <v>-55700.84056715001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2182,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>181.5</v>
+        <v>181.6</v>
       </c>
       <c r="C50" t="n">
-        <v>181.5</v>
+        <v>181.6</v>
       </c>
       <c r="D50" t="n">
-        <v>181.5</v>
+        <v>181.6</v>
       </c>
       <c r="E50" t="n">
-        <v>181.5</v>
+        <v>181.6</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>384.3575</v>
       </c>
       <c r="G50" t="n">
-        <v>-94547.25101324002</v>
+        <v>-56085.19806715001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,28 +2218,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>178.5</v>
+        <v>181.6</v>
       </c>
       <c r="C51" t="n">
-        <v>178.5</v>
+        <v>180.5</v>
       </c>
       <c r="D51" t="n">
-        <v>178.5</v>
+        <v>181.6</v>
       </c>
       <c r="E51" t="n">
-        <v>178.5</v>
+        <v>180.5</v>
       </c>
       <c r="F51" t="n">
-        <v>7659.6812</v>
+        <v>2660</v>
       </c>
       <c r="G51" t="n">
-        <v>-102206.93221324</v>
+        <v>-58745.19806715001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2238,28 +2254,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>180.9</v>
+        <v>180.5</v>
       </c>
       <c r="C52" t="n">
-        <v>180.9</v>
+        <v>180.5</v>
       </c>
       <c r="D52" t="n">
-        <v>180.9</v>
+        <v>180.5</v>
       </c>
       <c r="E52" t="n">
-        <v>180.9</v>
+        <v>180.5</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>180.16</v>
       </c>
       <c r="G52" t="n">
-        <v>-102203.93221324</v>
+        <v>-58745.19806715001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2274,22 +2290,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>178.4</v>
+        <v>181.8</v>
       </c>
       <c r="C53" t="n">
-        <v>178.4</v>
+        <v>181.8</v>
       </c>
       <c r="D53" t="n">
-        <v>178.4</v>
+        <v>181.8</v>
       </c>
       <c r="E53" t="n">
-        <v>178.4</v>
+        <v>181.8</v>
       </c>
       <c r="F53" t="n">
-        <v>112.1158</v>
+        <v>7000</v>
       </c>
       <c r="G53" t="n">
-        <v>-102316.04801324</v>
+        <v>-51745.19806715001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,28 +2326,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>179</v>
+        <v>181.8</v>
       </c>
       <c r="C54" t="n">
-        <v>178.4</v>
+        <v>181.8</v>
       </c>
       <c r="D54" t="n">
-        <v>179</v>
+        <v>181.8</v>
       </c>
       <c r="E54" t="n">
-        <v>178.4</v>
+        <v>181.8</v>
       </c>
       <c r="F54" t="n">
-        <v>173.2167</v>
+        <v>857</v>
       </c>
       <c r="G54" t="n">
-        <v>-102316.04801324</v>
+        <v>-51745.19806715001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,28 +2362,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>178.4</v>
+        <v>181.9</v>
       </c>
       <c r="C55" t="n">
-        <v>178.4</v>
+        <v>181.9</v>
       </c>
       <c r="D55" t="n">
-        <v>178.4</v>
+        <v>181.9</v>
       </c>
       <c r="E55" t="n">
-        <v>178.4</v>
+        <v>181.9</v>
       </c>
       <c r="F55" t="n">
-        <v>342.5603</v>
+        <v>2701.3973</v>
       </c>
       <c r="G55" t="n">
-        <v>-102316.04801324</v>
+        <v>-49043.80076715001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2382,22 +2398,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>178.2</v>
+        <v>181.9</v>
       </c>
       <c r="C56" t="n">
-        <v>178</v>
+        <v>181.9</v>
       </c>
       <c r="D56" t="n">
-        <v>178.2</v>
+        <v>181.9</v>
       </c>
       <c r="E56" t="n">
-        <v>178</v>
+        <v>181.9</v>
       </c>
       <c r="F56" t="n">
-        <v>17325.6951</v>
+        <v>85</v>
       </c>
       <c r="G56" t="n">
-        <v>-119641.74311324</v>
+        <v>-49043.80076715001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2434,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>178</v>
+        <v>181.9</v>
       </c>
       <c r="C57" t="n">
-        <v>178</v>
+        <v>181.9</v>
       </c>
       <c r="D57" t="n">
-        <v>178</v>
+        <v>181.9</v>
       </c>
       <c r="E57" t="n">
-        <v>178</v>
+        <v>181.9</v>
       </c>
       <c r="F57" t="n">
-        <v>238.071</v>
+        <v>212.68</v>
       </c>
       <c r="G57" t="n">
-        <v>-119641.74311324</v>
+        <v>-49043.80076715001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,28 +2470,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>178</v>
+        <v>181.9</v>
       </c>
       <c r="C58" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D58" t="n">
-        <v>178</v>
+        <v>181.9</v>
       </c>
       <c r="E58" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F58" t="n">
-        <v>750.225</v>
+        <v>4</v>
       </c>
       <c r="G58" t="n">
-        <v>-119641.74311324</v>
+        <v>-49047.80076715001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2490,28 +2506,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>178</v>
+        <v>180.9</v>
       </c>
       <c r="C59" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D59" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E59" t="n">
-        <v>178</v>
+        <v>180.9</v>
       </c>
       <c r="F59" t="n">
-        <v>4505.245</v>
+        <v>7300</v>
       </c>
       <c r="G59" t="n">
-        <v>-119641.74311324</v>
+        <v>-41747.80076715001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2526,28 +2542,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C60" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D60" t="n">
-        <v>178</v>
+        <v>183.1</v>
       </c>
       <c r="E60" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F60" t="n">
-        <v>585.354</v>
+        <v>12170.3875</v>
       </c>
       <c r="G60" t="n">
-        <v>-119641.74311324</v>
+        <v>-53918.18826715001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2562,28 +2578,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C61" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D61" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E61" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F61" t="n">
-        <v>2062.492</v>
+        <v>6780.6177</v>
       </c>
       <c r="G61" t="n">
-        <v>-119641.74311324</v>
+        <v>-53918.18826715001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2598,22 +2614,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C62" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D62" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E62" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F62" t="n">
-        <v>641.7037</v>
+        <v>10830.067</v>
       </c>
       <c r="G62" t="n">
-        <v>-119641.74311324</v>
+        <v>-43088.12126715001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,28 +2650,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C63" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D63" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E63" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F63" t="n">
-        <v>4954.486</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
-        <v>-119641.74311324</v>
+        <v>-43091.12126715001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2670,22 +2686,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C64" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D64" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E64" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F64" t="n">
-        <v>16943.3766</v>
+        <v>64.6443</v>
       </c>
       <c r="G64" t="n">
-        <v>-119641.74311324</v>
+        <v>-43091.12126715001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2722,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>178</v>
+        <v>182.7</v>
       </c>
       <c r="C65" t="n">
-        <v>178</v>
+        <v>180.6</v>
       </c>
       <c r="D65" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E65" t="n">
-        <v>178</v>
+        <v>180.6</v>
       </c>
       <c r="F65" t="n">
-        <v>3816.1376</v>
+        <v>12298.8228</v>
       </c>
       <c r="G65" t="n">
-        <v>-119641.74311324</v>
+        <v>-55389.94406715001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,28 +2758,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C66" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D66" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E66" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F66" t="n">
-        <v>1227.4324</v>
+        <v>26.96</v>
       </c>
       <c r="G66" t="n">
-        <v>-119641.74311324</v>
+        <v>-55362.98406715001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2778,22 +2794,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>178</v>
+        <v>183.9</v>
       </c>
       <c r="C67" t="n">
-        <v>178</v>
+        <v>183.9</v>
       </c>
       <c r="D67" t="n">
-        <v>178</v>
+        <v>183.9</v>
       </c>
       <c r="E67" t="n">
-        <v>178</v>
+        <v>183.9</v>
       </c>
       <c r="F67" t="n">
-        <v>12.5774</v>
+        <v>3</v>
       </c>
       <c r="G67" t="n">
-        <v>-119641.74311324</v>
+        <v>-55359.98406715001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,28 +2830,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>178</v>
+        <v>183.8</v>
       </c>
       <c r="C68" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D68" t="n">
-        <v>179</v>
+        <v>183.8</v>
       </c>
       <c r="E68" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F68" t="n">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="G68" t="n">
-        <v>-119341.74311324</v>
+        <v>-55484.98406715001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2850,28 +2866,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>178</v>
+        <v>180.9</v>
       </c>
       <c r="C69" t="n">
-        <v>178</v>
+        <v>180.8</v>
       </c>
       <c r="D69" t="n">
-        <v>178</v>
+        <v>180.9</v>
       </c>
       <c r="E69" t="n">
-        <v>178</v>
+        <v>180.8</v>
       </c>
       <c r="F69" t="n">
-        <v>40.1265</v>
+        <v>1500</v>
       </c>
       <c r="G69" t="n">
-        <v>-119381.86961324</v>
+        <v>-56984.98406715001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2886,22 +2902,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>178</v>
+        <v>180.9</v>
       </c>
       <c r="C70" t="n">
-        <v>178</v>
+        <v>180.8</v>
       </c>
       <c r="D70" t="n">
-        <v>178</v>
+        <v>180.9</v>
       </c>
       <c r="E70" t="n">
-        <v>178</v>
+        <v>180.8</v>
       </c>
       <c r="F70" t="n">
-        <v>40.1265</v>
+        <v>757.5542</v>
       </c>
       <c r="G70" t="n">
-        <v>-119381.86961324</v>
+        <v>-56984.98406715001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2938,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>178</v>
+        <v>180.8</v>
       </c>
       <c r="C71" t="n">
-        <v>177.3</v>
+        <v>180.8</v>
       </c>
       <c r="D71" t="n">
-        <v>178</v>
+        <v>180.8</v>
       </c>
       <c r="E71" t="n">
-        <v>177.3</v>
+        <v>180.8</v>
       </c>
       <c r="F71" t="n">
-        <v>31456.1391</v>
+        <v>1210</v>
       </c>
       <c r="G71" t="n">
-        <v>-150838.00871324</v>
+        <v>-56984.98406715001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2974,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>180.7</v>
+        <v>181.9</v>
       </c>
       <c r="C72" t="n">
         <v>180.7</v>
       </c>
       <c r="D72" t="n">
-        <v>180.7</v>
+        <v>181.9</v>
       </c>
       <c r="E72" t="n">
         <v>180.7</v>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>4138.2294</v>
       </c>
       <c r="G72" t="n">
-        <v>-150835.00871324</v>
+        <v>-61123.21346715001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +3010,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>177.4</v>
+        <v>180.8</v>
       </c>
       <c r="C73" t="n">
-        <v>177.4</v>
+        <v>180.8</v>
       </c>
       <c r="D73" t="n">
-        <v>177.4</v>
+        <v>180.8</v>
       </c>
       <c r="E73" t="n">
-        <v>177.4</v>
+        <v>180.8</v>
       </c>
       <c r="F73" t="n">
-        <v>14.0848</v>
+        <v>694.6034</v>
       </c>
       <c r="G73" t="n">
-        <v>-150849.09351324</v>
+        <v>-60428.61006715001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3046,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>179.6</v>
+        <v>181</v>
       </c>
       <c r="C74" t="n">
-        <v>179.6</v>
+        <v>180.8</v>
       </c>
       <c r="D74" t="n">
-        <v>179.6</v>
+        <v>181</v>
       </c>
       <c r="E74" t="n">
-        <v>179.6</v>
+        <v>180.8</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>791.28</v>
       </c>
       <c r="G74" t="n">
-        <v>-150846.09351324</v>
+        <v>-60428.61006715001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3082,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>178.1</v>
+        <v>180.9</v>
       </c>
       <c r="C75" t="n">
-        <v>176.7</v>
+        <v>180.9</v>
       </c>
       <c r="D75" t="n">
-        <v>178.1</v>
+        <v>180.9</v>
       </c>
       <c r="E75" t="n">
-        <v>176.7</v>
+        <v>180.9</v>
       </c>
       <c r="F75" t="n">
-        <v>40075.5463</v>
+        <v>183.6</v>
       </c>
       <c r="G75" t="n">
-        <v>-190921.63981324</v>
+        <v>-60245.01006715001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3118,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>178.5</v>
+        <v>181</v>
       </c>
       <c r="C76" t="n">
-        <v>178.5</v>
+        <v>181</v>
       </c>
       <c r="D76" t="n">
-        <v>178.5</v>
+        <v>181</v>
       </c>
       <c r="E76" t="n">
-        <v>178.5</v>
+        <v>181</v>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>247</v>
       </c>
       <c r="G76" t="n">
-        <v>-190918.63981324</v>
+        <v>-59998.01006715001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3154,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>177.1</v>
+        <v>181</v>
       </c>
       <c r="C77" t="n">
-        <v>178.4</v>
+        <v>180.9</v>
       </c>
       <c r="D77" t="n">
-        <v>178.4</v>
+        <v>181</v>
       </c>
       <c r="E77" t="n">
-        <v>177.1</v>
+        <v>180.9</v>
       </c>
       <c r="F77" t="n">
-        <v>5904.5144</v>
+        <v>1952.701</v>
       </c>
       <c r="G77" t="n">
-        <v>-196823.15421324</v>
+        <v>-61950.71106715001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,28 +3190,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>178.5</v>
+        <v>180.9</v>
       </c>
       <c r="C78" t="n">
-        <v>178.5</v>
+        <v>180.9</v>
       </c>
       <c r="D78" t="n">
-        <v>178.5</v>
+        <v>180.9</v>
       </c>
       <c r="E78" t="n">
-        <v>178.4</v>
+        <v>180.9</v>
       </c>
       <c r="F78" t="n">
-        <v>707.9777</v>
+        <v>2353.1387</v>
       </c>
       <c r="G78" t="n">
-        <v>-196115.17651324</v>
+        <v>-61950.71106715001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3210,22 +3226,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>178.5</v>
+        <v>180.8</v>
       </c>
       <c r="C79" t="n">
-        <v>178.5</v>
+        <v>180.8</v>
       </c>
       <c r="D79" t="n">
-        <v>178.5</v>
+        <v>180.8</v>
       </c>
       <c r="E79" t="n">
-        <v>178.5</v>
+        <v>180.8</v>
       </c>
       <c r="F79" t="n">
-        <v>1120.44817927</v>
+        <v>3110.178</v>
       </c>
       <c r="G79" t="n">
-        <v>-196115.17651324</v>
+        <v>-65060.88906715001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,28 +3262,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>178</v>
+        <v>180.7</v>
       </c>
       <c r="C80" t="n">
-        <v>178</v>
+        <v>180.7</v>
       </c>
       <c r="D80" t="n">
-        <v>178</v>
+        <v>180.7</v>
       </c>
       <c r="E80" t="n">
-        <v>178</v>
+        <v>180.7</v>
       </c>
       <c r="F80" t="n">
-        <v>147.8246</v>
+        <v>2632</v>
       </c>
       <c r="G80" t="n">
-        <v>-196263.00111324</v>
+        <v>-67692.88906715001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3282,28 +3298,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>177.9</v>
+        <v>180.7</v>
       </c>
       <c r="C81" t="n">
-        <v>177</v>
+        <v>180.7</v>
       </c>
       <c r="D81" t="n">
-        <v>178</v>
+        <v>180.7</v>
       </c>
       <c r="E81" t="n">
-        <v>177</v>
+        <v>180.7</v>
       </c>
       <c r="F81" t="n">
-        <v>10003</v>
+        <v>306</v>
       </c>
       <c r="G81" t="n">
-        <v>-206266.00111324</v>
+        <v>-67692.88906715001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3318,28 +3334,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>177</v>
+        <v>180.7</v>
       </c>
       <c r="C82" t="n">
-        <v>177</v>
+        <v>180.6</v>
       </c>
       <c r="D82" t="n">
-        <v>177</v>
+        <v>180.7</v>
       </c>
       <c r="E82" t="n">
-        <v>177</v>
+        <v>180.6</v>
       </c>
       <c r="F82" t="n">
-        <v>45</v>
+        <v>1706.6756</v>
       </c>
       <c r="G82" t="n">
-        <v>-206266.00111324</v>
+        <v>-69399.56466715001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3354,22 +3370,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>177.8</v>
+        <v>180.6</v>
       </c>
       <c r="C83" t="n">
-        <v>177.8</v>
+        <v>180.6</v>
       </c>
       <c r="D83" t="n">
-        <v>177.8</v>
+        <v>180.6</v>
       </c>
       <c r="E83" t="n">
-        <v>177.8</v>
+        <v>180.6</v>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>9240</v>
       </c>
       <c r="G83" t="n">
-        <v>-206263.00111324</v>
+        <v>-69399.56466715001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3406,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>176.7</v>
+        <v>180.6</v>
       </c>
       <c r="C84" t="n">
-        <v>176.6</v>
+        <v>180.6</v>
       </c>
       <c r="D84" t="n">
-        <v>176.7</v>
+        <v>180.6</v>
       </c>
       <c r="E84" t="n">
-        <v>176.6</v>
+        <v>180.6</v>
       </c>
       <c r="F84" t="n">
-        <v>3400</v>
+        <v>4660</v>
       </c>
       <c r="G84" t="n">
-        <v>-209663.00111324</v>
+        <v>-69399.56466715001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3442,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>176.6</v>
+        <v>180.6</v>
       </c>
       <c r="C85" t="n">
-        <v>176.6</v>
+        <v>180.6</v>
       </c>
       <c r="D85" t="n">
-        <v>176.6</v>
+        <v>180.6</v>
       </c>
       <c r="E85" t="n">
-        <v>176.6</v>
+        <v>180.6</v>
       </c>
       <c r="F85" t="n">
-        <v>1040.0279</v>
+        <v>253.575</v>
       </c>
       <c r="G85" t="n">
-        <v>-209663.00111324</v>
+        <v>-69399.56466715001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3478,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>177.8</v>
+        <v>180.7</v>
       </c>
       <c r="C86" t="n">
-        <v>177.8</v>
+        <v>180.7</v>
       </c>
       <c r="D86" t="n">
-        <v>177.8</v>
+        <v>180.7</v>
       </c>
       <c r="E86" t="n">
-        <v>177.8</v>
+        <v>180.7</v>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>4994.4879</v>
       </c>
       <c r="G86" t="n">
-        <v>-209660.00111324</v>
+        <v>-64405.07676715001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3514,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>176.6</v>
+        <v>180.6</v>
       </c>
       <c r="C87" t="n">
-        <v>176.6</v>
+        <v>180.6</v>
       </c>
       <c r="D87" t="n">
-        <v>176.6</v>
+        <v>180.6</v>
       </c>
       <c r="E87" t="n">
-        <v>176.6</v>
+        <v>180.6</v>
       </c>
       <c r="F87" t="n">
-        <v>1500</v>
+        <v>438.117</v>
       </c>
       <c r="G87" t="n">
-        <v>-211160.00111324</v>
+        <v>-64843.19376715001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3550,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>176.6</v>
+        <v>180.7</v>
       </c>
       <c r="C88" t="n">
-        <v>176.6</v>
+        <v>180.7</v>
       </c>
       <c r="D88" t="n">
-        <v>176.6</v>
+        <v>180.7</v>
       </c>
       <c r="E88" t="n">
-        <v>176</v>
+        <v>180.7</v>
       </c>
       <c r="F88" t="n">
-        <v>1783.9999</v>
+        <v>3240</v>
       </c>
       <c r="G88" t="n">
-        <v>-211160.00111324</v>
+        <v>-61603.19376715001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3586,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>176</v>
+        <v>180.7</v>
       </c>
       <c r="C89" t="n">
-        <v>176</v>
+        <v>180.9</v>
       </c>
       <c r="D89" t="n">
-        <v>176</v>
+        <v>180.9</v>
       </c>
       <c r="E89" t="n">
-        <v>176</v>
+        <v>180.7</v>
       </c>
       <c r="F89" t="n">
-        <v>371.9937</v>
+        <v>3551.435</v>
       </c>
       <c r="G89" t="n">
-        <v>-211531.99481324</v>
+        <v>-58051.75876715002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,28 +3622,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>176.6</v>
+        <v>180.6</v>
       </c>
       <c r="C90" t="n">
-        <v>176.6</v>
+        <v>180.2</v>
       </c>
       <c r="D90" t="n">
-        <v>176.6</v>
+        <v>180.6</v>
       </c>
       <c r="E90" t="n">
-        <v>176.6</v>
+        <v>180.2</v>
       </c>
       <c r="F90" t="n">
-        <v>3</v>
+        <v>187.614</v>
       </c>
       <c r="G90" t="n">
-        <v>-211528.99481324</v>
+        <v>-58239.37276715002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3642,28 +3658,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>176.6</v>
+        <v>180.3</v>
       </c>
       <c r="C91" t="n">
-        <v>176.6</v>
+        <v>180.3</v>
       </c>
       <c r="D91" t="n">
-        <v>176.6</v>
+        <v>180.3</v>
       </c>
       <c r="E91" t="n">
-        <v>176.6</v>
+        <v>180.3</v>
       </c>
       <c r="F91" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G91" t="n">
-        <v>-211528.99481324</v>
+        <v>-58214.37276715002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3678,28 +3694,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>176</v>
+        <v>180.2</v>
       </c>
       <c r="C92" t="n">
-        <v>176</v>
+        <v>180.1</v>
       </c>
       <c r="D92" t="n">
-        <v>176</v>
+        <v>180.2</v>
       </c>
       <c r="E92" t="n">
-        <v>176</v>
+        <v>180.1</v>
       </c>
       <c r="F92" t="n">
-        <v>586.538</v>
+        <v>6960</v>
       </c>
       <c r="G92" t="n">
-        <v>-212115.53281324</v>
+        <v>-65174.37276715002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3714,688 +3730,3276 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>176.1</v>
+        <v>180.2</v>
       </c>
       <c r="C93" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="E93" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1102.999</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-64071.37376715001</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="C94" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="D94" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="E94" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1665.6288</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-62405.74496715001</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>180.9</v>
+      </c>
+      <c r="C95" t="n">
+        <v>180.9</v>
+      </c>
+      <c r="D95" t="n">
+        <v>180.9</v>
+      </c>
+      <c r="E95" t="n">
+        <v>180.9</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1782.0417</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-60623.70326715001</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="C96" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="D96" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="E96" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-60620.70326715001</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="C97" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="D97" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="E97" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="F97" t="n">
+        <v>807.441</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-60620.70326715001</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="C98" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="D98" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="E98" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-60620.70326715001</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="C99" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="D99" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="E99" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="F99" t="n">
+        <v>500</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-60620.70326715001</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="C100" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E100" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>4843.4293</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-65464.13256715001</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="C101" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="D101" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-65461.13256715001</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="C102" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="D102" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-66561.13256715001</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="E103" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>9981.946400000001</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-76543.07896715001</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="C104" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="E104" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="F104" t="n">
+        <v>625.3082000000001</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-75917.77076715001</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="C105" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="D105" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="E105" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="F105" t="n">
+        <v>4928.0548</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-80845.82556715001</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="C106" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="D106" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="E106" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1260</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-80845.82556715001</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="C107" t="n">
+        <v>179</v>
+      </c>
+      <c r="D107" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="E107" t="n">
+        <v>179</v>
+      </c>
+      <c r="F107" t="n">
+        <v>26905.818</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-107751.64356715</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="C108" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="D108" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="E108" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="F108" t="n">
+        <v>9980</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-97771.64356715001</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>600</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-98371.64356715001</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>179</v>
+      </c>
+      <c r="C110" t="n">
+        <v>179</v>
+      </c>
+      <c r="D110" t="n">
+        <v>179</v>
+      </c>
+      <c r="E110" t="n">
+        <v>179</v>
+      </c>
+      <c r="F110" t="n">
+        <v>300</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-98671.64356715001</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="C111" t="n">
+        <v>181.4</v>
+      </c>
+      <c r="D111" t="n">
+        <v>181.4</v>
+      </c>
+      <c r="E111" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="F111" t="n">
+        <v>5102.57775391</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-93569.06581324001</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="F112" t="n">
+        <v>945.77</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-94514.83581324002</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>179</v>
+      </c>
+      <c r="C113" t="n">
+        <v>179</v>
+      </c>
+      <c r="D113" t="n">
+        <v>179</v>
+      </c>
+      <c r="E113" t="n">
+        <v>179</v>
+      </c>
+      <c r="F113" t="n">
+        <v>105.3233</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-94409.51251324001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>180.9</v>
+      </c>
+      <c r="C114" t="n">
+        <v>180.9</v>
+      </c>
+      <c r="D114" t="n">
+        <v>180.9</v>
+      </c>
+      <c r="E114" t="n">
+        <v>180.9</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-94406.51251324001</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>179</v>
+      </c>
+      <c r="C115" t="n">
+        <v>179</v>
+      </c>
+      <c r="D115" t="n">
+        <v>179</v>
+      </c>
+      <c r="E115" t="n">
+        <v>179</v>
+      </c>
+      <c r="F115" t="n">
+        <v>81.0615</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-94487.57401324001</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>179</v>
+      </c>
+      <c r="C116" t="n">
+        <v>179</v>
+      </c>
+      <c r="D116" t="n">
+        <v>179</v>
+      </c>
+      <c r="E116" t="n">
+        <v>179</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-94487.57401324001</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="C117" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="D117" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="E117" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-94507.56401324001</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>179</v>
+      </c>
+      <c r="C118" t="n">
+        <v>179</v>
+      </c>
+      <c r="D118" t="n">
+        <v>179</v>
+      </c>
+      <c r="E118" t="n">
+        <v>179</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-94504.56401324001</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>179</v>
+      </c>
+      <c r="C119" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="D119" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E119" t="n">
+        <v>179</v>
+      </c>
+      <c r="F119" t="n">
+        <v>40</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-94464.56401324001</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>180.8</v>
+      </c>
+      <c r="C120" t="n">
+        <v>180.8</v>
+      </c>
+      <c r="D120" t="n">
+        <v>180.8</v>
+      </c>
+      <c r="E120" t="n">
+        <v>180.8</v>
+      </c>
+      <c r="F120" t="n">
+        <v>85.687</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-94550.25101324002</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-94547.25101324002</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>7659.6812</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-102206.93221324</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>180.9</v>
+      </c>
+      <c r="C123" t="n">
+        <v>180.9</v>
+      </c>
+      <c r="D123" t="n">
+        <v>180.9</v>
+      </c>
+      <c r="E123" t="n">
+        <v>180.9</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-102203.93221324</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="C124" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="D124" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="E124" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="F124" t="n">
+        <v>112.1158</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-102316.04801324</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>179</v>
+      </c>
+      <c r="C125" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>179</v>
+      </c>
+      <c r="E125" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>173.2167</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-102316.04801324</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="C126" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="D126" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>342.5603</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-102316.04801324</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>178</v>
+      </c>
+      <c r="D127" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>178</v>
+      </c>
+      <c r="F127" t="n">
+        <v>17325.6951</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>178</v>
+      </c>
+      <c r="C128" t="n">
+        <v>178</v>
+      </c>
+      <c r="D128" t="n">
+        <v>178</v>
+      </c>
+      <c r="E128" t="n">
+        <v>178</v>
+      </c>
+      <c r="F128" t="n">
+        <v>238.071</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>178</v>
+      </c>
+      <c r="C129" t="n">
+        <v>178</v>
+      </c>
+      <c r="D129" t="n">
+        <v>178</v>
+      </c>
+      <c r="E129" t="n">
+        <v>178</v>
+      </c>
+      <c r="F129" t="n">
+        <v>750.225</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>178</v>
+      </c>
+      <c r="C130" t="n">
+        <v>178</v>
+      </c>
+      <c r="D130" t="n">
+        <v>178</v>
+      </c>
+      <c r="E130" t="n">
+        <v>178</v>
+      </c>
+      <c r="F130" t="n">
+        <v>4505.245</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>178</v>
+      </c>
+      <c r="C131" t="n">
+        <v>178</v>
+      </c>
+      <c r="D131" t="n">
+        <v>178</v>
+      </c>
+      <c r="E131" t="n">
+        <v>178</v>
+      </c>
+      <c r="F131" t="n">
+        <v>585.354</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>178</v>
+      </c>
+      <c r="C132" t="n">
+        <v>178</v>
+      </c>
+      <c r="D132" t="n">
+        <v>178</v>
+      </c>
+      <c r="E132" t="n">
+        <v>178</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2062.492</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>178</v>
+      </c>
+      <c r="C133" t="n">
+        <v>178</v>
+      </c>
+      <c r="D133" t="n">
+        <v>178</v>
+      </c>
+      <c r="E133" t="n">
+        <v>178</v>
+      </c>
+      <c r="F133" t="n">
+        <v>641.7037</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>178</v>
+      </c>
+      <c r="C134" t="n">
+        <v>178</v>
+      </c>
+      <c r="D134" t="n">
+        <v>178</v>
+      </c>
+      <c r="E134" t="n">
+        <v>178</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4954.486</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>178</v>
+      </c>
+      <c r="C135" t="n">
+        <v>178</v>
+      </c>
+      <c r="D135" t="n">
+        <v>178</v>
+      </c>
+      <c r="E135" t="n">
+        <v>178</v>
+      </c>
+      <c r="F135" t="n">
+        <v>16943.3766</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>178</v>
+      </c>
+      <c r="C136" t="n">
+        <v>178</v>
+      </c>
+      <c r="D136" t="n">
+        <v>178</v>
+      </c>
+      <c r="E136" t="n">
+        <v>178</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3816.1376</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>178</v>
+      </c>
+      <c r="C137" t="n">
+        <v>178</v>
+      </c>
+      <c r="D137" t="n">
+        <v>178</v>
+      </c>
+      <c r="E137" t="n">
+        <v>178</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1227.4324</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>178</v>
+      </c>
+      <c r="C138" t="n">
+        <v>178</v>
+      </c>
+      <c r="D138" t="n">
+        <v>178</v>
+      </c>
+      <c r="E138" t="n">
+        <v>178</v>
+      </c>
+      <c r="F138" t="n">
+        <v>12.5774</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-119641.74311324</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>178</v>
+      </c>
+      <c r="C139" t="n">
+        <v>179</v>
+      </c>
+      <c r="D139" t="n">
+        <v>179</v>
+      </c>
+      <c r="E139" t="n">
+        <v>178</v>
+      </c>
+      <c r="F139" t="n">
+        <v>300</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-119341.74311324</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>178</v>
+      </c>
+      <c r="C140" t="n">
+        <v>178</v>
+      </c>
+      <c r="D140" t="n">
+        <v>178</v>
+      </c>
+      <c r="E140" t="n">
+        <v>178</v>
+      </c>
+      <c r="F140" t="n">
+        <v>40.1265</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-119381.86961324</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>178</v>
+      </c>
+      <c r="C141" t="n">
+        <v>178</v>
+      </c>
+      <c r="D141" t="n">
+        <v>178</v>
+      </c>
+      <c r="E141" t="n">
+        <v>178</v>
+      </c>
+      <c r="F141" t="n">
+        <v>40.1265</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-119381.86961324</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>178</v>
+      </c>
+      <c r="C142" t="n">
+        <v>177.3</v>
+      </c>
+      <c r="D142" t="n">
+        <v>178</v>
+      </c>
+      <c r="E142" t="n">
+        <v>177.3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>31456.1391</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-150838.00871324</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="C143" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="D143" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="E143" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-150835.00871324</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="C144" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="D144" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="E144" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>14.0848</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-150849.09351324</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="C145" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="D145" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="E145" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-150846.09351324</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="D146" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="F146" t="n">
+        <v>40075.5463</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-190921.63981324</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-190918.63981324</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>177.1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="D148" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="E148" t="n">
+        <v>177.1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5904.5144</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-196823.15421324</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="F149" t="n">
+        <v>707.9777</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-196115.17651324</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="D150" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1120.44817927</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-196115.17651324</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>178</v>
+      </c>
+      <c r="C151" t="n">
+        <v>178</v>
+      </c>
+      <c r="D151" t="n">
+        <v>178</v>
+      </c>
+      <c r="E151" t="n">
+        <v>178</v>
+      </c>
+      <c r="F151" t="n">
+        <v>147.8246</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-196263.00111324</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="C152" t="n">
+        <v>177</v>
+      </c>
+      <c r="D152" t="n">
+        <v>178</v>
+      </c>
+      <c r="E152" t="n">
+        <v>177</v>
+      </c>
+      <c r="F152" t="n">
+        <v>10003</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-206266.00111324</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>177</v>
+      </c>
+      <c r="C153" t="n">
+        <v>177</v>
+      </c>
+      <c r="D153" t="n">
+        <v>177</v>
+      </c>
+      <c r="E153" t="n">
+        <v>177</v>
+      </c>
+      <c r="F153" t="n">
+        <v>45</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-206266.00111324</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="C154" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="D154" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="E154" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-206263.00111324</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="C155" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D155" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="E155" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3400</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-209663.00111324</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C156" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E156" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1040.0279</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-209663.00111324</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="C157" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="D157" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="E157" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-209660.00111324</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C158" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D158" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E158" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-211160.00111324</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C159" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D159" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E159" t="n">
         <v>176</v>
       </c>
-      <c r="D93" t="n">
-        <v>176.1</v>
-      </c>
-      <c r="E93" t="n">
-        <v>176</v>
-      </c>
-      <c r="F93" t="n">
-        <v>176.009</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-212115.53281324</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>176</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
+      <c r="F159" t="n">
+        <v>1783.9999</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-211160.00111324</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>176</v>
+      </c>
+      <c r="C160" t="n">
+        <v>176</v>
+      </c>
+      <c r="D160" t="n">
+        <v>176</v>
+      </c>
+      <c r="E160" t="n">
+        <v>176</v>
+      </c>
+      <c r="F160" t="n">
+        <v>371.9937</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-211531.99481324</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
         <v>176.6</v>
       </c>
-      <c r="C94" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D94" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E94" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F94" t="n">
-        <v>3</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-212112.53281324</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>176</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
         <v>176.6</v>
       </c>
-      <c r="C95" t="n">
-        <v>178</v>
-      </c>
-      <c r="D95" t="n">
-        <v>178</v>
-      </c>
-      <c r="E95" t="n">
+      <c r="C161" t="n">
         <v>176.6</v>
       </c>
-      <c r="F95" t="n">
-        <v>79</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-212033.53281324</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
+      <c r="D161" t="n">
         <v>176.6</v>
       </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
+      <c r="E161" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-211528.99481324</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>176</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="C96" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="D96" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="E96" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="F96" t="n">
-        <v>5589.56086714</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-206443.9719461</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>178</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C162" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D162" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E162" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-211528.99481324</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>179.2</v>
-      </c>
-      <c r="C97" t="n">
-        <v>179.2</v>
-      </c>
-      <c r="D97" t="n">
-        <v>179.2</v>
-      </c>
-      <c r="E97" t="n">
-        <v>179.2</v>
-      </c>
-      <c r="F97" t="n">
-        <v>45.93</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-206489.9019461</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>176</v>
+      </c>
+      <c r="C163" t="n">
+        <v>176</v>
+      </c>
+      <c r="D163" t="n">
+        <v>176</v>
+      </c>
+      <c r="E163" t="n">
+        <v>176</v>
+      </c>
+      <c r="F163" t="n">
+        <v>586.538</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-212115.53281324</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>179.1</v>
-      </c>
-      <c r="C98" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="D98" t="n">
-        <v>179.1</v>
-      </c>
-      <c r="E98" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="F98" t="n">
-        <v>2011.9862</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-208501.8881461</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>176.1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>176</v>
+      </c>
+      <c r="D164" t="n">
+        <v>176.1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>176</v>
+      </c>
+      <c r="F164" t="n">
+        <v>176.009</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-212115.53281324</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>176</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="C99" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="D99" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="E99" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="F99" t="n">
-        <v>5589.5608</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-202912.3273461</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C165" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D165" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E165" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-212112.53281324</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>176</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>179</v>
-      </c>
-      <c r="C100" t="n">
-        <v>179</v>
-      </c>
-      <c r="D100" t="n">
-        <v>179</v>
-      </c>
-      <c r="E100" t="n">
-        <v>179</v>
-      </c>
-      <c r="F100" t="n">
-        <v>191.4401</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-202720.8872461</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C166" t="n">
+        <v>178</v>
+      </c>
+      <c r="D166" t="n">
+        <v>178</v>
+      </c>
+      <c r="E166" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F166" t="n">
+        <v>79</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-212033.53281324</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="C167" t="n">
         <v>179.9</v>
       </c>
-      <c r="C101" t="n">
+      <c r="D167" t="n">
         <v>179.9</v>
       </c>
-      <c r="D101" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="E101" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="F101" t="n">
-        <v>3</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-202717.8872461</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+      <c r="E167" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="F167" t="n">
+        <v>5589.56086714</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-206443.9719461</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>178</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>180</v>
-      </c>
-      <c r="C102" t="n">
-        <v>180</v>
-      </c>
-      <c r="D102" t="n">
-        <v>180</v>
-      </c>
-      <c r="E102" t="n">
-        <v>180</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1832.1826</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-200885.7046461</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>179.2</v>
+      </c>
+      <c r="C168" t="n">
+        <v>179.2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>179.2</v>
+      </c>
+      <c r="E168" t="n">
+        <v>179.2</v>
+      </c>
+      <c r="F168" t="n">
+        <v>45.93</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-206489.9019461</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>180.4</v>
-      </c>
-      <c r="C103" t="n">
-        <v>180.4</v>
-      </c>
-      <c r="D103" t="n">
-        <v>180.4</v>
-      </c>
-      <c r="E103" t="n">
-        <v>180.4</v>
-      </c>
-      <c r="F103" t="n">
-        <v>3</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-200882.7046461</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="D169" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="E169" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2011.9862</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-208501.8881461</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="C104" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="D104" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="E104" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="F104" t="n">
-        <v>3</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-200879.7046461</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="C170" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="D170" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="F170" t="n">
+        <v>5589.5608</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-202912.3273461</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="C105" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="D105" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="E105" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="F105" t="n">
-        <v>4.1753</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-200879.7046461</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>179</v>
+      </c>
+      <c r="C171" t="n">
+        <v>179</v>
+      </c>
+      <c r="D171" t="n">
+        <v>179</v>
+      </c>
+      <c r="E171" t="n">
+        <v>179</v>
+      </c>
+      <c r="F171" t="n">
+        <v>191.4401</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-202720.8872461</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="C106" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="D106" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="E106" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="F106" t="n">
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="C172" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="D172" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="E172" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="F172" t="n">
         <v>3</v>
       </c>
-      <c r="G106" t="n">
-        <v>-200882.7046461</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
+      <c r="G172" t="n">
+        <v>-202717.8872461</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="C107" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="D107" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="E107" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="F107" t="n">
-        <v>53.5964</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-200829.1082461</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>180</v>
+      </c>
+      <c r="C173" t="n">
+        <v>180</v>
+      </c>
+      <c r="D173" t="n">
+        <v>180</v>
+      </c>
+      <c r="E173" t="n">
+        <v>180</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1832.1826</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-200885.7046461</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="C108" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="D108" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="E108" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-201829.1082461</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="C174" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="D174" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="E174" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="F174" t="n">
+        <v>3</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-200882.7046461</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="C109" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="D109" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="E109" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="F109" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-199329.1082461</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="C175" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="D175" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="E175" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="F175" t="n">
+        <v>3</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-200879.7046461</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="C176" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="D176" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="E176" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="F176" t="n">
+        <v>4.1753</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-200879.7046461</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="C177" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="D177" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="E177" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-200882.7046461</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="C178" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="D178" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="F178" t="n">
+        <v>53.5964</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-200829.1082461</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="C179" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="D179" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="E179" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-201829.1082461</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="C180" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="D180" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="E180" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-199329.1082461</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-25 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-25 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N180"/>
+  <dimension ref="A1:M180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-46643.33776715</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-45245.33776715</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-54748.33776715</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-60226.12776715</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-60066.95326715</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,19 @@
         <v>-98857.63996715</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+        <v>179.9</v>
+      </c>
+      <c r="J31" t="n">
+        <v>179.9</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1447,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1486,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1523,23 @@
         <v>-99012.84696715001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>179.8</v>
+      </c>
+      <c r="J34" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1564,23 @@
         <v>-99012.84696715001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>179.9</v>
+      </c>
+      <c r="J35" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1607,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1644,23 @@
         <v>-100940.40896715</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>179.8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,22 +1685,23 @@
         <v>-99834.71376715001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>178.2</v>
       </c>
       <c r="J38" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="K38" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>179.9</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1792,282 +1726,298 @@
         <v>-62692.75036715001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="L39" t="inlineStr">
+        <v>179.9</v>
+      </c>
+      <c r="J39" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="C40" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="D40" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="E40" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5483.8165</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-57208.93386715001</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="C41" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="D41" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9999.999599999999</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-67208.93346715001</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="C42" t="n">
+        <v>182</v>
+      </c>
+      <c r="D42" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="E42" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="F42" t="n">
+        <v>14388.0929</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-52820.84056715001</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>182</v>
+      </c>
+      <c r="C43" t="n">
+        <v>182</v>
+      </c>
+      <c r="D43" t="n">
+        <v>182</v>
+      </c>
+      <c r="E43" t="n">
+        <v>182</v>
+      </c>
+      <c r="F43" t="n">
+        <v>21842.1722</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-52820.84056715001</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="C44" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="D44" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E44" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2880</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-55700.84056715001</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>182</v>
+      </c>
+      <c r="J44" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="C45" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="D45" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E45" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="F45" t="n">
+        <v>250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-55700.84056715001</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1.005561423012785</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="D46" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E46" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>14974.7912</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-55700.84056715001</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>182</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>181.9</v>
-      </c>
-      <c r="C40" t="n">
-        <v>181.9</v>
-      </c>
-      <c r="D40" t="n">
-        <v>181.9</v>
-      </c>
-      <c r="E40" t="n">
-        <v>181.9</v>
-      </c>
-      <c r="F40" t="n">
-        <v>5483.8165</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-57208.93386715001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="C41" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="D41" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="E41" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="F41" t="n">
-        <v>9999.999599999999</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-67208.93346715001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>181.9</v>
-      </c>
-      <c r="C42" t="n">
-        <v>182</v>
-      </c>
-      <c r="D42" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="E42" t="n">
-        <v>181.9</v>
-      </c>
-      <c r="F42" t="n">
-        <v>14388.0929</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-52820.84056715001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>182</v>
-      </c>
-      <c r="C43" t="n">
-        <v>182</v>
-      </c>
-      <c r="D43" t="n">
-        <v>182</v>
-      </c>
-      <c r="E43" t="n">
-        <v>182</v>
-      </c>
-      <c r="F43" t="n">
-        <v>21842.1722</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-52820.84056715001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="C44" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="D44" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="E44" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2880</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-55700.84056715001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="C45" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="D45" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="E45" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="F45" t="n">
-        <v>250</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-55700.84056715001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="C46" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="D46" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="E46" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="F46" t="n">
-        <v>14974.7912</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-55700.84056715001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2092,18 +2042,15 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2130,16 +2077,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2166,16 +2110,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2202,16 +2143,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2238,16 +2176,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2274,16 +2209,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2310,16 +2242,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2346,16 +2275,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2380,18 +2306,15 @@
         <v>-49043.80076715001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2418,16 +2341,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2452,18 +2372,15 @@
         <v>-49043.80076715001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2490,16 +2407,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2524,18 +2438,15 @@
         <v>-41747.80076715001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2560,18 +2471,15 @@
         <v>-53918.18826715001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2596,18 +2504,15 @@
         <v>-53918.18826715001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2632,18 +2537,15 @@
         <v>-43088.12126715001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2668,18 +2570,15 @@
         <v>-43091.12126715001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2704,18 +2603,15 @@
         <v>-43091.12126715001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2742,16 +2638,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2776,18 +2669,15 @@
         <v>-55362.98406715001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2812,18 +2702,15 @@
         <v>-55359.98406715001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2848,18 +2735,15 @@
         <v>-55484.98406715001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2884,18 +2768,15 @@
         <v>-56984.98406715001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2920,18 +2801,15 @@
         <v>-56984.98406715001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2958,16 +2836,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2992,18 +2867,15 @@
         <v>-61123.21346715001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3030,16 +2902,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3064,18 +2933,15 @@
         <v>-60428.61006715001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3102,16 +2968,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3138,16 +3001,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3174,16 +3034,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3210,16 +3067,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3246,16 +3100,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3282,16 +3133,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3318,16 +3166,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3354,16 +3199,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3390,16 +3232,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3426,16 +3265,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3462,16 +3298,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3498,16 +3331,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3532,18 +3362,15 @@
         <v>-64843.19376715001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3570,16 +3397,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3606,16 +3430,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3642,16 +3463,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3678,16 +3496,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3714,16 +3529,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3750,16 +3562,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3786,16 +3595,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3822,16 +3628,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3856,18 +3659,15 @@
         <v>-60620.70326715001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3892,18 +3692,15 @@
         <v>-60620.70326715001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3928,18 +3725,15 @@
         <v>-60620.70326715001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3964,18 +3758,15 @@
         <v>-60620.70326715001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4000,18 +3791,15 @@
         <v>-65464.13256715001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4036,18 +3824,15 @@
         <v>-65461.13256715001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4072,18 +3857,15 @@
         <v>-66561.13256715001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4108,18 +3890,15 @@
         <v>-76543.07896715001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4144,18 +3923,15 @@
         <v>-75917.77076715001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4180,18 +3956,15 @@
         <v>-80845.82556715001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4218,16 +3991,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4254,16 +4024,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4288,18 +4055,15 @@
         <v>-97771.64356715001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4326,16 +4090,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4360,18 +4121,15 @@
         <v>-98671.64356715001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4398,16 +4156,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4432,18 +4187,15 @@
         <v>-94514.83581324002</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4468,18 +4220,15 @@
         <v>-94409.51251324001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4506,16 +4255,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4540,18 +4286,15 @@
         <v>-94487.57401324001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4578,16 +4321,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4614,16 +4354,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4648,18 +4385,15 @@
         <v>-94504.56401324001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4686,16 +4420,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4720,18 +4451,15 @@
         <v>-94550.25101324002</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4758,16 +4486,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4792,18 +4517,15 @@
         <v>-102206.93221324</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4830,16 +4552,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4864,18 +4583,15 @@
         <v>-102316.04801324</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4902,16 +4618,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4936,18 +4649,15 @@
         <v>-102316.04801324</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4974,16 +4684,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5008,18 +4715,15 @@
         <v>-119641.74311324</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5046,16 +4750,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5082,16 +4783,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5118,16 +4816,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5152,18 +4847,15 @@
         <v>-119641.74311324</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5190,16 +4882,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5226,16 +4915,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5262,16 +4948,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5296,18 +4979,15 @@
         <v>-119641.74311324</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5334,16 +5014,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5368,18 +5045,15 @@
         <v>-119641.74311324</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5406,16 +5080,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5440,18 +5111,15 @@
         <v>-119381.86961324</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5476,18 +5144,19 @@
         <v>-119381.86961324</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="J141" t="n">
+        <v>178</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5514,16 +5183,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>178</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5550,16 +5222,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>178</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5586,16 +5261,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>178</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5622,16 +5300,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>178</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5658,16 +5339,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>178</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5694,16 +5378,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>178</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5730,16 +5417,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>178</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5766,16 +5456,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>178</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5802,16 +5495,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>178</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5838,16 +5534,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>178</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5874,16 +5573,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>178</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5910,16 +5612,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>178</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5946,16 +5651,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>178</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5982,16 +5690,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>178</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6018,16 +5729,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>178</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6052,18 +5766,23 @@
         <v>-209660.00111324</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>176.6</v>
+      </c>
+      <c r="J157" t="n">
+        <v>178</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6090,16 +5809,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>178</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6124,24 +5846,21 @@
         <v>-211160.00111324</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
+        <v>178</v>
+      </c>
+      <c r="K159" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6166,24 +5885,21 @@
         <v>-211531.99481324</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
+        <v>178</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6208,24 +5924,23 @@
         <v>-211528.99481324</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="J161" t="n">
-        <v>176</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+        <v>178</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6250,24 +5965,23 @@
         <v>-211528.99481324</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>176.6</v>
       </c>
       <c r="J162" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
+        <v>178</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6292,24 +6006,23 @@
         <v>-212115.53281324</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>176.6</v>
       </c>
       <c r="J163" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
+        <v>178</v>
+      </c>
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6334,24 +6047,21 @@
         <v>-212115.53281324</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>176</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
+        <v>178</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6376,24 +6086,23 @@
         <v>-212112.53281324</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="J165" t="n">
-        <v>176</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
+        <v>178</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6418,24 +6127,23 @@
         <v>-212033.53281324</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>176.6</v>
       </c>
       <c r="J166" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+        <v>178</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6460,24 +6168,23 @@
         <v>-206443.9719461</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="J167" t="n">
         <v>178</v>
       </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6504,20 +6211,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>178</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6544,20 +6250,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>178</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6584,20 +6289,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>178</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6624,20 +6328,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>178</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6664,20 +6367,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>178</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6704,20 +6406,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>178</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6744,20 +6445,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>178</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6784,20 +6484,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>178</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6824,20 +6523,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>178</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6864,20 +6562,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>178</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6902,22 +6599,23 @@
         <v>-200829.1082461</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+        <v>180.5</v>
+      </c>
+      <c r="J178" t="n">
+        <v>178</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6942,22 +6640,23 @@
         <v>-201829.1082461</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+        <v>180.6</v>
+      </c>
+      <c r="J179" t="n">
+        <v>178</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6982,26 +6681,25 @@
         <v>-199329.1082461</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>180.5</v>
       </c>
       <c r="J180" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+        <v>178</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-25 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-43493.40846769999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-43496.40846769999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-43499.40846769999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-46643.33776715</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-45245.33776715</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-54748.33776715</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-60226.12776715</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-60066.95326715</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1408,14 +1408,10 @@
         <v>-98857.63996715</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="J31" t="n">
-        <v>179.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
@@ -1448,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1487,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1523,19 +1507,11 @@
         <v>-99012.84696715001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>179.8</v>
-      </c>
-      <c r="J34" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1564,19 +1540,11 @@
         <v>-99012.84696715001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="J35" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1608,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1646,17 +1608,9 @@
       <c r="H37" t="n">
         <v>2</v>
       </c>
-      <c r="I37" t="n">
-        <v>179.8</v>
-      </c>
-      <c r="J37" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1685,19 +1639,11 @@
         <v>-99834.71376715001</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="J38" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1728,17 +1674,9 @@
       <c r="H39" t="n">
         <v>2</v>
       </c>
-      <c r="I39" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="J39" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1767,17 +1705,11 @@
         <v>-57208.93386715001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1809,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1848,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1884,17 +1804,11 @@
         <v>-52820.84056715001</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1925,17 +1839,9 @@
       <c r="H44" t="n">
         <v>2</v>
       </c>
-      <c r="I44" t="n">
-        <v>182</v>
-      </c>
-      <c r="J44" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1964,19 +1870,13 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>1.005561423012785</v>
+        <v>1</v>
       </c>
       <c r="M45" t="inlineStr"/>
     </row>
@@ -2003,17 +1903,11 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>182</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2042,7 +1936,7 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2075,7 +1969,7 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2108,7 +2002,7 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2141,7 +2035,7 @@
         <v>-56085.19806715001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2174,7 +2068,7 @@
         <v>-58745.19806715001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2207,7 +2101,7 @@
         <v>-58745.19806715001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2240,7 +2134,7 @@
         <v>-51745.19806715001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2273,7 +2167,7 @@
         <v>-51745.19806715001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2306,7 +2200,7 @@
         <v>-49043.80076715001</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2372,7 +2266,7 @@
         <v>-49043.80076715001</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2405,7 +2299,7 @@
         <v>-49047.80076715001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2438,7 +2332,7 @@
         <v>-41747.80076715001</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2471,7 +2365,7 @@
         <v>-53918.18826715001</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2504,7 +2398,7 @@
         <v>-53918.18826715001</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2537,7 +2431,7 @@
         <v>-43088.12126715001</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2570,7 +2464,7 @@
         <v>-43091.12126715001</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2603,7 +2497,7 @@
         <v>-43091.12126715001</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2636,7 +2530,7 @@
         <v>-55389.94406715001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2669,7 +2563,7 @@
         <v>-55362.98406715001</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2702,7 +2596,7 @@
         <v>-55359.98406715001</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2735,7 +2629,7 @@
         <v>-55484.98406715001</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2768,7 +2662,7 @@
         <v>-56984.98406715001</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2801,7 +2695,7 @@
         <v>-56984.98406715001</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2834,7 +2728,7 @@
         <v>-56984.98406715001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2867,7 +2761,7 @@
         <v>-61123.21346715001</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2900,7 +2794,7 @@
         <v>-60428.61006715001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2933,7 +2827,7 @@
         <v>-60428.61006715001</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2966,7 +2860,7 @@
         <v>-60245.01006715001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3032,7 +2926,7 @@
         <v>-61950.71106715001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3065,7 +2959,7 @@
         <v>-61950.71106715001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3098,7 +2992,7 @@
         <v>-65060.88906715001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3131,7 +3025,7 @@
         <v>-67692.88906715001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3164,7 +3058,7 @@
         <v>-67692.88906715001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3197,7 +3091,7 @@
         <v>-69399.56466715001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3230,7 +3124,7 @@
         <v>-69399.56466715001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3263,7 +3157,7 @@
         <v>-69399.56466715001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3296,7 +3190,7 @@
         <v>-69399.56466715001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3329,7 +3223,7 @@
         <v>-64405.07676715001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3362,7 +3256,7 @@
         <v>-64843.19376715001</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3395,7 +3289,7 @@
         <v>-61603.19376715001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3428,7 +3322,7 @@
         <v>-58051.75876715002</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3461,7 +3355,7 @@
         <v>-58239.37276715002</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3494,7 +3388,7 @@
         <v>-58214.37276715002</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3527,7 +3421,7 @@
         <v>-65174.37276715002</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3560,7 +3454,7 @@
         <v>-64071.37376715001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3593,7 +3487,7 @@
         <v>-62405.74496715001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3626,7 +3520,7 @@
         <v>-60623.70326715001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3659,7 +3553,7 @@
         <v>-60620.70326715001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3692,7 +3586,7 @@
         <v>-60620.70326715001</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3725,7 +3619,7 @@
         <v>-60620.70326715001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3758,7 +3652,7 @@
         <v>-60620.70326715001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3791,7 +3685,7 @@
         <v>-65464.13256715001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3824,7 +3718,7 @@
         <v>-65461.13256715001</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3857,7 +3751,7 @@
         <v>-66561.13256715001</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3890,7 +3784,7 @@
         <v>-76543.07896715001</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3923,7 +3817,7 @@
         <v>-75917.77076715001</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3956,7 +3850,7 @@
         <v>-80845.82556715001</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3989,7 +3883,7 @@
         <v>-80845.82556715001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4022,7 +3916,7 @@
         <v>-107751.64356715</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4055,7 +3949,7 @@
         <v>-97771.64356715001</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4088,7 +3982,7 @@
         <v>-98371.64356715001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4121,7 +4015,7 @@
         <v>-98671.64356715001</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4154,7 +4048,7 @@
         <v>-93569.06581324001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4187,7 +4081,7 @@
         <v>-94514.83581324002</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4220,7 +4114,7 @@
         <v>-94409.51251324001</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4253,7 +4147,7 @@
         <v>-94406.51251324001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4286,7 +4180,7 @@
         <v>-94487.57401324001</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4319,7 +4213,7 @@
         <v>-94487.57401324001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4385,7 +4279,7 @@
         <v>-94504.56401324001</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4451,7 +4345,7 @@
         <v>-94550.25101324002</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4517,7 +4411,7 @@
         <v>-102206.93221324</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4583,7 +4477,7 @@
         <v>-102316.04801324</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4649,7 +4543,7 @@
         <v>-102316.04801324</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4715,7 +4609,7 @@
         <v>-119641.74311324</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4847,7 +4741,7 @@
         <v>-119641.74311324</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4979,7 +4873,7 @@
         <v>-119641.74311324</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5045,7 +4939,7 @@
         <v>-119641.74311324</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5111,7 +5005,7 @@
         <v>-119381.86961324</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5144,14 +5038,10 @@
         <v>-119381.86961324</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>178</v>
-      </c>
-      <c r="J141" t="n">
-        <v>178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
@@ -5184,1081 +5074,951 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>178</v>
-      </c>
-      <c r="K142" t="inlineStr">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="C143" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="D143" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="E143" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-150835.00871324</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="C144" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="D144" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="E144" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>14.0848</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-150849.09351324</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="C145" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="D145" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="E145" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-150846.09351324</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="D146" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="F146" t="n">
+        <v>40075.5463</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-190921.63981324</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-190918.63981324</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>177.1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="D148" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="E148" t="n">
+        <v>177.1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5904.5144</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-196823.15421324</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="F149" t="n">
+        <v>707.9777</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-196115.17651324</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="D150" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1120.44817927</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-196115.17651324</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>178</v>
+      </c>
+      <c r="C151" t="n">
+        <v>178</v>
+      </c>
+      <c r="D151" t="n">
+        <v>178</v>
+      </c>
+      <c r="E151" t="n">
+        <v>178</v>
+      </c>
+      <c r="F151" t="n">
+        <v>147.8246</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-196263.00111324</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="C152" t="n">
+        <v>177</v>
+      </c>
+      <c r="D152" t="n">
+        <v>178</v>
+      </c>
+      <c r="E152" t="n">
+        <v>177</v>
+      </c>
+      <c r="F152" t="n">
+        <v>10003</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-206266.00111324</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>177</v>
+      </c>
+      <c r="C153" t="n">
+        <v>177</v>
+      </c>
+      <c r="D153" t="n">
+        <v>177</v>
+      </c>
+      <c r="E153" t="n">
+        <v>177</v>
+      </c>
+      <c r="F153" t="n">
+        <v>45</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-206266.00111324</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="C154" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="D154" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="E154" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-206263.00111324</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="C155" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D155" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="E155" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3400</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-209663.00111324</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C156" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E156" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1040.0279</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-209663.00111324</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="C157" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="D157" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="E157" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-209660.00111324</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C158" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D158" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E158" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-211160.00111324</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C159" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D159" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E159" t="n">
+        <v>176</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1783.9999</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-211160.00111324</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>176</v>
+      </c>
+      <c r="C160" t="n">
+        <v>176</v>
+      </c>
+      <c r="D160" t="n">
+        <v>176</v>
+      </c>
+      <c r="E160" t="n">
+        <v>176</v>
+      </c>
+      <c r="F160" t="n">
+        <v>371.9937</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-211531.99481324</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C161" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D161" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E161" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-211528.99481324</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>176</v>
+      </c>
+      <c r="J161" t="n">
+        <v>176</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C162" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D162" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E162" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-211528.99481324</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="J162" t="n">
+        <v>176</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>176</v>
+      </c>
+      <c r="C163" t="n">
+        <v>176</v>
+      </c>
+      <c r="D163" t="n">
+        <v>176</v>
+      </c>
+      <c r="E163" t="n">
+        <v>176</v>
+      </c>
+      <c r="F163" t="n">
+        <v>586.538</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-212115.53281324</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="J163" t="n">
+        <v>176</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>176.1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>176</v>
+      </c>
+      <c r="D164" t="n">
+        <v>176.1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>176</v>
+      </c>
+      <c r="F164" t="n">
+        <v>176.009</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-212115.53281324</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C165" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D165" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E165" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-212112.53281324</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>176</v>
+      </c>
+      <c r="J165" t="n">
+        <v>176</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C166" t="n">
+        <v>178</v>
+      </c>
+      <c r="D166" t="n">
+        <v>178</v>
+      </c>
+      <c r="E166" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F166" t="n">
+        <v>79</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-212033.53281324</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="J166" t="n">
+        <v>176</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="C167" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="D167" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="E167" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="F167" t="n">
+        <v>5589.56086714</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-206443.9719461</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>178</v>
+      </c>
+      <c r="J167" t="n">
+        <v>176</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>179.2</v>
+      </c>
+      <c r="C168" t="n">
+        <v>179.2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>179.2</v>
+      </c>
+      <c r="E168" t="n">
+        <v>179.2</v>
+      </c>
+      <c r="F168" t="n">
+        <v>45.93</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-206489.9019461</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="J168" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="D169" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="E169" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2011.9862</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-208501.8881461</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>179.2</v>
+      </c>
+      <c r="J169" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="C143" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="D143" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="E143" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="F143" t="n">
-        <v>3</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-150835.00871324</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>178</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>177.4</v>
-      </c>
-      <c r="C144" t="n">
-        <v>177.4</v>
-      </c>
-      <c r="D144" t="n">
-        <v>177.4</v>
-      </c>
-      <c r="E144" t="n">
-        <v>177.4</v>
-      </c>
-      <c r="F144" t="n">
-        <v>14.0848</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-150849.09351324</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>178</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="C145" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="D145" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="E145" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="F145" t="n">
-        <v>3</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-150846.09351324</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>178</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="C146" t="n">
-        <v>176.7</v>
-      </c>
-      <c r="D146" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="E146" t="n">
-        <v>176.7</v>
-      </c>
-      <c r="F146" t="n">
-        <v>40075.5463</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-190921.63981324</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>178</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="C147" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="D147" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="E147" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="F147" t="n">
-        <v>3</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-190918.63981324</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>178</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>177.1</v>
-      </c>
-      <c r="C148" t="n">
-        <v>178.4</v>
-      </c>
-      <c r="D148" t="n">
-        <v>178.4</v>
-      </c>
-      <c r="E148" t="n">
-        <v>177.1</v>
-      </c>
-      <c r="F148" t="n">
-        <v>5904.5144</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-196823.15421324</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>178</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="C149" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="D149" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="E149" t="n">
-        <v>178.4</v>
-      </c>
-      <c r="F149" t="n">
-        <v>707.9777</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-196115.17651324</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>178</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="C150" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="D150" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="E150" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1120.44817927</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-196115.17651324</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>178</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>178</v>
-      </c>
-      <c r="C151" t="n">
-        <v>178</v>
-      </c>
-      <c r="D151" t="n">
-        <v>178</v>
-      </c>
-      <c r="E151" t="n">
-        <v>178</v>
-      </c>
-      <c r="F151" t="n">
-        <v>147.8246</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-196263.00111324</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>178</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>177.9</v>
-      </c>
-      <c r="C152" t="n">
-        <v>177</v>
-      </c>
-      <c r="D152" t="n">
-        <v>178</v>
-      </c>
-      <c r="E152" t="n">
-        <v>177</v>
-      </c>
-      <c r="F152" t="n">
-        <v>10003</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-206266.00111324</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>178</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>177</v>
-      </c>
-      <c r="C153" t="n">
-        <v>177</v>
-      </c>
-      <c r="D153" t="n">
-        <v>177</v>
-      </c>
-      <c r="E153" t="n">
-        <v>177</v>
-      </c>
-      <c r="F153" t="n">
-        <v>45</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-206266.00111324</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>178</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="C154" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="D154" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="E154" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="F154" t="n">
-        <v>3</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-206263.00111324</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>178</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>176.7</v>
-      </c>
-      <c r="C155" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D155" t="n">
-        <v>176.7</v>
-      </c>
-      <c r="E155" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F155" t="n">
-        <v>3400</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-209663.00111324</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>178</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C156" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D156" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E156" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1040.0279</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-209663.00111324</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>178</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="C157" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="D157" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="E157" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="F157" t="n">
-        <v>3</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-209660.00111324</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="J157" t="n">
-        <v>178</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C158" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D158" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E158" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-211160.00111324</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>178</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C159" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D159" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E159" t="n">
-        <v>176</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1783.9999</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-211160.00111324</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>178</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>176</v>
-      </c>
-      <c r="C160" t="n">
-        <v>176</v>
-      </c>
-      <c r="D160" t="n">
-        <v>176</v>
-      </c>
-      <c r="E160" t="n">
-        <v>176</v>
-      </c>
-      <c r="F160" t="n">
-        <v>371.9937</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-211531.99481324</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>178</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C161" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D161" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E161" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F161" t="n">
-        <v>3</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-211528.99481324</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>176</v>
-      </c>
-      <c r="J161" t="n">
-        <v>178</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C162" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D162" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E162" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F162" t="n">
-        <v>3</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-211528.99481324</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="J162" t="n">
-        <v>178</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>176</v>
-      </c>
-      <c r="C163" t="n">
-        <v>176</v>
-      </c>
-      <c r="D163" t="n">
-        <v>176</v>
-      </c>
-      <c r="E163" t="n">
-        <v>176</v>
-      </c>
-      <c r="F163" t="n">
-        <v>586.538</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-212115.53281324</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="J163" t="n">
-        <v>178</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>176.1</v>
-      </c>
-      <c r="C164" t="n">
-        <v>176</v>
-      </c>
-      <c r="D164" t="n">
-        <v>176.1</v>
-      </c>
-      <c r="E164" t="n">
-        <v>176</v>
-      </c>
-      <c r="F164" t="n">
-        <v>176.009</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-212115.53281324</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>178</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C165" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D165" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E165" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F165" t="n">
-        <v>3</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-212112.53281324</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>176</v>
-      </c>
-      <c r="J165" t="n">
-        <v>178</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C166" t="n">
-        <v>178</v>
-      </c>
-      <c r="D166" t="n">
-        <v>178</v>
-      </c>
-      <c r="E166" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F166" t="n">
-        <v>79</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-212033.53281324</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="J166" t="n">
-        <v>178</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="C167" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="D167" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="E167" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="F167" t="n">
-        <v>5589.56086714</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-206443.9719461</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>178</v>
-      </c>
-      <c r="J167" t="n">
-        <v>178</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>179.2</v>
-      </c>
-      <c r="C168" t="n">
-        <v>179.2</v>
-      </c>
-      <c r="D168" t="n">
-        <v>179.2</v>
-      </c>
-      <c r="E168" t="n">
-        <v>179.2</v>
-      </c>
-      <c r="F168" t="n">
-        <v>45.93</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-206489.9019461</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>178</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>179.1</v>
-      </c>
-      <c r="C169" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="D169" t="n">
-        <v>179.1</v>
-      </c>
-      <c r="E169" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="F169" t="n">
-        <v>2011.9862</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-208501.8881461</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>178</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6291,7 +6051,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>178</v>
+        <v>179.9</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6326,11 +6086,13 @@
         <v>-202720.8872461</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>178.2</v>
+      </c>
       <c r="J171" t="n">
-        <v>178</v>
+        <v>179.9</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6365,11 +6127,13 @@
         <v>-202717.8872461</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>179</v>
+      </c>
       <c r="J172" t="n">
-        <v>178</v>
+        <v>179.9</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6404,11 +6168,13 @@
         <v>-200885.7046461</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>179.9</v>
+      </c>
       <c r="J173" t="n">
-        <v>178</v>
+        <v>179.9</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6443,11 +6209,13 @@
         <v>-200882.7046461</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>180</v>
+      </c>
       <c r="J174" t="n">
-        <v>178</v>
+        <v>179.9</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6482,11 +6250,13 @@
         <v>-200879.7046461</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>180.4</v>
+      </c>
       <c r="J175" t="n">
-        <v>178</v>
+        <v>179.9</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6521,11 +6291,13 @@
         <v>-200879.7046461</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>180.6</v>
+      </c>
       <c r="J176" t="n">
-        <v>178</v>
+        <v>179.9</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6560,11 +6332,13 @@
         <v>-200882.7046461</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>180.6</v>
+      </c>
       <c r="J177" t="n">
-        <v>178</v>
+        <v>179.9</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6599,13 +6373,13 @@
         <v>-200829.1082461</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>180.5</v>
       </c>
       <c r="J178" t="n">
-        <v>178</v>
+        <v>179.9</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6640,13 +6414,13 @@
         <v>-201829.1082461</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>180.6</v>
       </c>
       <c r="J179" t="n">
-        <v>178</v>
+        <v>179.9</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6681,13 +6455,13 @@
         <v>-199329.1082461</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>180.5</v>
       </c>
       <c r="J180" t="n">
-        <v>178</v>
+        <v>179.9</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6700,6 +6474,6 @@
       <c r="M180" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-25 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-43493.40846769999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-43496.40846769999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-43499.40846769999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-41643.33776715</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-46643.33776715</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-54748.33776715</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-60226.12776715</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-60066.95326715</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-99342.67326715001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-98840.67326715001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-98840.67326715001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-99012.84696715001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-99012.84696715001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-100888.40896715</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-62692.75036715001</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-67208.93346715001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-52820.84056715001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-49043.80076715001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-49047.80076715001</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-41747.80076715001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-53918.18826715001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-53918.18826715001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-43088.12126715001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-43091.12126715001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-56984.98406715001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-61123.21346715001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-60428.61006715001</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-60428.61006715001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-60245.01006715001</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-61950.71106715001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-65060.88906715001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-67692.88906715001</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-64405.07676715001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-58051.75876715002</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-58239.37276715002</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-65174.37276715002</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-64071.37376715001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-62405.74496715001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-60623.70326715001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-60620.70326715001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-60620.70326715001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-60620.70326715001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-65464.13256715001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-65461.13256715001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-66561.13256715001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-76543.07896715001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-75917.77076715001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-80845.82556715001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-80845.82556715001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-107751.64356715</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-97771.64356715001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-98371.64356715001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-98671.64356715001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-93569.06581324001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-94514.83581324002</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-94409.51251324001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-94406.51251324001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-94487.57401324001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-94487.57401324001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -5735,11 +5735,9 @@
         <v>-211528.99481324</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>176.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
         <v>176</v>
       </c>
@@ -5817,11 +5815,19 @@
         <v>-212115.53281324</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>176</v>
+      </c>
+      <c r="J164" t="n">
+        <v>176</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5858,7 +5864,11 @@
       <c r="J165" t="n">
         <v>176</v>
       </c>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5887,17 +5897,15 @@
         <v>-212033.53281324</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>176.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
         <v>176</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L166" t="n">
@@ -5928,17 +5936,15 @@
         <v>-206443.9719461</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
         <v>176</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L167" t="n">
@@ -5969,15 +5975,17 @@
         <v>-206489.9019461</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>179.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
+        <v>176</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6006,17 +6014,15 @@
         <v>-208501.8881461</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>179.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>179.9</v>
+        <v>176</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L169" t="n">
@@ -6051,7 +6057,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>179.9</v>
+        <v>176</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6086,13 +6092,11 @@
         <v>-202720.8872461</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>178.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>179.9</v>
+        <v>176</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6127,13 +6131,11 @@
         <v>-202717.8872461</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>179.9</v>
+        <v>176</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6168,13 +6170,11 @@
         <v>-200885.7046461</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>179.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>179.9</v>
+        <v>176</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6209,13 +6209,11 @@
         <v>-200882.7046461</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>179.9</v>
+        <v>176</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6250,13 +6248,11 @@
         <v>-200879.7046461</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>180.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>179.9</v>
+        <v>176</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6291,21 +6287,19 @@
         <v>-200879.7046461</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>180.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>179.9</v>
+        <v>176</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1</v>
+        <v>1.021136363636364</v>
       </c>
       <c r="M176" t="inlineStr"/>
     </row>
@@ -6332,19 +6326,11 @@
         <v>-200882.7046461</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="J177" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6373,19 +6359,11 @@
         <v>-200829.1082461</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="J178" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6414,19 +6392,11 @@
         <v>-201829.1082461</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="J179" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6455,25 +6425,17 @@
         <v>-199329.1082461</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="J180" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
       <c r="M180" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-25 BackTest STEEM.xlsx
@@ -1012,7 +1012,7 @@
         <v>-41643.33776715</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-46643.33776715</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-54748.33776715</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-60226.12776715</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-60066.95326715</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-99342.67326715001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-98840.67326715001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-98840.67326715001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-99012.84696715001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-99012.84696715001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-100888.40896715</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-100940.40896715</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-57208.93386715001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-67208.93346715001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-52820.84056715001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-52820.84056715001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-56085.19806715001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-58745.19806715001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-58745.19806715001</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-51745.19806715001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-51745.19806715001</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-49043.80076715001</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-49043.80076715001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-49043.80076715001</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-43091.12126715001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-55389.94406715001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-55362.98406715001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-55359.98406715001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-56984.98406715001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-61950.71106715001</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-67692.88906715001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-69399.56466715001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-69399.56466715001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-69399.56466715001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-69399.56466715001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-64843.19376715001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-58051.75876715002</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-58239.37276715002</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-65174.37276715002</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-64071.37376715001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-62405.74496715001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-60623.70326715001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-60620.70326715001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-60620.70326715001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-60620.70326715001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-65464.13256715001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-65461.13256715001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-66561.13256715001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-76543.07896715001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-75917.77076715001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-80845.82556715001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-80845.82556715001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -5698,14 +5698,10 @@
         <v>-211528.99481324</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>176</v>
-      </c>
-      <c r="J161" t="n">
-        <v>176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
@@ -5738,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>176</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5774,19 +5764,11 @@
         <v>-212115.53281324</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="J163" t="n">
-        <v>176</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5815,99 +5797,83 @@
         <v>-212115.53281324</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>176</v>
-      </c>
-      <c r="J164" t="n">
-        <v>176</v>
-      </c>
-      <c r="K164" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C165" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="D165" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E165" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-212112.53281324</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C166" t="n">
+        <v>178</v>
+      </c>
+      <c r="D166" t="n">
+        <v>178</v>
+      </c>
+      <c r="E166" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="F166" t="n">
+        <v>79</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-212033.53281324</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C165" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="D165" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E165" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F165" t="n">
-        <v>3</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-212112.53281324</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>176</v>
-      </c>
-      <c r="J165" t="n">
-        <v>176</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C166" t="n">
-        <v>178</v>
-      </c>
-      <c r="D166" t="n">
-        <v>178</v>
-      </c>
-      <c r="E166" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="F166" t="n">
-        <v>79</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-212033.53281324</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>176</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5936,12 +5902,12 @@
         <v>-206443.9719461</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>176</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>178</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5978,9 +5944,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>176</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6014,12 +5978,12 @@
         <v>-208501.8881461</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>176</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>179.2</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6053,12 +6017,12 @@
         <v>-202912.3273461</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>176</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6092,12 +6056,12 @@
         <v>-202720.8872461</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>176</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6131,12 +6095,12 @@
         <v>-202717.8872461</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>176</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>179</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6173,9 +6137,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>176</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6212,9 +6174,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>176</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6251,9 +6211,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>176</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6287,19 +6245,17 @@
         <v>-200879.7046461</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>176</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1.021136363636364</v>
+        <v>1</v>
       </c>
       <c r="M176" t="inlineStr"/>
     </row>
@@ -6326,11 +6282,17 @@
         <v>-200882.7046461</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>180.6</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6359,11 +6321,17 @@
         <v>-200829.1082461</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>180.5</v>
+      </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6392,11 +6360,17 @@
         <v>-201829.1082461</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>180.6</v>
+      </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6425,11 +6399,17 @@
         <v>-199329.1082461</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>180.5</v>
+      </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-25 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-25 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M180"/>
+  <dimension ref="A1:L180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>-43493.40846769999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>-43496.40846769999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>-43499.40846769999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>-43499.40846769999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>-43499.40846769999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>-43493.40846769999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>5550.8656</v>
       </c>
       <c r="G8" t="n">
-        <v>-37942.54286769999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>-37939.54286769999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1213.775</v>
       </c>
       <c r="G10" t="n">
-        <v>-39153.3178677</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>-39153.3178677</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>-39150.3178677</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>103</v>
       </c>
       <c r="G13" t="n">
-        <v>-39150.3178677</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>33</v>
       </c>
       <c r="G14" t="n">
-        <v>-39117.3178677</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>-39114.3178677</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>8350.526599999999</v>
       </c>
       <c r="G16" t="n">
-        <v>-47464.84446769999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1341.6597</v>
       </c>
       <c r="G17" t="n">
-        <v>-46123.1847677</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>4476.84700055</v>
       </c>
       <c r="G18" t="n">
-        <v>-41646.33776715</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>-41643.33776715</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>5000</v>
       </c>
       <c r="G20" t="n">
-        <v>-46643.33776715</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>-46637.33776715</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1392</v>
       </c>
       <c r="G22" t="n">
-        <v>-45245.33776715</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>9503</v>
       </c>
       <c r="G23" t="n">
-        <v>-54748.33776715</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>5477.79</v>
       </c>
       <c r="G24" t="n">
-        <v>-60226.12776715</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>159.1745</v>
       </c>
       <c r="G25" t="n">
-        <v>-60066.95326715</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>39275.72</v>
       </c>
       <c r="G26" t="n">
-        <v>-99342.67326715001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>502</v>
       </c>
       <c r="G27" t="n">
-        <v>-98840.67326715001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>1440</v>
       </c>
       <c r="G28" t="n">
-        <v>-98840.67326715001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1387.8593</v>
       </c>
       <c r="G29" t="n">
-        <v>-100228.53256715</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1500</v>
       </c>
       <c r="G30" t="n">
-        <v>-98728.53256715</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>129.1074</v>
       </c>
       <c r="G31" t="n">
-        <v>-98857.63996715</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>640.192</v>
       </c>
       <c r="G32" t="n">
-        <v>-98217.44796715</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>3695.513</v>
       </c>
       <c r="G33" t="n">
-        <v>-101912.96096715</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>2900.114</v>
       </c>
       <c r="G34" t="n">
-        <v>-99012.84696715001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>-99012.84696715001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1875.562</v>
       </c>
       <c r="G36" t="n">
-        <v>-100888.40896715</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>52</v>
       </c>
       <c r="G37" t="n">
-        <v>-100940.40896715</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,19 @@
         <v>1105.6952</v>
       </c>
       <c r="G38" t="n">
-        <v>-99834.71376715001</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>178.2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>178.2</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1557,21 @@
         <v>37141.9634</v>
       </c>
       <c r="G39" t="n">
-        <v>-62692.75036715001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1593,21 @@
         <v>5483.8165</v>
       </c>
       <c r="G40" t="n">
-        <v>-57208.93386715001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1629,15 @@
         <v>9999.999599999999</v>
       </c>
       <c r="G41" t="n">
-        <v>-67208.93346715001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1659,15 @@
         <v>14388.0929</v>
       </c>
       <c r="G42" t="n">
-        <v>-52820.84056715001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1689,15 @@
         <v>21842.1722</v>
       </c>
       <c r="G43" t="n">
-        <v>-52820.84056715001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1719,15 @@
         <v>2880</v>
       </c>
       <c r="G44" t="n">
-        <v>-55700.84056715001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1749,15 @@
         <v>250</v>
       </c>
       <c r="G45" t="n">
-        <v>-55700.84056715001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1779,15 @@
         <v>14974.7912</v>
       </c>
       <c r="G46" t="n">
-        <v>-55700.84056715001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1809,15 @@
         <v>71.47</v>
       </c>
       <c r="G47" t="n">
-        <v>-55700.84056715001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1839,15 @@
         <v>1550.9141</v>
       </c>
       <c r="G48" t="n">
-        <v>-55700.84056715001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1869,15 @@
         <v>2016.1884</v>
       </c>
       <c r="G49" t="n">
-        <v>-55700.84056715001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1899,15 @@
         <v>384.3575</v>
       </c>
       <c r="G50" t="n">
-        <v>-56085.19806715001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1929,15 @@
         <v>2660</v>
       </c>
       <c r="G51" t="n">
-        <v>-58745.19806715001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1959,15 @@
         <v>180.16</v>
       </c>
       <c r="G52" t="n">
-        <v>-58745.19806715001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1989,15 @@
         <v>7000</v>
       </c>
       <c r="G53" t="n">
-        <v>-51745.19806715001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2019,15 @@
         <v>857</v>
       </c>
       <c r="G54" t="n">
-        <v>-51745.19806715001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2049,15 @@
         <v>2701.3973</v>
       </c>
       <c r="G55" t="n">
-        <v>-49043.80076715001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2079,15 @@
         <v>85</v>
       </c>
       <c r="G56" t="n">
-        <v>-49043.80076715001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2109,15 @@
         <v>212.68</v>
       </c>
       <c r="G57" t="n">
-        <v>-49043.80076715001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2139,15 @@
         <v>4</v>
       </c>
       <c r="G58" t="n">
-        <v>-49047.80076715001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2169,15 @@
         <v>7300</v>
       </c>
       <c r="G59" t="n">
-        <v>-41747.80076715001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2199,15 @@
         <v>12170.3875</v>
       </c>
       <c r="G60" t="n">
-        <v>-53918.18826715001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2229,15 @@
         <v>6780.6177</v>
       </c>
       <c r="G61" t="n">
-        <v>-53918.18826715001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2259,15 @@
         <v>10830.067</v>
       </c>
       <c r="G62" t="n">
-        <v>-43088.12126715001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2289,15 @@
         <v>3</v>
       </c>
       <c r="G63" t="n">
-        <v>-43091.12126715001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2319,15 @@
         <v>64.6443</v>
       </c>
       <c r="G64" t="n">
-        <v>-43091.12126715001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2349,15 @@
         <v>12298.8228</v>
       </c>
       <c r="G65" t="n">
-        <v>-55389.94406715001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2379,15 @@
         <v>26.96</v>
       </c>
       <c r="G66" t="n">
-        <v>-55362.98406715001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2409,15 @@
         <v>3</v>
       </c>
       <c r="G67" t="n">
-        <v>-55359.98406715001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2439,15 @@
         <v>125</v>
       </c>
       <c r="G68" t="n">
-        <v>-55484.98406715001</v>
-      </c>
-      <c r="H68" t="n">
         <v>2</v>
       </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2469,15 @@
         <v>1500</v>
       </c>
       <c r="G69" t="n">
-        <v>-56984.98406715001</v>
-      </c>
-      <c r="H69" t="n">
         <v>2</v>
       </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2499,15 @@
         <v>757.5542</v>
       </c>
       <c r="G70" t="n">
-        <v>-56984.98406715001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2529,15 @@
         <v>1210</v>
       </c>
       <c r="G71" t="n">
-        <v>-56984.98406715001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2559,15 @@
         <v>4138.2294</v>
       </c>
       <c r="G72" t="n">
-        <v>-61123.21346715001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2589,15 @@
         <v>694.6034</v>
       </c>
       <c r="G73" t="n">
-        <v>-60428.61006715001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2619,15 @@
         <v>791.28</v>
       </c>
       <c r="G74" t="n">
-        <v>-60428.61006715001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2649,15 @@
         <v>183.6</v>
       </c>
       <c r="G75" t="n">
-        <v>-60245.01006715001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2679,15 @@
         <v>247</v>
       </c>
       <c r="G76" t="n">
-        <v>-59998.01006715001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2709,15 @@
         <v>1952.701</v>
       </c>
       <c r="G77" t="n">
-        <v>-61950.71106715001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2739,15 @@
         <v>2353.1387</v>
       </c>
       <c r="G78" t="n">
-        <v>-61950.71106715001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2769,15 @@
         <v>3110.178</v>
       </c>
       <c r="G79" t="n">
-        <v>-65060.88906715001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2799,15 @@
         <v>2632</v>
       </c>
       <c r="G80" t="n">
-        <v>-67692.88906715001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2829,15 @@
         <v>306</v>
       </c>
       <c r="G81" t="n">
-        <v>-67692.88906715001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2859,15 @@
         <v>1706.6756</v>
       </c>
       <c r="G82" t="n">
-        <v>-69399.56466715001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2889,15 @@
         <v>9240</v>
       </c>
       <c r="G83" t="n">
-        <v>-69399.56466715001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2919,15 @@
         <v>4660</v>
       </c>
       <c r="G84" t="n">
-        <v>-69399.56466715001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2949,15 @@
         <v>253.575</v>
       </c>
       <c r="G85" t="n">
-        <v>-69399.56466715001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2979,15 @@
         <v>4994.4879</v>
       </c>
       <c r="G86" t="n">
-        <v>-64405.07676715001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3009,15 @@
         <v>438.117</v>
       </c>
       <c r="G87" t="n">
-        <v>-64843.19376715001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3039,15 @@
         <v>3240</v>
       </c>
       <c r="G88" t="n">
-        <v>-61603.19376715001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3069,15 @@
         <v>3551.435</v>
       </c>
       <c r="G89" t="n">
-        <v>-58051.75876715002</v>
-      </c>
-      <c r="H89" t="n">
         <v>2</v>
       </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3099,21 @@
         <v>187.614</v>
       </c>
       <c r="G90" t="n">
-        <v>-58239.37276715002</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>180.9</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3135,21 @@
         <v>25</v>
       </c>
       <c r="G91" t="n">
-        <v>-58214.37276715002</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>180.2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3171,21 @@
         <v>6960</v>
       </c>
       <c r="G92" t="n">
-        <v>-65174.37276715002</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>180.3</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3207,21 @@
         <v>1102.999</v>
       </c>
       <c r="G93" t="n">
-        <v>-64071.37376715001</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>180.1</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3243,21 @@
         <v>1665.6288</v>
       </c>
       <c r="G94" t="n">
-        <v>-62405.74496715001</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>180.2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3279,21 @@
         <v>1782.0417</v>
       </c>
       <c r="G95" t="n">
-        <v>-60623.70326715001</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>180.3</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3315,21 @@
         <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>-60620.70326715001</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>180.9</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3351,21 @@
         <v>807.441</v>
       </c>
       <c r="G97" t="n">
-        <v>-60620.70326715001</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>181.9</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3387,21 @@
         <v>1000</v>
       </c>
       <c r="G98" t="n">
-        <v>-60620.70326715001</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>181.9</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3423,19 @@
         <v>500</v>
       </c>
       <c r="G99" t="n">
-        <v>-60620.70326715001</v>
-      </c>
-      <c r="H99" t="n">
         <v>2</v>
       </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3457,19 @@
         <v>4843.4293</v>
       </c>
       <c r="G100" t="n">
-        <v>-65464.13256715001</v>
-      </c>
-      <c r="H100" t="n">
         <v>2</v>
       </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3491,17 @@
         <v>3</v>
       </c>
       <c r="G101" t="n">
-        <v>-65461.13256715001</v>
-      </c>
-      <c r="H101" t="n">
         <v>2</v>
       </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3523,15 @@
         <v>1100</v>
       </c>
       <c r="G102" t="n">
-        <v>-66561.13256715001</v>
-      </c>
-      <c r="H102" t="n">
         <v>2</v>
       </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3553,21 @@
         <v>9981.946400000001</v>
       </c>
       <c r="G103" t="n">
-        <v>-76543.07896715001</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>180.5</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3589,21 @@
         <v>625.3082000000001</v>
       </c>
       <c r="G104" t="n">
-        <v>-75917.77076715001</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>180.1</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3625,21 @@
         <v>4928.0548</v>
       </c>
       <c r="G105" t="n">
-        <v>-80845.82556715001</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>181.9</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3661,21 @@
         <v>1260</v>
       </c>
       <c r="G106" t="n">
-        <v>-80845.82556715001</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>179.7</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3697,19 @@
         <v>26905.818</v>
       </c>
       <c r="G107" t="n">
-        <v>-107751.64356715</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3731,19 @@
         <v>9980</v>
       </c>
       <c r="G108" t="n">
-        <v>-97771.64356715001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3765,19 @@
         <v>600</v>
       </c>
       <c r="G109" t="n">
-        <v>-98371.64356715001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3799,21 @@
         <v>300</v>
       </c>
       <c r="G110" t="n">
-        <v>-98671.64356715001</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>179.1</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3835,19 @@
         <v>5102.57775391</v>
       </c>
       <c r="G111" t="n">
-        <v>-93569.06581324001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3869,19 @@
         <v>945.77</v>
       </c>
       <c r="G112" t="n">
-        <v>-94514.83581324002</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3903,19 @@
         <v>105.3233</v>
       </c>
       <c r="G113" t="n">
-        <v>-94409.51251324001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3937,21 @@
         <v>3</v>
       </c>
       <c r="G114" t="n">
-        <v>-94406.51251324001</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3973,17 @@
         <v>81.0615</v>
       </c>
       <c r="G115" t="n">
-        <v>-94487.57401324001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4005,21 @@
         <v>3</v>
       </c>
       <c r="G116" t="n">
-        <v>-94487.57401324001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>179</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4041,19 @@
         <v>19.99</v>
       </c>
       <c r="G117" t="n">
-        <v>-94507.56401324001</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="I117" t="n">
+        <v>179</v>
+      </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4075,23 @@
         <v>3</v>
       </c>
       <c r="G118" t="n">
-        <v>-94504.56401324001</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>178.5</v>
+      </c>
+      <c r="I118" t="n">
+        <v>179</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4113,23 @@
         <v>40</v>
       </c>
       <c r="G119" t="n">
-        <v>-94464.56401324001</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="I119" t="n">
+        <v>179</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4151,23 @@
         <v>85.687</v>
       </c>
       <c r="G120" t="n">
-        <v>-94550.25101324002</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>181.8</v>
+      </c>
+      <c r="I120" t="n">
+        <v>179</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4189,21 @@
         <v>3</v>
       </c>
       <c r="G121" t="n">
-        <v>-94547.25101324002</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>179</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4225,21 @@
         <v>7659.6812</v>
       </c>
       <c r="G122" t="n">
-        <v>-102206.93221324</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>179</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4261,21 @@
         <v>3</v>
       </c>
       <c r="G123" t="n">
-        <v>-102203.93221324</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>179</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4297,21 @@
         <v>112.1158</v>
       </c>
       <c r="G124" t="n">
-        <v>-102316.04801324</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>179</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4333,21 @@
         <v>173.2167</v>
       </c>
       <c r="G125" t="n">
-        <v>-102316.04801324</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>179</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4369,23 @@
         <v>342.5603</v>
       </c>
       <c r="G126" t="n">
-        <v>-102316.04801324</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>178.4</v>
+      </c>
+      <c r="I126" t="n">
+        <v>179</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4407,23 @@
         <v>17325.6951</v>
       </c>
       <c r="G127" t="n">
-        <v>-119641.74311324</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>178.4</v>
+      </c>
+      <c r="I127" t="n">
+        <v>179</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4445,23 @@
         <v>238.071</v>
       </c>
       <c r="G128" t="n">
-        <v>-119641.74311324</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="I128" t="n">
+        <v>179</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4483,23 @@
         <v>750.225</v>
       </c>
       <c r="G129" t="n">
-        <v>-119641.74311324</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="I129" t="n">
+        <v>179</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4521,21 @@
         <v>4505.245</v>
       </c>
       <c r="G130" t="n">
-        <v>-119641.74311324</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>179</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4557,21 @@
         <v>585.354</v>
       </c>
       <c r="G131" t="n">
-        <v>-119641.74311324</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>179</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4593,21 @@
         <v>2062.492</v>
       </c>
       <c r="G132" t="n">
-        <v>-119641.74311324</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>179</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4629,23 @@
         <v>641.7037</v>
       </c>
       <c r="G133" t="n">
-        <v>-119641.74311324</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="I133" t="n">
+        <v>179</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4667,23 @@
         <v>4954.486</v>
       </c>
       <c r="G134" t="n">
-        <v>-119641.74311324</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="I134" t="n">
+        <v>179</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4705,23 @@
         <v>16943.3766</v>
       </c>
       <c r="G135" t="n">
-        <v>-119641.74311324</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="I135" t="n">
+        <v>179</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4743,23 @@
         <v>3816.1376</v>
       </c>
       <c r="G136" t="n">
-        <v>-119641.74311324</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="I136" t="n">
+        <v>179</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4781,23 @@
         <v>1227.4324</v>
       </c>
       <c r="G137" t="n">
-        <v>-119641.74311324</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="I137" t="n">
+        <v>179</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4819,23 @@
         <v>12.5774</v>
       </c>
       <c r="G138" t="n">
-        <v>-119641.74311324</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="I138" t="n">
+        <v>179</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4857,23 @@
         <v>300</v>
       </c>
       <c r="G139" t="n">
-        <v>-119341.74311324</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="I139" t="n">
+        <v>179</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4895,23 @@
         <v>40.1265</v>
       </c>
       <c r="G140" t="n">
-        <v>-119381.86961324</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="I140" t="n">
+        <v>179</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4933,21 @@
         <v>40.1265</v>
       </c>
       <c r="G141" t="n">
-        <v>-119381.86961324</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>179</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4969,23 @@
         <v>31456.1391</v>
       </c>
       <c r="G142" t="n">
-        <v>-150838.00871324</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="I142" t="n">
+        <v>179</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +5007,23 @@
         <v>3</v>
       </c>
       <c r="G143" t="n">
-        <v>-150835.00871324</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>177.3</v>
+      </c>
+      <c r="I143" t="n">
+        <v>179</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +5045,21 @@
         <v>14.0848</v>
       </c>
       <c r="G144" t="n">
-        <v>-150849.09351324</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>179</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5081,21 @@
         <v>3</v>
       </c>
       <c r="G145" t="n">
-        <v>-150846.09351324</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>179</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5117,21 @@
         <v>40075.5463</v>
       </c>
       <c r="G146" t="n">
-        <v>-190921.63981324</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>179</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5153,21 @@
         <v>3</v>
       </c>
       <c r="G147" t="n">
-        <v>-190918.63981324</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>179</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5189,21 @@
         <v>5904.5144</v>
       </c>
       <c r="G148" t="n">
-        <v>-196823.15421324</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>179</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5225,21 @@
         <v>707.9777</v>
       </c>
       <c r="G149" t="n">
-        <v>-196115.17651324</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>179</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5261,21 @@
         <v>1120.44817927</v>
       </c>
       <c r="G150" t="n">
-        <v>-196115.17651324</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>179</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5297,21 @@
         <v>147.8246</v>
       </c>
       <c r="G151" t="n">
-        <v>-196263.00111324</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>179</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5333,21 @@
         <v>10003</v>
       </c>
       <c r="G152" t="n">
-        <v>-206266.00111324</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>179</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5369,21 @@
         <v>45</v>
       </c>
       <c r="G153" t="n">
-        <v>-206266.00111324</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>179</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5405,21 @@
         <v>3</v>
       </c>
       <c r="G154" t="n">
-        <v>-206263.00111324</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>179</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5441,21 @@
         <v>3400</v>
       </c>
       <c r="G155" t="n">
-        <v>-209663.00111324</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>179</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5477,21 @@
         <v>1040.0279</v>
       </c>
       <c r="G156" t="n">
-        <v>-209663.00111324</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>179</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5513,21 @@
         <v>3</v>
       </c>
       <c r="G157" t="n">
-        <v>-209660.00111324</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>179</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5549,21 @@
         <v>1500</v>
       </c>
       <c r="G158" t="n">
-        <v>-211160.00111324</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>179</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5585,21 @@
         <v>1783.9999</v>
       </c>
       <c r="G159" t="n">
-        <v>-211160.00111324</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>179</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5621,21 @@
         <v>371.9937</v>
       </c>
       <c r="G160" t="n">
-        <v>-211531.99481324</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>179</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5657,21 @@
         <v>3</v>
       </c>
       <c r="G161" t="n">
-        <v>-211528.99481324</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>179</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5693,23 @@
         <v>3</v>
       </c>
       <c r="G162" t="n">
-        <v>-211528.99481324</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>176.6</v>
+      </c>
+      <c r="I162" t="n">
+        <v>179</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5731,21 @@
         <v>586.538</v>
       </c>
       <c r="G163" t="n">
-        <v>-212115.53281324</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>179</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5767,21 @@
         <v>176.009</v>
       </c>
       <c r="G164" t="n">
-        <v>-212115.53281324</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>179</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5803,23 @@
         <v>3</v>
       </c>
       <c r="G165" t="n">
-        <v>-212112.53281324</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>176</v>
+      </c>
+      <c r="I165" t="n">
+        <v>179</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,24 +5841,23 @@
         <v>79</v>
       </c>
       <c r="G166" t="n">
-        <v>-212033.53281324</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>176.6</v>
       </c>
       <c r="I166" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5899,24 +5879,21 @@
         <v>5589.56086714</v>
       </c>
       <c r="G167" t="n">
-        <v>-206443.9719461</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="n">
-        <v>178</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5938,22 +5915,21 @@
         <v>45.93</v>
       </c>
       <c r="G168" t="n">
-        <v>-206489.9019461</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>179</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5975,24 +5951,21 @@
         <v>2011.9862</v>
       </c>
       <c r="G169" t="n">
-        <v>-208501.8881461</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="n">
-        <v>179.2</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6014,24 +5987,21 @@
         <v>5589.5608</v>
       </c>
       <c r="G170" t="n">
-        <v>-202912.3273461</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6053,24 +6023,21 @@
         <v>191.4401</v>
       </c>
       <c r="G171" t="n">
-        <v>-202720.8872461</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6092,24 +6059,21 @@
         <v>3</v>
       </c>
       <c r="G172" t="n">
-        <v>-202717.8872461</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="n">
         <v>179</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6131,22 +6095,21 @@
         <v>1832.1826</v>
       </c>
       <c r="G173" t="n">
-        <v>-200885.7046461</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>179</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6168,22 +6131,21 @@
         <v>3</v>
       </c>
       <c r="G174" t="n">
-        <v>-200882.7046461</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>179</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6205,22 +6167,21 @@
         <v>3</v>
       </c>
       <c r="G175" t="n">
-        <v>-200879.7046461</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>179</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6242,22 +6203,21 @@
         <v>4.1753</v>
       </c>
       <c r="G176" t="n">
-        <v>-200879.7046461</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>179</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6279,24 +6239,21 @@
         <v>3</v>
       </c>
       <c r="G177" t="n">
-        <v>-200882.7046461</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6318,24 +6275,21 @@
         <v>53.5964</v>
       </c>
       <c r="G178" t="n">
-        <v>-200829.1082461</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6357,24 +6311,21 @@
         <v>1000</v>
       </c>
       <c r="G179" t="n">
-        <v>-201829.1082461</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6396,24 +6347,21 @@
         <v>2500</v>
       </c>
       <c r="G180" t="n">
-        <v>-199329.1082461</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
